--- a/model_comparison/model_comparison.xlsx
+++ b/model_comparison/model_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444BF76E-AE00-4294-830A-6D748C8A4BCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0328450A-1F5D-453F-8F3F-AC38DAF537E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{5CEAE545-A299-4C48-92E4-DD670355EE21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{5CEAE545-A299-4C48-92E4-DD670355EE21}"/>
   </bookViews>
   <sheets>
     <sheet name="VGG 16" sheetId="1" r:id="rId1"/>
@@ -1949,7 +1949,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1961,6 +1961,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1983,17 +1991,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="576">
@@ -4686,7 +4697,7 @@
   <dimension ref="A1:BT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5238,7 +5249,7 @@
         <f>HYPERLINK("https://upload.wikimedia.org/wikipedia/commons/thumb/d/da/4Messer_fcm.png/150px-4Messer_fcm.png")</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/da/4Messer_fcm.png/150px-4Messer_fcm.png</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" s="3" t="str">
         <f>HYPERLINK("https://www.ingenieur.de/wp-content/uploads/2017/11/2016/17082_E-Traktor-von-John-Deere.jpg")</f>
         <v>https://www.ingenieur.de/wp-content/uploads/2017/11/2016/17082_E-Traktor-von-John-Deere.jpg</v>
       </c>
@@ -6795,10 +6806,118 @@
       <c r="A11" t="s">
         <v>612</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6814,7 +6933,7 @@
   <dimension ref="A1:BT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8922,10 +9041,118 @@
       <c r="A11" t="s">
         <v>612</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8941,7 +9168,7 @@
   <dimension ref="A1:BT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9476,7 +9703,7 @@
         <f>HYPERLINK("https://upload.wikimedia.org/wikipedia/commons/9/9b/Wild_Pig_KSC02pd0873.jpg")</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/9/9b/Wild_Pig_KSC02pd0873.jpg</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" s="3" t="str">
         <f>HYPERLINK("https://upload.wikimedia.org/wikipedia/commons/thumb/4/4d/Racemic_methamphetamine.svg/1920px-Racemic_methamphetamine.svg.png")</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4d/Racemic_methamphetamine.svg/1920px-Racemic_methamphetamine.svg.png</v>
       </c>
@@ -11049,10 +11276,118 @@
       <c r="A11" t="s">
         <v>612</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11068,7 +11403,7 @@
   <dimension ref="A1:BT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13177,10 +13512,118 @@
       <c r="A11" t="s">
         <v>612</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13196,7 +13639,7 @@
   <dimension ref="A1:BT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15305,10 +15748,118 @@
       <c r="A11" t="s">
         <v>612</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -15324,7 +15875,7 @@
   <dimension ref="A1:BT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17432,10 +17983,118 @@
       <c r="A11" t="s">
         <v>612</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17451,7 +18110,7 @@
   <dimension ref="A1:BT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19559,10 +20218,118 @@
       <c r="A11" t="s">
         <v>612</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19577,8 +20344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41344A75-69A0-494A-87C9-2B407DF4026F}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21686,10 +22453,118 @@
       <c r="A11" t="s">
         <v>612</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>613</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -21704,8 +22579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A549D88-9782-4382-B82A-DD67F5D5D994}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21750,35 +22625,35 @@
       </c>
       <c r="B4">
         <f>SUM('VGG 16'!B11:BT11)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <f>SUM('VGG 19'!B11:BT11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <f>SUM('MobileNet V2'!B11:BT11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <f>SUM('ResNet 50'!B11:BT11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <f>SUM('DenseNet 201'!B11:BT11)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <f>SUM('Inception V3'!B11:BT11)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <f>SUM(Xception!B11:BT11)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <f>SUM(InceptionResnet!B11:BT11)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -21787,35 +22662,35 @@
       </c>
       <c r="B5">
         <f>SUM('VGG 16'!B12:BT12)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <f>SUM('VGG 19'!B12:BT12)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <f>SUM('MobileNet V2'!B12:BT12)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <f>SUM('ResNet 50'!B12:BT12)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <f>SUM('DenseNet 201'!B12:BT12)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <f>SUM('Inception V3'!B12:BT12)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <f>SUM(Xception!B12:BT12)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I5">
         <f>SUM(InceptionResnet!B12:BT12)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">

--- a/model_comparison/model_comparison.xlsx
+++ b/model_comparison/model_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annikasabrina/Documents/ML_Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0328450A-1F5D-453F-8F3F-AC38DAF537E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B3DF74-B5C8-6143-B8B8-230871F2A845}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{5CEAE545-A299-4C48-92E4-DD670355EE21}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="15620" xr2:uid="{5CEAE545-A299-4C48-92E4-DD670355EE21}"/>
   </bookViews>
   <sheets>
     <sheet name="VGG 16" sheetId="1" r:id="rId1"/>
@@ -4696,86 +4696,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847074CA-00C2-43AD-9380-7F58422588AF}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -5205,7 +5203,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -5494,7 +5492,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5712,7 +5710,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -5930,7 +5928,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -6148,7 +6146,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -6366,7 +6364,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -6584,7 +6582,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -6802,7 +6800,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -6860,8 +6858,62 @@
       <c r="S11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -6917,6 +6969,60 @@
         <v>1</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
         <v>1</v>
       </c>
     </row>
@@ -6936,81 +7042,81 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.5" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.5" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="12" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -7225,7 +7331,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -7440,7 +7546,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -7729,7 +7835,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -7947,7 +8053,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -8165,7 +8271,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -8383,7 +8489,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -8601,7 +8707,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -8819,7 +8925,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -9037,7 +9143,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -9096,7 +9202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -9171,81 +9277,81 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -9460,7 +9566,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -9675,7 +9781,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -9964,7 +10070,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -10182,7 +10288,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -10400,7 +10506,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -10618,7 +10724,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -10836,7 +10942,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -11054,7 +11160,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -11272,7 +11378,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -11331,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -11406,82 +11512,81 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="19" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -11696,7 +11801,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -11911,7 +12016,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -12200,7 +12305,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>474</v>
       </c>
@@ -12418,7 +12523,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -12636,7 +12741,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -12854,7 +12959,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -13072,7 +13177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -13290,7 +13395,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -13508,7 +13613,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -13567,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -13642,82 +13747,80 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.5" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -13932,7 +14035,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -14147,7 +14250,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -14436,7 +14539,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>509</v>
       </c>
@@ -14654,7 +14757,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -14872,7 +14975,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -15090,7 +15193,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -15308,7 +15411,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -15526,7 +15629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -15744,7 +15847,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -15803,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -15878,81 +15981,81 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="15" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -16167,7 +16270,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -16382,7 +16485,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -16671,7 +16774,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>533</v>
       </c>
@@ -16889,7 +16992,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -17107,7 +17210,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -17325,7 +17428,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -17543,7 +17646,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -17761,7 +17864,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -17979,7 +18082,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -18038,7 +18141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -18113,81 +18216,81 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -18402,7 +18505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -18617,7 +18720,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -18906,7 +19009,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>573</v>
       </c>
@@ -19124,7 +19227,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -19342,7 +19445,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -19560,7 +19663,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -19778,7 +19881,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -19996,7 +20099,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -20214,7 +20317,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -20273,7 +20376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -20348,81 +20451,81 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="13" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -20637,7 +20740,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -20852,7 +20955,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -21141,7 +21244,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>591</v>
       </c>
@@ -21359,7 +21462,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -21577,7 +21680,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -21795,7 +21898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -22013,7 +22116,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -22231,7 +22334,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -22449,7 +22552,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -22508,7 +22611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -22579,21 +22682,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A549D88-9782-4382-B82A-DD67F5D5D994}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="17.7109375" customWidth="1"/>
+    <col min="2" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>615</v>
       </c>
@@ -22619,13 +22722,13 @@
         <v>619</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>616</v>
       </c>
       <c r="B4">
         <f>SUM('VGG 16'!B11:BT11)</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <f>SUM('VGG 19'!B11:BT11)</f>
@@ -22656,13 +22759,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>620</v>
       </c>
       <c r="B5">
         <f>SUM('VGG 16'!B12:BT12)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <f>SUM('VGG 19'!B12:BT12)</f>
@@ -22693,7 +22796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>621</v>
       </c>

--- a/model_comparison/model_comparison.xlsx
+++ b/model_comparison/model_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annikasabrina/Documents/ML_Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5B3DF74-B5C8-6143-B8B8-230871F2A845}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E4017-4FAF-4F4D-A724-67F85D300F1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="15620" xr2:uid="{5CEAE545-A299-4C48-92E4-DD670355EE21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{5CEAE545-A299-4C48-92E4-DD670355EE21}"/>
   </bookViews>
   <sheets>
     <sheet name="VGG 16" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="627">
   <si>
     <t>VGG16</t>
   </si>
@@ -1912,9 +1912,6 @@
     <t>Top-5 Accuracy (1 / 0)</t>
   </si>
   <si>
-    <t>Modellvergleich</t>
-  </si>
-  <si>
     <t>VGG 16</t>
   </si>
   <si>
@@ -1943,22 +1940,26 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Modellvergleich - Klassifizierung</t>
+  </si>
+  <si>
+    <t>Idee: Objekterkennung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="8">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1973,13 +1974,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1991,23 +2042,248 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="4" xr:uid="{D42AA4FB-1372-414A-B6BB-5EED9181C071}"/>
   </cellStyles>
-  <dxfs count="576">
+  <dxfs count="600">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF70AD47"/>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3737,7 +4013,48 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="VGG 16-style" pivot="0" count="3" xr9:uid="{CABD8E9D-79B0-46A3-9808-AD5E9DDF416D}">
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+    </tableStyle>
+    <tableStyle name="MobileNet V2-style" pivot="0" count="3" xr9:uid="{5E920C9D-4F2E-4DDF-B947-941E9E0EA26F}">
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+    </tableStyle>
+    <tableStyle name="VGG 19-style" pivot="0" count="3" xr9:uid="{45F7D806-FFB6-419C-B29E-C5140E4565B1}">
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+    </tableStyle>
+    <tableStyle name="DenseNet 201-style" pivot="0" count="3" xr9:uid="{5D400D90-2AFE-40B5-BD65-08D299500315}">
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+    </tableStyle>
+    <tableStyle name="Inception V3-style" pivot="0" count="3" xr9:uid="{C294C66F-C758-4E44-AAF5-15A54804A53F}">
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+    </tableStyle>
+    <tableStyle name="ResNet 50-style" pivot="0" count="3" xr9:uid="{C8D86033-B183-4353-8B2D-D61528BFCE64}">
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+    </tableStyle>
+    <tableStyle name="Xception-style" pivot="0" count="3" xr9:uid="{8111AEAB-F926-4748-BDA0-49DE4C41CD22}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="InceptionResnet-style" pivot="0" count="3" xr9:uid="{B008A482-5616-4350-9429-96AC21CF56CE}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3749,82 +4066,1135 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Vergleich der Modelle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Modellvergleich!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Modellvergleich!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>VGG 16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VGG 19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet V2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DenseNet201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>InceptionV3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Xception</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>InceptionResnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Modellvergleich!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17C0-44AC-9A25-864699537882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Modellvergleich!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Modellvergleich!$B$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>VGG 16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VGG 19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MobileNet V2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ResNet50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DenseNet201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>InceptionV3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Xception</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>InceptionResnet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Modellvergleich!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17C0-44AC-9A25-864699537882}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="316730696"/>
+        <c:axId val="93997064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="316730696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93997064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93997064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316730696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E871A66-E127-4990-B52A-29350286C827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1D6AB7A-1DD7-4754-B1EA-C451EBAE0043}" name="_vgg16" displayName="_vgg16" ref="A4:BT9" totalsRowShown="0">
   <autoFilter ref="A4:BT9" xr:uid="{0EC4601B-6086-4F8C-9C1C-D33CF0FD1228}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{2A7A9E90-4812-487E-9E34-D21F3B53B04F}" name="VGG16" dataDxfId="575"/>
-    <tableColumn id="2" xr3:uid="{2EB04ED6-2A51-4927-8202-257E4A3FF7AF}" name="Laptop.jpg" dataDxfId="574"/>
-    <tableColumn id="3" xr3:uid="{936AB692-4B38-4301-8F2E-EF64D645B703}" name="SteamLocomotive.jpg" dataDxfId="573"/>
-    <tableColumn id="4" xr3:uid="{8A8A5BFB-2468-41BA-B557-992F9869A719}" name="xtc.jpg" dataDxfId="572"/>
-    <tableColumn id="5" xr3:uid="{4E887E50-2F9A-45AD-B051-9370B08C0EF8}" name="heroin.jpg" dataDxfId="571"/>
-    <tableColumn id="6" xr3:uid="{DC22891E-F697-4309-8ECC-76134AF2F1AF}" name="Avocados.jpg" dataDxfId="570"/>
-    <tableColumn id="7" xr3:uid="{1E433C65-798D-42CB-8DAA-544250DBE124}" name="pig.jpg" dataDxfId="569"/>
-    <tableColumn id="8" xr3:uid="{1254CB6A-70AF-459B-9F2E-831EAFC79454}" name="Methamphetamine.png" dataDxfId="568"/>
-    <tableColumn id="9" xr3:uid="{7ABB8F87-67CC-4496-B489-3A62FDA1358E}" name="bomb.jpg" dataDxfId="567"/>
-    <tableColumn id="10" xr3:uid="{9B9B80A2-16F6-4D99-B018-0C50ADD50B30}" name="cannabis.jpg" dataDxfId="566"/>
-    <tableColumn id="11" xr3:uid="{4E69FC13-D197-490E-99C7-671202411AC0}" name="knife.png" dataDxfId="565"/>
-    <tableColumn id="12" xr3:uid="{65C68235-30E9-4828-8763-B499F2F7246D}" name="Tractor.jpg" dataDxfId="564"/>
-    <tableColumn id="13" xr3:uid="{9C51BB24-C027-4472-A02D-CF78D866EDEA}" name="Cellphone.jpg" dataDxfId="563"/>
-    <tableColumn id="14" xr3:uid="{F858DF98-0D7C-417E-8DD6-778DBB9FF562}" name="Bananas.jpg" dataDxfId="562"/>
-    <tableColumn id="15" xr3:uid="{338701EE-0165-44BB-BE4E-132CCB736F45}" name="Ship.jpg" dataDxfId="561"/>
-    <tableColumn id="16" xr3:uid="{213DE00A-E416-481D-90B0-CC6E938200E7}" name="Popcorn.png" dataDxfId="560"/>
-    <tableColumn id="17" xr3:uid="{999039DF-BAE6-46C2-9166-734969CE43A5}" name="Forest.jpg" dataDxfId="559"/>
-    <tableColumn id="18" xr3:uid="{D33B66C6-3988-493C-9086-BD89A565782D}" name="train.jpg" dataDxfId="558"/>
-    <tableColumn id="19" xr3:uid="{46D06E85-56F9-4EE8-B3E5-42EC7E0602E6}" name="Firefighters.jpg" dataDxfId="557"/>
-    <tableColumn id="20" xr3:uid="{2A123B60-707A-4E46-9172-8B31BB20EF88}" name="cocaine.png" dataDxfId="556"/>
-    <tableColumn id="21" xr3:uid="{02D52D70-D839-4245-90AC-13616038B167}" name="drug_addict.jpg" dataDxfId="555"/>
-    <tableColumn id="22" xr3:uid="{3D65B0EC-8D16-43B2-AA98-F004D86FB540}" name="Toothbrush.jpg" dataDxfId="554"/>
-    <tableColumn id="23" xr3:uid="{6E65BA03-E390-45C9-BB14-80FCE300AD66}" name="IceCream.jpg" dataDxfId="553"/>
-    <tableColumn id="24" xr3:uid="{C87C0D41-74F3-4E9E-86CE-6BAC5DF9E343}" name="Cola.jpg" dataDxfId="552"/>
-    <tableColumn id="25" xr3:uid="{FEA646B1-E3E7-49B0-AB30-40C923ABA361}" name="Vulture.jpg" dataDxfId="551"/>
-    <tableColumn id="26" xr3:uid="{244EC120-D266-4B88-AC90-7D6CDF1A32B3}" name="cinema_room.jpg" dataDxfId="550"/>
-    <tableColumn id="27" xr3:uid="{7416E0E5-DA1E-43C6-B0FB-175F9E455A00}" name="smoking_cigarette.jpg" dataDxfId="549"/>
-    <tableColumn id="28" xr3:uid="{746D5826-2D06-4FA3-9A29-39590E253DDC}" name="Alpaca.jpg" dataDxfId="548"/>
-    <tableColumn id="29" xr3:uid="{6BD5A951-7837-4DCA-82DB-7F97A604FCF8}" name="opium_farm.jpg" dataDxfId="547"/>
-    <tableColumn id="30" xr3:uid="{929DA303-A179-46AF-96C0-B1C6CBAD4572}" name="Bike.jpg" dataDxfId="546"/>
-    <tableColumn id="31" xr3:uid="{C451248D-EE1A-4735-BB8A-43BC27449E9F}" name="SoccerGame.jpg" dataDxfId="545"/>
-    <tableColumn id="32" xr3:uid="{FD8A98D4-D702-48BB-97F0-80A750819150}" name="Windows.png" dataDxfId="544"/>
-    <tableColumn id="33" xr3:uid="{9BA63119-EF3A-4E49-B9AE-39EC995ACA1E}" name="Yogurt.jpg" dataDxfId="543"/>
-    <tableColumn id="34" xr3:uid="{34667F14-9E64-4106-B25E-9D091178E7A3}" name="OpenAirSwimmingPool.jpg" dataDxfId="542"/>
-    <tableColumn id="35" xr3:uid="{17899780-3CF4-4F2A-AA61-D86EAD8A9BD3}" name="airport.jpg" dataDxfId="541"/>
-    <tableColumn id="36" xr3:uid="{8FB1E320-60CB-4582-A192-8C3F2DD66D3A}" name="eating_women.jpg" dataDxfId="540"/>
-    <tableColumn id="37" xr3:uid="{A5C93D6B-E8D1-477D-B7CF-EB2A41511EBE}" name="Bird.jpg" dataDxfId="539"/>
-    <tableColumn id="38" xr3:uid="{4738C0CF-F5C3-4AF7-A4DB-498460CA0780}" name="PaintBucket.jpg" dataDxfId="538"/>
-    <tableColumn id="39" xr3:uid="{340A1E02-62BD-4E2A-B79C-F2E9CD3BC9D8}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="537"/>
-    <tableColumn id="40" xr3:uid="{D4B1C753-74CB-46B1-9716-109F2D7AD7C6}" name="car.jpg" dataDxfId="536"/>
-    <tableColumn id="41" xr3:uid="{80F0C284-F0D0-4D09-B8F5-5EF6F9C184E3}" name="SoupBowl.jpg" dataDxfId="535"/>
-    <tableColumn id="42" xr3:uid="{646AF500-F4EE-4E3B-971D-757C2E0E3C82}" name="boat.jpg" dataDxfId="534"/>
-    <tableColumn id="43" xr3:uid="{5F5309DF-325D-4925-8E0A-433A3F137F23}" name="Hedgehog.jpg" dataDxfId="533"/>
-    <tableColumn id="44" xr3:uid="{AB7360C0-D7B7-41F2-8DF9-A1228B96C2A3}" name="Butter.jpg" dataDxfId="532"/>
-    <tableColumn id="45" xr3:uid="{40B01027-2DC1-40C9-9322-EF4ED67EAB1C}" name="lsd.png" dataDxfId="531"/>
-    <tableColumn id="46" xr3:uid="{2D53793A-7E4C-48C7-B531-53692D6079E2}" name="Pond.jpg" dataDxfId="530"/>
-    <tableColumn id="47" xr3:uid="{D3327EB5-5EDD-4407-93D0-CBC9D6B44054}" name="Hike.jpg" dataDxfId="529"/>
-    <tableColumn id="48" xr3:uid="{3DB2048D-E4A1-4CBB-8967-3B6AEC651B54}" name="PetrolStation.jpg" dataDxfId="528"/>
-    <tableColumn id="49" xr3:uid="{E00FD631-DF5E-4C0D-9846-9FD772B8C564}" name="Grenade.JPG" dataDxfId="527"/>
-    <tableColumn id="50" xr3:uid="{B3950CEA-4535-44C8-A1A4-ACB48AEA5AAE}" name="Glock17Gen4.jpg" dataDxfId="526"/>
-    <tableColumn id="51" xr3:uid="{DB95449E-1A1C-4971-BE24-2E4676946431}" name="Phone.jpg" dataDxfId="525"/>
-    <tableColumn id="52" xr3:uid="{3196E56B-71EA-4687-8C20-B7749682EB82}" name="bike_tour.jpg" dataDxfId="524"/>
-    <tableColumn id="53" xr3:uid="{B4CA1313-050D-4C51-B1FB-51EBAEA57E8C}" name="Bread.jpg" dataDxfId="523"/>
-    <tableColumn id="54" xr3:uid="{21E52597-DE6B-47DA-91BD-C2E1867E6B8E}" name="Hotel.jpg" dataDxfId="522"/>
-    <tableColumn id="55" xr3:uid="{416264D7-ED5A-42F8-812A-33C740E1144E}" name="WashingMachine.JPG" dataDxfId="521"/>
-    <tableColumn id="56" xr3:uid="{FF6C2BB6-9C48-445A-A9CC-644E095DB924}" name="runway.jpg" dataDxfId="520"/>
-    <tableColumn id="57" xr3:uid="{4C95A000-F296-42E8-8490-229C258E30D1}" name="Bookshelf.jpg" dataDxfId="519"/>
-    <tableColumn id="58" xr3:uid="{A266FEF5-C504-4E26-B367-B7E0D3660974}" name="Cheese.jpg" dataDxfId="518"/>
-    <tableColumn id="59" xr3:uid="{4C28EFD5-981D-4976-8C67-2862FA1746DF}" name="drugs.jpg" dataDxfId="517"/>
-    <tableColumn id="60" xr3:uid="{1B5E8F7B-688B-40A9-BB8D-27B7806F3010}" name="Flag_of_jihad.png" dataDxfId="516"/>
-    <tableColumn id="61" xr3:uid="{1AF92E80-B03B-4886-9877-AEFCA8BC3C6A}" name="Al_Qaida.jpg" dataDxfId="515"/>
-    <tableColumn id="62" xr3:uid="{38357739-9482-4EFB-9F7B-3FFE62997C4E}" name="Apple.jpg" dataDxfId="514"/>
-    <tableColumn id="63" xr3:uid="{11FD5F67-B29E-4286-8E00-8D5CC251F7E9}" name="soccer_field.jpg" dataDxfId="513"/>
-    <tableColumn id="64" xr3:uid="{7E110952-312E-4AFA-9AD5-231E22278073}" name="SofaBed.jpg" dataDxfId="512"/>
-    <tableColumn id="65" xr3:uid="{A35E8DC0-70BC-4343-97B5-B7FFFE9DAF01}" name="Giraffe.jpg" dataDxfId="511"/>
-    <tableColumn id="66" xr3:uid="{61EAC2BD-5929-47D0-A6C4-BDC8D8C90444}" name="party_crowd.jpg" dataDxfId="510"/>
-    <tableColumn id="67" xr3:uid="{2AEA7A9A-6E39-4F84-9683-74C987384968}" name="Cola.jpg2" dataDxfId="509"/>
-    <tableColumn id="68" xr3:uid="{7E9D078D-5307-4E42-877A-7491AEDCED6D}" name="Beer.jpg" dataDxfId="508"/>
-    <tableColumn id="69" xr3:uid="{4EF219CB-5843-4D99-9976-B5C2B67BDD82}" name="children.jpg" dataDxfId="507"/>
-    <tableColumn id="70" xr3:uid="{F78BCB85-9887-4173-949E-7CB038E8962C}" name="cocaine.jpg" dataDxfId="506"/>
-    <tableColumn id="71" xr3:uid="{0D83F019-2A5E-413D-88FA-4D3CAB154FE2}" name="refugeecamp.jpg" dataDxfId="505"/>
-    <tableColumn id="72" xr3:uid="{FB618BB8-E1AC-4F40-A3D1-F67BAE95E5C4}" name="Car.jpg3" dataDxfId="504"/>
+    <tableColumn id="1" xr3:uid="{2A7A9E90-4812-487E-9E34-D21F3B53B04F}" name="VGG16" dataDxfId="599"/>
+    <tableColumn id="2" xr3:uid="{2EB04ED6-2A51-4927-8202-257E4A3FF7AF}" name="Laptop.jpg" dataDxfId="598"/>
+    <tableColumn id="3" xr3:uid="{936AB692-4B38-4301-8F2E-EF64D645B703}" name="SteamLocomotive.jpg" dataDxfId="597"/>
+    <tableColumn id="4" xr3:uid="{8A8A5BFB-2468-41BA-B557-992F9869A719}" name="xtc.jpg" dataDxfId="596"/>
+    <tableColumn id="5" xr3:uid="{4E887E50-2F9A-45AD-B051-9370B08C0EF8}" name="heroin.jpg" dataDxfId="595"/>
+    <tableColumn id="6" xr3:uid="{DC22891E-F697-4309-8ECC-76134AF2F1AF}" name="Avocados.jpg" dataDxfId="594"/>
+    <tableColumn id="7" xr3:uid="{1E433C65-798D-42CB-8DAA-544250DBE124}" name="pig.jpg" dataDxfId="593"/>
+    <tableColumn id="8" xr3:uid="{1254CB6A-70AF-459B-9F2E-831EAFC79454}" name="Methamphetamine.png" dataDxfId="592"/>
+    <tableColumn id="9" xr3:uid="{7ABB8F87-67CC-4496-B489-3A62FDA1358E}" name="bomb.jpg" dataDxfId="591"/>
+    <tableColumn id="10" xr3:uid="{9B9B80A2-16F6-4D99-B018-0C50ADD50B30}" name="cannabis.jpg" dataDxfId="590"/>
+    <tableColumn id="11" xr3:uid="{4E69FC13-D197-490E-99C7-671202411AC0}" name="knife.png" dataDxfId="589"/>
+    <tableColumn id="12" xr3:uid="{65C68235-30E9-4828-8763-B499F2F7246D}" name="Tractor.jpg" dataDxfId="588"/>
+    <tableColumn id="13" xr3:uid="{9C51BB24-C027-4472-A02D-CF78D866EDEA}" name="Cellphone.jpg" dataDxfId="587"/>
+    <tableColumn id="14" xr3:uid="{F858DF98-0D7C-417E-8DD6-778DBB9FF562}" name="Bananas.jpg" dataDxfId="586"/>
+    <tableColumn id="15" xr3:uid="{338701EE-0165-44BB-BE4E-132CCB736F45}" name="Ship.jpg" dataDxfId="585"/>
+    <tableColumn id="16" xr3:uid="{213DE00A-E416-481D-90B0-CC6E938200E7}" name="Popcorn.png" dataDxfId="584"/>
+    <tableColumn id="17" xr3:uid="{999039DF-BAE6-46C2-9166-734969CE43A5}" name="Forest.jpg" dataDxfId="583"/>
+    <tableColumn id="18" xr3:uid="{D33B66C6-3988-493C-9086-BD89A565782D}" name="train.jpg" dataDxfId="582"/>
+    <tableColumn id="19" xr3:uid="{46D06E85-56F9-4EE8-B3E5-42EC7E0602E6}" name="Firefighters.jpg" dataDxfId="581"/>
+    <tableColumn id="20" xr3:uid="{2A123B60-707A-4E46-9172-8B31BB20EF88}" name="cocaine.png" dataDxfId="580"/>
+    <tableColumn id="21" xr3:uid="{02D52D70-D839-4245-90AC-13616038B167}" name="drug_addict.jpg" dataDxfId="579"/>
+    <tableColumn id="22" xr3:uid="{3D65B0EC-8D16-43B2-AA98-F004D86FB540}" name="Toothbrush.jpg" dataDxfId="578"/>
+    <tableColumn id="23" xr3:uid="{6E65BA03-E390-45C9-BB14-80FCE300AD66}" name="IceCream.jpg" dataDxfId="577"/>
+    <tableColumn id="24" xr3:uid="{C87C0D41-74F3-4E9E-86CE-6BAC5DF9E343}" name="Cola.jpg" dataDxfId="576"/>
+    <tableColumn id="25" xr3:uid="{FEA646B1-E3E7-49B0-AB30-40C923ABA361}" name="Vulture.jpg" dataDxfId="575"/>
+    <tableColumn id="26" xr3:uid="{244EC120-D266-4B88-AC90-7D6CDF1A32B3}" name="cinema_room.jpg" dataDxfId="574"/>
+    <tableColumn id="27" xr3:uid="{7416E0E5-DA1E-43C6-B0FB-175F9E455A00}" name="smoking_cigarette.jpg" dataDxfId="573"/>
+    <tableColumn id="28" xr3:uid="{746D5826-2D06-4FA3-9A29-39590E253DDC}" name="Alpaca.jpg" dataDxfId="572"/>
+    <tableColumn id="29" xr3:uid="{6BD5A951-7837-4DCA-82DB-7F97A604FCF8}" name="opium_farm.jpg" dataDxfId="571"/>
+    <tableColumn id="30" xr3:uid="{929DA303-A179-46AF-96C0-B1C6CBAD4572}" name="Bike.jpg" dataDxfId="570"/>
+    <tableColumn id="31" xr3:uid="{C451248D-EE1A-4735-BB8A-43BC27449E9F}" name="SoccerGame.jpg" dataDxfId="569"/>
+    <tableColumn id="32" xr3:uid="{FD8A98D4-D702-48BB-97F0-80A750819150}" name="Windows.png" dataDxfId="568"/>
+    <tableColumn id="33" xr3:uid="{9BA63119-EF3A-4E49-B9AE-39EC995ACA1E}" name="Yogurt.jpg" dataDxfId="567"/>
+    <tableColumn id="34" xr3:uid="{34667F14-9E64-4106-B25E-9D091178E7A3}" name="OpenAirSwimmingPool.jpg" dataDxfId="566"/>
+    <tableColumn id="35" xr3:uid="{17899780-3CF4-4F2A-AA61-D86EAD8A9BD3}" name="airport.jpg" dataDxfId="565"/>
+    <tableColumn id="36" xr3:uid="{8FB1E320-60CB-4582-A192-8C3F2DD66D3A}" name="eating_women.jpg" dataDxfId="564"/>
+    <tableColumn id="37" xr3:uid="{A5C93D6B-E8D1-477D-B7CF-EB2A41511EBE}" name="Bird.jpg" dataDxfId="563"/>
+    <tableColumn id="38" xr3:uid="{4738C0CF-F5C3-4AF7-A4DB-498460CA0780}" name="PaintBucket.jpg" dataDxfId="562"/>
+    <tableColumn id="39" xr3:uid="{340A1E02-62BD-4E2A-B79C-F2E9CD3BC9D8}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="561"/>
+    <tableColumn id="40" xr3:uid="{D4B1C753-74CB-46B1-9716-109F2D7AD7C6}" name="car.jpg" dataDxfId="560"/>
+    <tableColumn id="41" xr3:uid="{80F0C284-F0D0-4D09-B8F5-5EF6F9C184E3}" name="SoupBowl.jpg" dataDxfId="559"/>
+    <tableColumn id="42" xr3:uid="{646AF500-F4EE-4E3B-971D-757C2E0E3C82}" name="boat.jpg" dataDxfId="558"/>
+    <tableColumn id="43" xr3:uid="{5F5309DF-325D-4925-8E0A-433A3F137F23}" name="Hedgehog.jpg" dataDxfId="557"/>
+    <tableColumn id="44" xr3:uid="{AB7360C0-D7B7-41F2-8DF9-A1228B96C2A3}" name="Butter.jpg" dataDxfId="556"/>
+    <tableColumn id="45" xr3:uid="{40B01027-2DC1-40C9-9322-EF4ED67EAB1C}" name="lsd.png" dataDxfId="555"/>
+    <tableColumn id="46" xr3:uid="{2D53793A-7E4C-48C7-B531-53692D6079E2}" name="Pond.jpg" dataDxfId="554"/>
+    <tableColumn id="47" xr3:uid="{D3327EB5-5EDD-4407-93D0-CBC9D6B44054}" name="Hike.jpg" dataDxfId="553"/>
+    <tableColumn id="48" xr3:uid="{3DB2048D-E4A1-4CBB-8967-3B6AEC651B54}" name="PetrolStation.jpg" dataDxfId="552"/>
+    <tableColumn id="49" xr3:uid="{E00FD631-DF5E-4C0D-9846-9FD772B8C564}" name="Grenade.JPG" dataDxfId="551"/>
+    <tableColumn id="50" xr3:uid="{B3950CEA-4535-44C8-A1A4-ACB48AEA5AAE}" name="Glock17Gen4.jpg" dataDxfId="550"/>
+    <tableColumn id="51" xr3:uid="{DB95449E-1A1C-4971-BE24-2E4676946431}" name="Phone.jpg" dataDxfId="549"/>
+    <tableColumn id="52" xr3:uid="{3196E56B-71EA-4687-8C20-B7749682EB82}" name="bike_tour.jpg" dataDxfId="548"/>
+    <tableColumn id="53" xr3:uid="{B4CA1313-050D-4C51-B1FB-51EBAEA57E8C}" name="Bread.jpg" dataDxfId="547"/>
+    <tableColumn id="54" xr3:uid="{21E52597-DE6B-47DA-91BD-C2E1867E6B8E}" name="Hotel.jpg" dataDxfId="546"/>
+    <tableColumn id="55" xr3:uid="{416264D7-ED5A-42F8-812A-33C740E1144E}" name="WashingMachine.JPG" dataDxfId="545"/>
+    <tableColumn id="56" xr3:uid="{FF6C2BB6-9C48-445A-A9CC-644E095DB924}" name="runway.jpg" dataDxfId="544"/>
+    <tableColumn id="57" xr3:uid="{4C95A000-F296-42E8-8490-229C258E30D1}" name="Bookshelf.jpg" dataDxfId="543"/>
+    <tableColumn id="58" xr3:uid="{A266FEF5-C504-4E26-B367-B7E0D3660974}" name="Cheese.jpg" dataDxfId="542"/>
+    <tableColumn id="59" xr3:uid="{4C28EFD5-981D-4976-8C67-2862FA1746DF}" name="drugs.jpg" dataDxfId="541"/>
+    <tableColumn id="60" xr3:uid="{1B5E8F7B-688B-40A9-BB8D-27B7806F3010}" name="Flag_of_jihad.png" dataDxfId="540"/>
+    <tableColumn id="61" xr3:uid="{1AF92E80-B03B-4886-9877-AEFCA8BC3C6A}" name="Al_Qaida.jpg" dataDxfId="539"/>
+    <tableColumn id="62" xr3:uid="{38357739-9482-4EFB-9F7B-3FFE62997C4E}" name="Apple.jpg" dataDxfId="538"/>
+    <tableColumn id="63" xr3:uid="{11FD5F67-B29E-4286-8E00-8D5CC251F7E9}" name="soccer_field.jpg" dataDxfId="537"/>
+    <tableColumn id="64" xr3:uid="{7E110952-312E-4AFA-9AD5-231E22278073}" name="SofaBed.jpg" dataDxfId="536"/>
+    <tableColumn id="65" xr3:uid="{A35E8DC0-70BC-4343-97B5-B7FFFE9DAF01}" name="Giraffe.jpg" dataDxfId="535"/>
+    <tableColumn id="66" xr3:uid="{61EAC2BD-5929-47D0-A6C4-BDC8D8C90444}" name="party_crowd.jpg" dataDxfId="534"/>
+    <tableColumn id="67" xr3:uid="{2AEA7A9A-6E39-4F84-9683-74C987384968}" name="Cola.jpg2" dataDxfId="533"/>
+    <tableColumn id="68" xr3:uid="{7E9D078D-5307-4E42-877A-7491AEDCED6D}" name="Beer.jpg" dataDxfId="532"/>
+    <tableColumn id="69" xr3:uid="{4EF219CB-5843-4D99-9976-B5C2B67BDD82}" name="children.jpg" dataDxfId="531"/>
+    <tableColumn id="70" xr3:uid="{F78BCB85-9887-4173-949E-7CB038E8962C}" name="cocaine.jpg" dataDxfId="530"/>
+    <tableColumn id="71" xr3:uid="{0D83F019-2A5E-413D-88FA-4D3CAB154FE2}" name="refugeecamp.jpg" dataDxfId="529"/>
+    <tableColumn id="72" xr3:uid="{FB618BB8-E1AC-4F40-A3D1-F67BAE95E5C4}" name="Car.jpg3" dataDxfId="528"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3834,78 +5204,78 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46EA8EF0-DF9D-4626-805A-6821219D3C5F}" name="_vgg19" displayName="_vgg19" ref="A4:BT9" totalsRowShown="0">
   <autoFilter ref="A4:BT9" xr:uid="{DE35A263-7586-479E-8B3A-67C633061F88}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{8512D6F1-D4A1-4E11-8FC7-E92751FD86FB}" name="VGG19" dataDxfId="503"/>
-    <tableColumn id="2" xr3:uid="{0D48382A-8F8A-46C6-B81E-767B6E790CC6}" name="Laptop.jpg" dataDxfId="502"/>
-    <tableColumn id="3" xr3:uid="{D0C3E114-03B7-405E-A9A4-4969B8893EFA}" name="SteamLocomotive.jpg" dataDxfId="501"/>
-    <tableColumn id="4" xr3:uid="{9C5D8089-87B4-47B4-B2FE-F60A86D004D0}" name="xtc.jpg" dataDxfId="500"/>
-    <tableColumn id="5" xr3:uid="{F43C2576-F714-4542-9840-0A342043C934}" name="heroin.jpg" dataDxfId="499"/>
-    <tableColumn id="6" xr3:uid="{4B76292F-BE38-4134-920B-E434E27ADC1D}" name="Avocados.jpg" dataDxfId="498"/>
-    <tableColumn id="7" xr3:uid="{48E00E1C-5755-4604-9898-F85551EC5525}" name="pig.jpg" dataDxfId="497"/>
-    <tableColumn id="8" xr3:uid="{2693F95B-E1E8-497B-980E-A8FC4F00C33D}" name="Methamphetamine.png" dataDxfId="496"/>
-    <tableColumn id="9" xr3:uid="{029E0A29-3578-4BB8-86BA-5CC72A9F4B44}" name="bomb.jpg" dataDxfId="495"/>
-    <tableColumn id="10" xr3:uid="{21C2044E-A9BE-4886-AEC6-F2C996926DA3}" name="cannabis.jpg" dataDxfId="494"/>
-    <tableColumn id="11" xr3:uid="{4B537FA5-B597-4F09-B280-D4F2CDF219E0}" name="knife.png" dataDxfId="493"/>
-    <tableColumn id="12" xr3:uid="{6098DE52-8D7E-4878-978E-D3C9FE1278AA}" name="Tractor.jpg" dataDxfId="492"/>
-    <tableColumn id="13" xr3:uid="{902CF328-14C2-404C-A5DB-063967C69DA1}" name="Cellphone.jpg" dataDxfId="491"/>
-    <tableColumn id="14" xr3:uid="{80E2FB1E-B1D7-4A2F-AFF6-7D1D09B085B8}" name="Bananas.jpg" dataDxfId="490"/>
-    <tableColumn id="15" xr3:uid="{3CF30C29-426A-4EC3-875C-BC8F9E6E41A4}" name="Ship.jpg" dataDxfId="489"/>
-    <tableColumn id="16" xr3:uid="{465B3E18-DF61-44B2-8D6C-65D3A0B6BABD}" name="Popcorn.png" dataDxfId="488"/>
-    <tableColumn id="17" xr3:uid="{EFB0DFAD-55E7-43C4-96A8-578A6F1A719A}" name="Forest.jpg" dataDxfId="487"/>
-    <tableColumn id="18" xr3:uid="{5E566626-97BE-4456-8E19-FEB120CBDE1A}" name="train.jpg" dataDxfId="486"/>
-    <tableColumn id="19" xr3:uid="{DABA0A3A-815D-4297-BD9D-102D9CE2CD46}" name="Firefighters.jpg" dataDxfId="485"/>
-    <tableColumn id="20" xr3:uid="{56CEAA93-CD4D-4F8C-B8BA-C5F701C2B14F}" name="cocaine.png" dataDxfId="484"/>
-    <tableColumn id="21" xr3:uid="{888C35EC-BB5D-4495-BA6F-BA32B586D672}" name="drug_addict.jpg" dataDxfId="483"/>
-    <tableColumn id="22" xr3:uid="{490EA6CF-2772-4D53-8995-8E1438D175F1}" name="Toothbrush.jpg" dataDxfId="482"/>
-    <tableColumn id="23" xr3:uid="{C0EFA342-2B95-4D01-801E-7DA768DB0896}" name="IceCream.jpg" dataDxfId="481"/>
-    <tableColumn id="24" xr3:uid="{5FDEF4B1-9912-4120-85FE-A27327966DE3}" name="Cola.jpg" dataDxfId="480"/>
-    <tableColumn id="25" xr3:uid="{B4D02228-890A-45F7-A778-E759029C9A0D}" name="Vulture.jpg" dataDxfId="479"/>
-    <tableColumn id="26" xr3:uid="{22817E66-780E-4E21-9BFE-8AB81741663F}" name="cinema_room.jpg" dataDxfId="478"/>
-    <tableColumn id="27" xr3:uid="{F71B21EE-E0F7-4CD1-97B4-CB012AB24C21}" name="smoking_cigarette.jpg" dataDxfId="477"/>
-    <tableColumn id="28" xr3:uid="{3A089881-EAAE-4423-B05B-427FCAAD95BA}" name="Alpaca.jpg" dataDxfId="476"/>
-    <tableColumn id="29" xr3:uid="{190BF0CC-2342-4ABC-9112-33F16774DBD9}" name="opium_farm.jpg" dataDxfId="475"/>
-    <tableColumn id="30" xr3:uid="{0FDDAC27-2D94-44C1-A08E-37C4EE3C424B}" name="Bike.jpg" dataDxfId="474"/>
-    <tableColumn id="31" xr3:uid="{F4AC8706-CFD9-4412-BDAC-69B9585BFD9D}" name="SoccerGame.jpg" dataDxfId="473"/>
-    <tableColumn id="32" xr3:uid="{2AC63F44-B7A2-4112-A1D3-93B1D1D693DA}" name="Windows.png" dataDxfId="472"/>
-    <tableColumn id="33" xr3:uid="{47FF900F-6DC5-4C84-AC74-C9292F5AF6D5}" name="Yogurt.jpg" dataDxfId="471"/>
-    <tableColumn id="34" xr3:uid="{A141BCEE-3A0F-4013-B09B-6284A75765D5}" name="OpenAirSwimmingPool.jpg" dataDxfId="470"/>
-    <tableColumn id="35" xr3:uid="{83E4B27C-D4F3-4A20-9C23-7E7DC1172427}" name="airport.jpg" dataDxfId="469"/>
-    <tableColumn id="36" xr3:uid="{E4C5E653-A6D7-4AC2-8ADE-0AA8999A083D}" name="eating_women.jpg" dataDxfId="468"/>
-    <tableColumn id="37" xr3:uid="{1F06F362-6F0A-499E-BCE5-8943DE7E8A54}" name="Bird.jpg" dataDxfId="467"/>
-    <tableColumn id="38" xr3:uid="{CD042F1C-7A71-445A-8CAE-4ED2E77180FF}" name="PaintBucket.jpg" dataDxfId="466"/>
-    <tableColumn id="39" xr3:uid="{A4ED4BCB-3BB7-431F-9362-E57E892A0B86}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="465"/>
-    <tableColumn id="40" xr3:uid="{FD3F5DC1-E0E8-491A-BB60-836F45AF4A38}" name="car.jpg" dataDxfId="464"/>
-    <tableColumn id="41" xr3:uid="{4D1EE336-449E-435F-B1DF-13A3D1ACBE8B}" name="SoupBowl.jpg" dataDxfId="463"/>
-    <tableColumn id="42" xr3:uid="{8036C88C-3C6D-4710-84D1-24C06813F3A3}" name="boat.jpg" dataDxfId="462"/>
-    <tableColumn id="43" xr3:uid="{92CAC62C-66D6-42B5-9941-4737EF4620D2}" name="Hedgehog.jpg" dataDxfId="461"/>
-    <tableColumn id="44" xr3:uid="{5E7C9996-419B-49DB-B9D1-E8C36D80324B}" name="Butter.jpg" dataDxfId="460"/>
-    <tableColumn id="45" xr3:uid="{09F133A2-673E-4F5D-8621-A85C06337486}" name="lsd.png" dataDxfId="459"/>
-    <tableColumn id="46" xr3:uid="{94864893-0748-4CD8-B5AC-BAAE15A7CDE6}" name="Pond.jpg" dataDxfId="458"/>
-    <tableColumn id="47" xr3:uid="{3AD44531-429F-4455-9052-377A943B11B4}" name="Hike.jpg" dataDxfId="457"/>
-    <tableColumn id="48" xr3:uid="{2E375BBF-2FD7-4F84-A442-5B7D69238C8B}" name="PetrolStation.jpg" dataDxfId="456"/>
-    <tableColumn id="49" xr3:uid="{32E094A1-D463-4A9B-9E74-869A5CACF8D2}" name="Grenade.JPG" dataDxfId="455"/>
-    <tableColumn id="50" xr3:uid="{9E98E745-DC43-49A9-A609-756E5F9DA0E0}" name="Glock17Gen4.jpg" dataDxfId="454"/>
-    <tableColumn id="51" xr3:uid="{09011258-800B-404A-A78B-9260B11B3CFB}" name="Phone.jpg" dataDxfId="453"/>
-    <tableColumn id="52" xr3:uid="{D6BC8608-E402-4ED4-85FD-AA884F44323A}" name="bike_tour.jpg" dataDxfId="452"/>
-    <tableColumn id="53" xr3:uid="{788C48A6-E572-472D-8F7B-87E74481E5C5}" name="Bread.jpg" dataDxfId="451"/>
-    <tableColumn id="54" xr3:uid="{E7D292DD-A496-4AB2-A6D5-9C7DB9397339}" name="Hotel.jpg" dataDxfId="450"/>
-    <tableColumn id="55" xr3:uid="{02F68E68-5B97-4256-801E-B03D5660F842}" name="WashingMachine.JPG" dataDxfId="449"/>
-    <tableColumn id="56" xr3:uid="{B906A5A2-8289-4AF2-82A1-BFC918B84501}" name="runway.jpg" dataDxfId="448"/>
-    <tableColumn id="57" xr3:uid="{D3C7D857-E7B7-4F56-A035-786C2543427D}" name="Bookshelf.jpg" dataDxfId="447"/>
-    <tableColumn id="58" xr3:uid="{2B6C48E0-EC45-4623-805A-134835C85AFA}" name="Cheese.jpg" dataDxfId="446"/>
-    <tableColumn id="59" xr3:uid="{E17600F4-1C4D-4650-AF5C-9BC78F6021BE}" name="drugs.jpg" dataDxfId="445"/>
-    <tableColumn id="60" xr3:uid="{54D15244-A28F-4C73-9C77-5806B0CCB5AF}" name="Flag_of_jihad.png" dataDxfId="444"/>
-    <tableColumn id="61" xr3:uid="{552166F7-9BA7-4D93-91FC-B1FE00058C13}" name="Al_Qaida.jpg" dataDxfId="443"/>
-    <tableColumn id="62" xr3:uid="{784E3029-C843-4155-A2BD-5E15E7419ECD}" name="Apple.jpg" dataDxfId="442"/>
-    <tableColumn id="63" xr3:uid="{EB4B352D-3A28-49F1-B895-A118D848BAE7}" name="soccer_field.jpg" dataDxfId="441"/>
-    <tableColumn id="64" xr3:uid="{813DE1E3-A51D-42E3-AF07-150D92E7202F}" name="SofaBed.jpg" dataDxfId="440"/>
-    <tableColumn id="65" xr3:uid="{6891F171-6BFC-43A4-885E-648C239925C1}" name="Giraffe.jpg" dataDxfId="439"/>
-    <tableColumn id="66" xr3:uid="{21F83AD2-4B91-40D1-8DAD-B880B27FEDBB}" name="party_crowd.jpg" dataDxfId="438"/>
-    <tableColumn id="67" xr3:uid="{5962852D-4F29-4638-B79D-B8430B21D201}" name="Cola.jpg2" dataDxfId="437"/>
-    <tableColumn id="68" xr3:uid="{0BCF36C2-0175-4B6B-A59B-3F787F9251B4}" name="Beer.jpg" dataDxfId="436"/>
-    <tableColumn id="69" xr3:uid="{865181BB-2325-487C-9FEE-700E24FA5B13}" name="children.jpg" dataDxfId="435"/>
-    <tableColumn id="70" xr3:uid="{BA625788-6B23-438A-8692-455C02A42E45}" name="cocaine.jpg" dataDxfId="434"/>
-    <tableColumn id="71" xr3:uid="{ED3FA969-A18C-4DC0-8275-873910E80C65}" name="refugeecamp.jpg" dataDxfId="433"/>
-    <tableColumn id="72" xr3:uid="{A92D5161-43C0-4672-AC8D-CA8CD0D4B5DE}" name="Car.jpg3" dataDxfId="432"/>
+    <tableColumn id="1" xr3:uid="{8512D6F1-D4A1-4E11-8FC7-E92751FD86FB}" name="VGG19" dataDxfId="527"/>
+    <tableColumn id="2" xr3:uid="{0D48382A-8F8A-46C6-B81E-767B6E790CC6}" name="Laptop.jpg" dataDxfId="526"/>
+    <tableColumn id="3" xr3:uid="{D0C3E114-03B7-405E-A9A4-4969B8893EFA}" name="SteamLocomotive.jpg" dataDxfId="525"/>
+    <tableColumn id="4" xr3:uid="{9C5D8089-87B4-47B4-B2FE-F60A86D004D0}" name="xtc.jpg" dataDxfId="524"/>
+    <tableColumn id="5" xr3:uid="{F43C2576-F714-4542-9840-0A342043C934}" name="heroin.jpg" dataDxfId="523"/>
+    <tableColumn id="6" xr3:uid="{4B76292F-BE38-4134-920B-E434E27ADC1D}" name="Avocados.jpg" dataDxfId="522"/>
+    <tableColumn id="7" xr3:uid="{48E00E1C-5755-4604-9898-F85551EC5525}" name="pig.jpg" dataDxfId="521"/>
+    <tableColumn id="8" xr3:uid="{2693F95B-E1E8-497B-980E-A8FC4F00C33D}" name="Methamphetamine.png" dataDxfId="520"/>
+    <tableColumn id="9" xr3:uid="{029E0A29-3578-4BB8-86BA-5CC72A9F4B44}" name="bomb.jpg" dataDxfId="519"/>
+    <tableColumn id="10" xr3:uid="{21C2044E-A9BE-4886-AEC6-F2C996926DA3}" name="cannabis.jpg" dataDxfId="518"/>
+    <tableColumn id="11" xr3:uid="{4B537FA5-B597-4F09-B280-D4F2CDF219E0}" name="knife.png" dataDxfId="517"/>
+    <tableColumn id="12" xr3:uid="{6098DE52-8D7E-4878-978E-D3C9FE1278AA}" name="Tractor.jpg" dataDxfId="516"/>
+    <tableColumn id="13" xr3:uid="{902CF328-14C2-404C-A5DB-063967C69DA1}" name="Cellphone.jpg" dataDxfId="515"/>
+    <tableColumn id="14" xr3:uid="{80E2FB1E-B1D7-4A2F-AFF6-7D1D09B085B8}" name="Bananas.jpg" dataDxfId="514"/>
+    <tableColumn id="15" xr3:uid="{3CF30C29-426A-4EC3-875C-BC8F9E6E41A4}" name="Ship.jpg" dataDxfId="513"/>
+    <tableColumn id="16" xr3:uid="{465B3E18-DF61-44B2-8D6C-65D3A0B6BABD}" name="Popcorn.png" dataDxfId="512"/>
+    <tableColumn id="17" xr3:uid="{EFB0DFAD-55E7-43C4-96A8-578A6F1A719A}" name="Forest.jpg" dataDxfId="511"/>
+    <tableColumn id="18" xr3:uid="{5E566626-97BE-4456-8E19-FEB120CBDE1A}" name="train.jpg" dataDxfId="510"/>
+    <tableColumn id="19" xr3:uid="{DABA0A3A-815D-4297-BD9D-102D9CE2CD46}" name="Firefighters.jpg" dataDxfId="509"/>
+    <tableColumn id="20" xr3:uid="{56CEAA93-CD4D-4F8C-B8BA-C5F701C2B14F}" name="cocaine.png" dataDxfId="508"/>
+    <tableColumn id="21" xr3:uid="{888C35EC-BB5D-4495-BA6F-BA32B586D672}" name="drug_addict.jpg" dataDxfId="507"/>
+    <tableColumn id="22" xr3:uid="{490EA6CF-2772-4D53-8995-8E1438D175F1}" name="Toothbrush.jpg" dataDxfId="506"/>
+    <tableColumn id="23" xr3:uid="{C0EFA342-2B95-4D01-801E-7DA768DB0896}" name="IceCream.jpg" dataDxfId="505"/>
+    <tableColumn id="24" xr3:uid="{5FDEF4B1-9912-4120-85FE-A27327966DE3}" name="Cola.jpg" dataDxfId="504"/>
+    <tableColumn id="25" xr3:uid="{B4D02228-890A-45F7-A778-E759029C9A0D}" name="Vulture.jpg" dataDxfId="503"/>
+    <tableColumn id="26" xr3:uid="{22817E66-780E-4E21-9BFE-8AB81741663F}" name="cinema_room.jpg" dataDxfId="502"/>
+    <tableColumn id="27" xr3:uid="{F71B21EE-E0F7-4CD1-97B4-CB012AB24C21}" name="smoking_cigarette.jpg" dataDxfId="501"/>
+    <tableColumn id="28" xr3:uid="{3A089881-EAAE-4423-B05B-427FCAAD95BA}" name="Alpaca.jpg" dataDxfId="500"/>
+    <tableColumn id="29" xr3:uid="{190BF0CC-2342-4ABC-9112-33F16774DBD9}" name="opium_farm.jpg" dataDxfId="499"/>
+    <tableColumn id="30" xr3:uid="{0FDDAC27-2D94-44C1-A08E-37C4EE3C424B}" name="Bike.jpg" dataDxfId="498"/>
+    <tableColumn id="31" xr3:uid="{F4AC8706-CFD9-4412-BDAC-69B9585BFD9D}" name="SoccerGame.jpg" dataDxfId="497"/>
+    <tableColumn id="32" xr3:uid="{2AC63F44-B7A2-4112-A1D3-93B1D1D693DA}" name="Windows.png" dataDxfId="496"/>
+    <tableColumn id="33" xr3:uid="{47FF900F-6DC5-4C84-AC74-C9292F5AF6D5}" name="Yogurt.jpg" dataDxfId="495"/>
+    <tableColumn id="34" xr3:uid="{A141BCEE-3A0F-4013-B09B-6284A75765D5}" name="OpenAirSwimmingPool.jpg" dataDxfId="494"/>
+    <tableColumn id="35" xr3:uid="{83E4B27C-D4F3-4A20-9C23-7E7DC1172427}" name="airport.jpg" dataDxfId="493"/>
+    <tableColumn id="36" xr3:uid="{E4C5E653-A6D7-4AC2-8ADE-0AA8999A083D}" name="eating_women.jpg" dataDxfId="492"/>
+    <tableColumn id="37" xr3:uid="{1F06F362-6F0A-499E-BCE5-8943DE7E8A54}" name="Bird.jpg" dataDxfId="491"/>
+    <tableColumn id="38" xr3:uid="{CD042F1C-7A71-445A-8CAE-4ED2E77180FF}" name="PaintBucket.jpg" dataDxfId="490"/>
+    <tableColumn id="39" xr3:uid="{A4ED4BCB-3BB7-431F-9362-E57E892A0B86}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="489"/>
+    <tableColumn id="40" xr3:uid="{FD3F5DC1-E0E8-491A-BB60-836F45AF4A38}" name="car.jpg" dataDxfId="488"/>
+    <tableColumn id="41" xr3:uid="{4D1EE336-449E-435F-B1DF-13A3D1ACBE8B}" name="SoupBowl.jpg" dataDxfId="487"/>
+    <tableColumn id="42" xr3:uid="{8036C88C-3C6D-4710-84D1-24C06813F3A3}" name="boat.jpg" dataDxfId="486"/>
+    <tableColumn id="43" xr3:uid="{92CAC62C-66D6-42B5-9941-4737EF4620D2}" name="Hedgehog.jpg" dataDxfId="485"/>
+    <tableColumn id="44" xr3:uid="{5E7C9996-419B-49DB-B9D1-E8C36D80324B}" name="Butter.jpg" dataDxfId="484"/>
+    <tableColumn id="45" xr3:uid="{09F133A2-673E-4F5D-8621-A85C06337486}" name="lsd.png" dataDxfId="483"/>
+    <tableColumn id="46" xr3:uid="{94864893-0748-4CD8-B5AC-BAAE15A7CDE6}" name="Pond.jpg" dataDxfId="482"/>
+    <tableColumn id="47" xr3:uid="{3AD44531-429F-4455-9052-377A943B11B4}" name="Hike.jpg" dataDxfId="481"/>
+    <tableColumn id="48" xr3:uid="{2E375BBF-2FD7-4F84-A442-5B7D69238C8B}" name="PetrolStation.jpg" dataDxfId="480"/>
+    <tableColumn id="49" xr3:uid="{32E094A1-D463-4A9B-9E74-869A5CACF8D2}" name="Grenade.JPG" dataDxfId="479"/>
+    <tableColumn id="50" xr3:uid="{9E98E745-DC43-49A9-A609-756E5F9DA0E0}" name="Glock17Gen4.jpg" dataDxfId="478"/>
+    <tableColumn id="51" xr3:uid="{09011258-800B-404A-A78B-9260B11B3CFB}" name="Phone.jpg" dataDxfId="477"/>
+    <tableColumn id="52" xr3:uid="{D6BC8608-E402-4ED4-85FD-AA884F44323A}" name="bike_tour.jpg" dataDxfId="476"/>
+    <tableColumn id="53" xr3:uid="{788C48A6-E572-472D-8F7B-87E74481E5C5}" name="Bread.jpg" dataDxfId="475"/>
+    <tableColumn id="54" xr3:uid="{E7D292DD-A496-4AB2-A6D5-9C7DB9397339}" name="Hotel.jpg" dataDxfId="474"/>
+    <tableColumn id="55" xr3:uid="{02F68E68-5B97-4256-801E-B03D5660F842}" name="WashingMachine.JPG" dataDxfId="473"/>
+    <tableColumn id="56" xr3:uid="{B906A5A2-8289-4AF2-82A1-BFC918B84501}" name="runway.jpg" dataDxfId="472"/>
+    <tableColumn id="57" xr3:uid="{D3C7D857-E7B7-4F56-A035-786C2543427D}" name="Bookshelf.jpg" dataDxfId="471"/>
+    <tableColumn id="58" xr3:uid="{2B6C48E0-EC45-4623-805A-134835C85AFA}" name="Cheese.jpg" dataDxfId="470"/>
+    <tableColumn id="59" xr3:uid="{E17600F4-1C4D-4650-AF5C-9BC78F6021BE}" name="drugs.jpg" dataDxfId="469"/>
+    <tableColumn id="60" xr3:uid="{54D15244-A28F-4C73-9C77-5806B0CCB5AF}" name="Flag_of_jihad.png" dataDxfId="468"/>
+    <tableColumn id="61" xr3:uid="{552166F7-9BA7-4D93-91FC-B1FE00058C13}" name="Al_Qaida.jpg" dataDxfId="467"/>
+    <tableColumn id="62" xr3:uid="{784E3029-C843-4155-A2BD-5E15E7419ECD}" name="Apple.jpg" dataDxfId="466"/>
+    <tableColumn id="63" xr3:uid="{EB4B352D-3A28-49F1-B895-A118D848BAE7}" name="soccer_field.jpg" dataDxfId="465"/>
+    <tableColumn id="64" xr3:uid="{813DE1E3-A51D-42E3-AF07-150D92E7202F}" name="SofaBed.jpg" dataDxfId="464"/>
+    <tableColumn id="65" xr3:uid="{6891F171-6BFC-43A4-885E-648C239925C1}" name="Giraffe.jpg" dataDxfId="463"/>
+    <tableColumn id="66" xr3:uid="{21F83AD2-4B91-40D1-8DAD-B880B27FEDBB}" name="party_crowd.jpg" dataDxfId="462"/>
+    <tableColumn id="67" xr3:uid="{5962852D-4F29-4638-B79D-B8430B21D201}" name="Cola.jpg2" dataDxfId="461"/>
+    <tableColumn id="68" xr3:uid="{0BCF36C2-0175-4B6B-A59B-3F787F9251B4}" name="Beer.jpg" dataDxfId="460"/>
+    <tableColumn id="69" xr3:uid="{865181BB-2325-487C-9FEE-700E24FA5B13}" name="children.jpg" dataDxfId="459"/>
+    <tableColumn id="70" xr3:uid="{BA625788-6B23-438A-8692-455C02A42E45}" name="cocaine.jpg" dataDxfId="458"/>
+    <tableColumn id="71" xr3:uid="{ED3FA969-A18C-4DC0-8275-873910E80C65}" name="refugeecamp.jpg" dataDxfId="457"/>
+    <tableColumn id="72" xr3:uid="{A92D5161-43C0-4672-AC8D-CA8CD0D4B5DE}" name="Car.jpg3" dataDxfId="456"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3915,78 +5285,78 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D233C417-C60A-40CB-9323-10265A5E383B}" name="mobile_net_v2" displayName="mobile_net_v2" ref="A4:BT9" totalsRowShown="0">
   <autoFilter ref="A4:BT9" xr:uid="{DA263589-9BF6-4112-BDED-EADC4CAAAA74}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{6A49C65F-B00B-44A8-8274-25AC5A7205CD}" name="MobileNetV2" dataDxfId="431"/>
-    <tableColumn id="2" xr3:uid="{7E8CA551-831B-40C6-9994-882C4CE23006}" name="Laptop.jpg" dataDxfId="430"/>
-    <tableColumn id="3" xr3:uid="{DEABA442-6850-45E8-8632-77ACCC9FCAEC}" name="SteamLocomotive.jpg" dataDxfId="429"/>
-    <tableColumn id="4" xr3:uid="{7871FF80-4CFF-4F36-99B4-C5244C000FD0}" name="xtc.jpg" dataDxfId="428"/>
-    <tableColumn id="5" xr3:uid="{5EC7ABE0-1F8F-4050-B9C1-3CD822B6DE28}" name="heroin.jpg" dataDxfId="427"/>
-    <tableColumn id="6" xr3:uid="{BAD70202-CE30-4C3C-9E08-9CD3055A30C9}" name="Avocados.jpg" dataDxfId="426"/>
-    <tableColumn id="7" xr3:uid="{22149177-59E5-4972-A4AD-E3378A2657B2}" name="pig.jpg" dataDxfId="425"/>
-    <tableColumn id="8" xr3:uid="{19FBED2A-8F06-4D38-BC51-BD3F281E77D1}" name="Methamphetamine.png" dataDxfId="424"/>
-    <tableColumn id="9" xr3:uid="{C20E1BDB-513A-47FD-9597-3FA0F3F670D1}" name="bomb.jpg" dataDxfId="423"/>
-    <tableColumn id="10" xr3:uid="{06AEEC7D-E975-40E5-AE50-BD7E2A194B52}" name="cannabis.jpg" dataDxfId="422"/>
-    <tableColumn id="11" xr3:uid="{09E83527-BAF0-4721-9697-57A935472AC2}" name="knife.png" dataDxfId="421"/>
-    <tableColumn id="12" xr3:uid="{9A6748A0-A18A-480E-BAA6-6AFF86F857ED}" name="Tractor.jpg" dataDxfId="420"/>
-    <tableColumn id="13" xr3:uid="{762D0449-6A3C-4D49-8405-BC0738491C1F}" name="Cellphone.jpg" dataDxfId="419"/>
-    <tableColumn id="14" xr3:uid="{3E3B337C-CCE7-46A4-8F62-EC513354B757}" name="Bananas.jpg" dataDxfId="418"/>
-    <tableColumn id="15" xr3:uid="{7C68F582-A598-4B1B-AF07-08E338D03AAD}" name="Ship.jpg" dataDxfId="417"/>
-    <tableColumn id="16" xr3:uid="{05802625-F7BD-451C-B7B9-144C9642780F}" name="Popcorn.png" dataDxfId="416"/>
-    <tableColumn id="17" xr3:uid="{E44D1999-FC03-41DB-9177-91AD5C792115}" name="Forest.jpg" dataDxfId="415"/>
-    <tableColumn id="18" xr3:uid="{345BFED9-0FE3-42A1-99BB-0D87F6276897}" name="train.jpg" dataDxfId="414"/>
-    <tableColumn id="19" xr3:uid="{FD4B7C45-654D-43A9-9D70-AC719744762F}" name="Firefighters.jpg" dataDxfId="413"/>
-    <tableColumn id="20" xr3:uid="{F1106496-00E5-4F06-90C5-0B7BE35D35C2}" name="cocaine.png" dataDxfId="412"/>
-    <tableColumn id="21" xr3:uid="{A1BC1B54-77F6-4E70-9373-5778B00B256D}" name="drug_addict.jpg" dataDxfId="411"/>
-    <tableColumn id="22" xr3:uid="{669F6291-8418-42DF-ACCE-ED0DB495C0EE}" name="Toothbrush.jpg" dataDxfId="410"/>
-    <tableColumn id="23" xr3:uid="{14429AC9-6A4E-499A-A804-DD625522B175}" name="IceCream.jpg" dataDxfId="409"/>
-    <tableColumn id="24" xr3:uid="{CFF14AE2-52B0-4C4A-A37B-B4E431A20D57}" name="Cola.jpg" dataDxfId="408"/>
-    <tableColumn id="25" xr3:uid="{2C01FFCD-B043-4133-96F4-45CDEE8A5198}" name="Vulture.jpg" dataDxfId="407"/>
-    <tableColumn id="26" xr3:uid="{E95A5F99-5F0F-4D51-8159-12664EB65FD4}" name="cinema_room.jpg" dataDxfId="406"/>
-    <tableColumn id="27" xr3:uid="{C48A6961-3965-4873-9404-CDD2D07A367C}" name="smoking_cigarette.jpg" dataDxfId="405"/>
-    <tableColumn id="28" xr3:uid="{50506C9D-348C-4BE3-8BF5-F6562BACD3FB}" name="Alpaca.jpg" dataDxfId="404"/>
-    <tableColumn id="29" xr3:uid="{EAB55362-4196-4748-A733-44CF9AD8C4A4}" name="opium_farm.jpg" dataDxfId="403"/>
-    <tableColumn id="30" xr3:uid="{B4B84888-3A19-4289-A0A0-15C6F8D2BEF0}" name="Bike.jpg" dataDxfId="402"/>
-    <tableColumn id="31" xr3:uid="{8FAE4457-2078-4639-8969-3A753E6222A4}" name="SoccerGame.jpg" dataDxfId="401"/>
-    <tableColumn id="32" xr3:uid="{40D6F91E-A0DF-44BD-A22E-6B5D92E89F23}" name="Windows.png" dataDxfId="400"/>
-    <tableColumn id="33" xr3:uid="{AAC82A08-1BCD-4CAF-A233-301FB798D6D9}" name="Yogurt.jpg" dataDxfId="399"/>
-    <tableColumn id="34" xr3:uid="{E401A841-3081-4045-8468-050A0F22E602}" name="OpenAirSwimmingPool.jpg" dataDxfId="398"/>
-    <tableColumn id="35" xr3:uid="{51FDCDAA-0417-4BD4-881E-96E13A8140D2}" name="airport.jpg" dataDxfId="397"/>
-    <tableColumn id="36" xr3:uid="{974DF9EB-2C18-4209-9F09-6ACF14B7075E}" name="eating_women.jpg" dataDxfId="396"/>
-    <tableColumn id="37" xr3:uid="{77B15AFE-9A81-4EEB-9DDE-A2A6D33301A8}" name="Bird.jpg" dataDxfId="395"/>
-    <tableColumn id="38" xr3:uid="{F4B1F60B-F24E-490D-A3AB-C823DF9B06E4}" name="PaintBucket.jpg" dataDxfId="394"/>
-    <tableColumn id="39" xr3:uid="{11840BD5-0B90-4AA4-8630-C4D7B67ADF7F}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="393"/>
-    <tableColumn id="40" xr3:uid="{2BC086D0-7FC6-4CB3-B396-D821B003CCAD}" name="car.jpg" dataDxfId="392"/>
-    <tableColumn id="41" xr3:uid="{117040FB-98D9-4B5E-BAE6-57D72F3D7186}" name="SoupBowl.jpg" dataDxfId="391"/>
-    <tableColumn id="42" xr3:uid="{56D9569B-2076-4AC5-8F20-458ACF0117C9}" name="boat.jpg" dataDxfId="390"/>
-    <tableColumn id="43" xr3:uid="{5B4E6B9B-0DEC-4488-B391-4CC5846680A7}" name="Hedgehog.jpg" dataDxfId="389"/>
-    <tableColumn id="44" xr3:uid="{3167042E-5592-4761-8144-9197566D1FCF}" name="Butter.jpg" dataDxfId="388"/>
-    <tableColumn id="45" xr3:uid="{56CA30AF-1323-4452-A199-E385E8E184D9}" name="lsd.png" dataDxfId="387"/>
-    <tableColumn id="46" xr3:uid="{0A241E98-9036-46AC-9CB4-D084B66B48ED}" name="Pond.jpg" dataDxfId="386"/>
-    <tableColumn id="47" xr3:uid="{BF159BA4-865F-4125-BE9A-A094D9D4752A}" name="Hike.jpg" dataDxfId="385"/>
-    <tableColumn id="48" xr3:uid="{17A8BCB1-0128-4BF8-B876-4009E192679E}" name="PetrolStation.jpg" dataDxfId="384"/>
-    <tableColumn id="49" xr3:uid="{705084D0-A492-4F4E-8694-0CF4CB064585}" name="Grenade.JPG" dataDxfId="383"/>
-    <tableColumn id="50" xr3:uid="{814DA886-60A1-4C35-B49E-982861E0F55F}" name="Glock17Gen4.jpg" dataDxfId="382"/>
-    <tableColumn id="51" xr3:uid="{EAA2E921-1302-4ACC-B785-1FAE3FCED85D}" name="Phone.jpg" dataDxfId="381"/>
-    <tableColumn id="52" xr3:uid="{D6615479-2627-46DC-ADFF-50C7CE1F7996}" name="bike_tour.jpg" dataDxfId="380"/>
-    <tableColumn id="53" xr3:uid="{8994A9E2-9F31-4E25-AD49-7F03D86719F6}" name="Bread.jpg" dataDxfId="379"/>
-    <tableColumn id="54" xr3:uid="{93B94ABF-D06D-4915-A5EC-D9AB9AB0FED7}" name="Hotel.jpg" dataDxfId="378"/>
-    <tableColumn id="55" xr3:uid="{92224A7C-AC82-473A-AAAF-43EA8BFEF325}" name="WashingMachine.JPG" dataDxfId="377"/>
-    <tableColumn id="56" xr3:uid="{45D25BAA-092D-4AD2-8BAF-F0E8DBE161A2}" name="runway.jpg" dataDxfId="376"/>
-    <tableColumn id="57" xr3:uid="{336E9B2D-9C9A-4689-894B-55F0B220CE4F}" name="Bookshelf.jpg" dataDxfId="375"/>
-    <tableColumn id="58" xr3:uid="{BA4D7667-B83C-4BB1-AE0E-BEDB770EC55C}" name="Cheese.jpg" dataDxfId="374"/>
-    <tableColumn id="59" xr3:uid="{E65902E5-937E-495D-9632-99424A00B69C}" name="drugs.jpg" dataDxfId="373"/>
-    <tableColumn id="60" xr3:uid="{4EADEB90-1A95-4D0D-B920-F0D70C0F810D}" name="Flag_of_jihad.png" dataDxfId="372"/>
-    <tableColumn id="61" xr3:uid="{3DC0A231-A7FB-4F19-922D-5C6A62599E51}" name="Al_Qaida.jpg" dataDxfId="371"/>
-    <tableColumn id="62" xr3:uid="{739BF449-A134-4926-BE05-AD7BF0E945A3}" name="Apple.jpg" dataDxfId="370"/>
-    <tableColumn id="63" xr3:uid="{829F92D6-5875-40AE-A795-5660E50653B3}" name="soccer_field.jpg" dataDxfId="369"/>
-    <tableColumn id="64" xr3:uid="{4A6E9A8E-6D44-4C98-9EF7-5A6FE7727C0A}" name="SofaBed.jpg" dataDxfId="368"/>
-    <tableColumn id="65" xr3:uid="{72BFF36F-2CDA-4220-9024-D38EE55736AA}" name="Giraffe.jpg" dataDxfId="367"/>
-    <tableColumn id="66" xr3:uid="{33B5429E-810A-4B79-8038-E179558FA084}" name="party_crowd.jpg" dataDxfId="366"/>
-    <tableColumn id="67" xr3:uid="{AC003B63-44BA-4B28-9A5D-04AD0D618803}" name="Cola.jpg2" dataDxfId="365"/>
-    <tableColumn id="68" xr3:uid="{7BB41BAA-9D59-4D91-A24B-7F02C51A229A}" name="Beer.jpg" dataDxfId="364"/>
-    <tableColumn id="69" xr3:uid="{FDF5E1F2-E9CD-41CF-AC88-B2BBD358D054}" name="children.jpg" dataDxfId="363"/>
-    <tableColumn id="70" xr3:uid="{3FD0137D-6B45-400A-BC09-542BCAD1D9F9}" name="cocaine.jpg" dataDxfId="362"/>
-    <tableColumn id="71" xr3:uid="{A3289868-A54C-42D5-82F7-E396ACBE59D6}" name="refugeecamp.jpg" dataDxfId="361"/>
-    <tableColumn id="72" xr3:uid="{F009C367-19B2-4C08-8291-0C8762E93825}" name="Car.jpg3" dataDxfId="360"/>
+    <tableColumn id="1" xr3:uid="{6A49C65F-B00B-44A8-8274-25AC5A7205CD}" name="MobileNetV2" dataDxfId="455"/>
+    <tableColumn id="2" xr3:uid="{7E8CA551-831B-40C6-9994-882C4CE23006}" name="Laptop.jpg" dataDxfId="454"/>
+    <tableColumn id="3" xr3:uid="{DEABA442-6850-45E8-8632-77ACCC9FCAEC}" name="SteamLocomotive.jpg" dataDxfId="453"/>
+    <tableColumn id="4" xr3:uid="{7871FF80-4CFF-4F36-99B4-C5244C000FD0}" name="xtc.jpg" dataDxfId="452"/>
+    <tableColumn id="5" xr3:uid="{5EC7ABE0-1F8F-4050-B9C1-3CD822B6DE28}" name="heroin.jpg" dataDxfId="451"/>
+    <tableColumn id="6" xr3:uid="{BAD70202-CE30-4C3C-9E08-9CD3055A30C9}" name="Avocados.jpg" dataDxfId="450"/>
+    <tableColumn id="7" xr3:uid="{22149177-59E5-4972-A4AD-E3378A2657B2}" name="pig.jpg" dataDxfId="449"/>
+    <tableColumn id="8" xr3:uid="{19FBED2A-8F06-4D38-BC51-BD3F281E77D1}" name="Methamphetamine.png" dataDxfId="448"/>
+    <tableColumn id="9" xr3:uid="{C20E1BDB-513A-47FD-9597-3FA0F3F670D1}" name="bomb.jpg" dataDxfId="447"/>
+    <tableColumn id="10" xr3:uid="{06AEEC7D-E975-40E5-AE50-BD7E2A194B52}" name="cannabis.jpg" dataDxfId="446"/>
+    <tableColumn id="11" xr3:uid="{09E83527-BAF0-4721-9697-57A935472AC2}" name="knife.png" dataDxfId="445"/>
+    <tableColumn id="12" xr3:uid="{9A6748A0-A18A-480E-BAA6-6AFF86F857ED}" name="Tractor.jpg" dataDxfId="444"/>
+    <tableColumn id="13" xr3:uid="{762D0449-6A3C-4D49-8405-BC0738491C1F}" name="Cellphone.jpg" dataDxfId="443"/>
+    <tableColumn id="14" xr3:uid="{3E3B337C-CCE7-46A4-8F62-EC513354B757}" name="Bananas.jpg" dataDxfId="442"/>
+    <tableColumn id="15" xr3:uid="{7C68F582-A598-4B1B-AF07-08E338D03AAD}" name="Ship.jpg" dataDxfId="441"/>
+    <tableColumn id="16" xr3:uid="{05802625-F7BD-451C-B7B9-144C9642780F}" name="Popcorn.png" dataDxfId="440"/>
+    <tableColumn id="17" xr3:uid="{E44D1999-FC03-41DB-9177-91AD5C792115}" name="Forest.jpg" dataDxfId="439"/>
+    <tableColumn id="18" xr3:uid="{345BFED9-0FE3-42A1-99BB-0D87F6276897}" name="train.jpg" dataDxfId="438"/>
+    <tableColumn id="19" xr3:uid="{FD4B7C45-654D-43A9-9D70-AC719744762F}" name="Firefighters.jpg" dataDxfId="437"/>
+    <tableColumn id="20" xr3:uid="{F1106496-00E5-4F06-90C5-0B7BE35D35C2}" name="cocaine.png" dataDxfId="436"/>
+    <tableColumn id="21" xr3:uid="{A1BC1B54-77F6-4E70-9373-5778B00B256D}" name="drug_addict.jpg" dataDxfId="435"/>
+    <tableColumn id="22" xr3:uid="{669F6291-8418-42DF-ACCE-ED0DB495C0EE}" name="Toothbrush.jpg" dataDxfId="434"/>
+    <tableColumn id="23" xr3:uid="{14429AC9-6A4E-499A-A804-DD625522B175}" name="IceCream.jpg" dataDxfId="433"/>
+    <tableColumn id="24" xr3:uid="{CFF14AE2-52B0-4C4A-A37B-B4E431A20D57}" name="Cola.jpg" dataDxfId="432"/>
+    <tableColumn id="25" xr3:uid="{2C01FFCD-B043-4133-96F4-45CDEE8A5198}" name="Vulture.jpg" dataDxfId="431"/>
+    <tableColumn id="26" xr3:uid="{E95A5F99-5F0F-4D51-8159-12664EB65FD4}" name="cinema_room.jpg" dataDxfId="430"/>
+    <tableColumn id="27" xr3:uid="{C48A6961-3965-4873-9404-CDD2D07A367C}" name="smoking_cigarette.jpg" dataDxfId="429"/>
+    <tableColumn id="28" xr3:uid="{50506C9D-348C-4BE3-8BF5-F6562BACD3FB}" name="Alpaca.jpg" dataDxfId="428"/>
+    <tableColumn id="29" xr3:uid="{EAB55362-4196-4748-A733-44CF9AD8C4A4}" name="opium_farm.jpg" dataDxfId="427"/>
+    <tableColumn id="30" xr3:uid="{B4B84888-3A19-4289-A0A0-15C6F8D2BEF0}" name="Bike.jpg" dataDxfId="426"/>
+    <tableColumn id="31" xr3:uid="{8FAE4457-2078-4639-8969-3A753E6222A4}" name="SoccerGame.jpg" dataDxfId="425"/>
+    <tableColumn id="32" xr3:uid="{40D6F91E-A0DF-44BD-A22E-6B5D92E89F23}" name="Windows.png" dataDxfId="424"/>
+    <tableColumn id="33" xr3:uid="{AAC82A08-1BCD-4CAF-A233-301FB798D6D9}" name="Yogurt.jpg" dataDxfId="423"/>
+    <tableColumn id="34" xr3:uid="{E401A841-3081-4045-8468-050A0F22E602}" name="OpenAirSwimmingPool.jpg" dataDxfId="422"/>
+    <tableColumn id="35" xr3:uid="{51FDCDAA-0417-4BD4-881E-96E13A8140D2}" name="airport.jpg" dataDxfId="421"/>
+    <tableColumn id="36" xr3:uid="{974DF9EB-2C18-4209-9F09-6ACF14B7075E}" name="eating_women.jpg" dataDxfId="420"/>
+    <tableColumn id="37" xr3:uid="{77B15AFE-9A81-4EEB-9DDE-A2A6D33301A8}" name="Bird.jpg" dataDxfId="419"/>
+    <tableColumn id="38" xr3:uid="{F4B1F60B-F24E-490D-A3AB-C823DF9B06E4}" name="PaintBucket.jpg" dataDxfId="418"/>
+    <tableColumn id="39" xr3:uid="{11840BD5-0B90-4AA4-8630-C4D7B67ADF7F}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="417"/>
+    <tableColumn id="40" xr3:uid="{2BC086D0-7FC6-4CB3-B396-D821B003CCAD}" name="car.jpg" dataDxfId="416"/>
+    <tableColumn id="41" xr3:uid="{117040FB-98D9-4B5E-BAE6-57D72F3D7186}" name="SoupBowl.jpg" dataDxfId="415"/>
+    <tableColumn id="42" xr3:uid="{56D9569B-2076-4AC5-8F20-458ACF0117C9}" name="boat.jpg" dataDxfId="414"/>
+    <tableColumn id="43" xr3:uid="{5B4E6B9B-0DEC-4488-B391-4CC5846680A7}" name="Hedgehog.jpg" dataDxfId="413"/>
+    <tableColumn id="44" xr3:uid="{3167042E-5592-4761-8144-9197566D1FCF}" name="Butter.jpg" dataDxfId="412"/>
+    <tableColumn id="45" xr3:uid="{56CA30AF-1323-4452-A199-E385E8E184D9}" name="lsd.png" dataDxfId="411"/>
+    <tableColumn id="46" xr3:uid="{0A241E98-9036-46AC-9CB4-D084B66B48ED}" name="Pond.jpg" dataDxfId="410"/>
+    <tableColumn id="47" xr3:uid="{BF159BA4-865F-4125-BE9A-A094D9D4752A}" name="Hike.jpg" dataDxfId="409"/>
+    <tableColumn id="48" xr3:uid="{17A8BCB1-0128-4BF8-B876-4009E192679E}" name="PetrolStation.jpg" dataDxfId="408"/>
+    <tableColumn id="49" xr3:uid="{705084D0-A492-4F4E-8694-0CF4CB064585}" name="Grenade.JPG" dataDxfId="407"/>
+    <tableColumn id="50" xr3:uid="{814DA886-60A1-4C35-B49E-982861E0F55F}" name="Glock17Gen4.jpg" dataDxfId="406"/>
+    <tableColumn id="51" xr3:uid="{EAA2E921-1302-4ACC-B785-1FAE3FCED85D}" name="Phone.jpg" dataDxfId="405"/>
+    <tableColumn id="52" xr3:uid="{D6615479-2627-46DC-ADFF-50C7CE1F7996}" name="bike_tour.jpg" dataDxfId="404"/>
+    <tableColumn id="53" xr3:uid="{8994A9E2-9F31-4E25-AD49-7F03D86719F6}" name="Bread.jpg" dataDxfId="403"/>
+    <tableColumn id="54" xr3:uid="{93B94ABF-D06D-4915-A5EC-D9AB9AB0FED7}" name="Hotel.jpg" dataDxfId="402"/>
+    <tableColumn id="55" xr3:uid="{92224A7C-AC82-473A-AAAF-43EA8BFEF325}" name="WashingMachine.JPG" dataDxfId="401"/>
+    <tableColumn id="56" xr3:uid="{45D25BAA-092D-4AD2-8BAF-F0E8DBE161A2}" name="runway.jpg" dataDxfId="400"/>
+    <tableColumn id="57" xr3:uid="{336E9B2D-9C9A-4689-894B-55F0B220CE4F}" name="Bookshelf.jpg" dataDxfId="399"/>
+    <tableColumn id="58" xr3:uid="{BA4D7667-B83C-4BB1-AE0E-BEDB770EC55C}" name="Cheese.jpg" dataDxfId="398"/>
+    <tableColumn id="59" xr3:uid="{E65902E5-937E-495D-9632-99424A00B69C}" name="drugs.jpg" dataDxfId="397"/>
+    <tableColumn id="60" xr3:uid="{4EADEB90-1A95-4D0D-B920-F0D70C0F810D}" name="Flag_of_jihad.png" dataDxfId="396"/>
+    <tableColumn id="61" xr3:uid="{3DC0A231-A7FB-4F19-922D-5C6A62599E51}" name="Al_Qaida.jpg" dataDxfId="395"/>
+    <tableColumn id="62" xr3:uid="{739BF449-A134-4926-BE05-AD7BF0E945A3}" name="Apple.jpg" dataDxfId="394"/>
+    <tableColumn id="63" xr3:uid="{829F92D6-5875-40AE-A795-5660E50653B3}" name="soccer_field.jpg" dataDxfId="393"/>
+    <tableColumn id="64" xr3:uid="{4A6E9A8E-6D44-4C98-9EF7-5A6FE7727C0A}" name="SofaBed.jpg" dataDxfId="392"/>
+    <tableColumn id="65" xr3:uid="{72BFF36F-2CDA-4220-9024-D38EE55736AA}" name="Giraffe.jpg" dataDxfId="391"/>
+    <tableColumn id="66" xr3:uid="{33B5429E-810A-4B79-8038-E179558FA084}" name="party_crowd.jpg" dataDxfId="390"/>
+    <tableColumn id="67" xr3:uid="{AC003B63-44BA-4B28-9A5D-04AD0D618803}" name="Cola.jpg2" dataDxfId="389"/>
+    <tableColumn id="68" xr3:uid="{7BB41BAA-9D59-4D91-A24B-7F02C51A229A}" name="Beer.jpg" dataDxfId="388"/>
+    <tableColumn id="69" xr3:uid="{FDF5E1F2-E9CD-41CF-AC88-B2BBD358D054}" name="children.jpg" dataDxfId="387"/>
+    <tableColumn id="70" xr3:uid="{3FD0137D-6B45-400A-BC09-542BCAD1D9F9}" name="cocaine.jpg" dataDxfId="386"/>
+    <tableColumn id="71" xr3:uid="{A3289868-A54C-42D5-82F7-E396ACBE59D6}" name="refugeecamp.jpg" dataDxfId="385"/>
+    <tableColumn id="72" xr3:uid="{F009C367-19B2-4C08-8291-0C8762E93825}" name="Car.jpg3" dataDxfId="384"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3996,78 +5366,78 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{21A0EE07-3C53-4FA1-B093-EBF813A0566A}" name="resnet50" displayName="resnet50" ref="A4:BT9" totalsRowShown="0">
   <autoFilter ref="A4:BT9" xr:uid="{99D92822-7B3C-4C65-B8CC-A971937C1E12}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{9FFBB335-9FC3-4CE2-94A0-29BED8D8ED92}" name="ResNet50" dataDxfId="359"/>
-    <tableColumn id="2" xr3:uid="{F632DAA1-0444-48BE-8AF3-6E25169CC301}" name="Laptop.jpg" dataDxfId="358"/>
-    <tableColumn id="3" xr3:uid="{3142E0EA-9579-4D19-8A64-7FB8580EE34E}" name="SteamLocomotive.jpg" dataDxfId="357"/>
-    <tableColumn id="4" xr3:uid="{18CC7E57-2FD1-400A-BB21-A03015C43695}" name="xtc.jpg" dataDxfId="356"/>
-    <tableColumn id="5" xr3:uid="{4B3E6E01-AA9E-4691-87E4-65D4DFEFFE42}" name="heroin.jpg" dataDxfId="355"/>
-    <tableColumn id="6" xr3:uid="{2F9ED3A3-961F-412F-B412-E3CF1276D11A}" name="Avocados.jpg" dataDxfId="354"/>
-    <tableColumn id="7" xr3:uid="{844E23DD-E9CB-4523-9CCC-D4C24FC4885F}" name="pig.jpg" dataDxfId="353"/>
-    <tableColumn id="8" xr3:uid="{8AC5668C-72EA-4043-B6AF-BC243CD6BAC4}" name="Methamphetamine.png" dataDxfId="352"/>
-    <tableColumn id="9" xr3:uid="{AC3D55CA-7B3B-46FB-BD03-B84A8E0B1227}" name="bomb.jpg" dataDxfId="351"/>
-    <tableColumn id="10" xr3:uid="{1B38D768-8320-4461-BD87-A6EA45FD4AA6}" name="cannabis.jpg" dataDxfId="350"/>
-    <tableColumn id="11" xr3:uid="{86B24E39-F5B5-4544-9A5E-7AB095A0FDD3}" name="knife.png" dataDxfId="349"/>
-    <tableColumn id="12" xr3:uid="{85D74640-69BF-45A8-B913-6F901A12AB44}" name="Tractor.jpg" dataDxfId="348"/>
-    <tableColumn id="13" xr3:uid="{2C5AB08F-4CEB-4912-B8D1-E59485A6EE25}" name="Cellphone.jpg" dataDxfId="347"/>
-    <tableColumn id="14" xr3:uid="{5A1DF276-B847-4136-909A-000C83BF426A}" name="Bananas.jpg" dataDxfId="346"/>
-    <tableColumn id="15" xr3:uid="{847FDC47-5B09-432A-A9D2-35748D7E3FA6}" name="Ship.jpg" dataDxfId="345"/>
-    <tableColumn id="16" xr3:uid="{EC86744D-E2C6-419B-A34B-D4F9B3B68BD6}" name="Popcorn.png" dataDxfId="344"/>
-    <tableColumn id="17" xr3:uid="{12A34324-93C5-48BF-9BA3-05961D2ADA0D}" name="Forest.jpg" dataDxfId="343"/>
-    <tableColumn id="18" xr3:uid="{99AB4F05-5AB4-40DB-A4FE-6501EE36D36F}" name="train.jpg" dataDxfId="342"/>
-    <tableColumn id="19" xr3:uid="{93F77FAF-6B2E-4FC6-8E29-DB0DEDC38590}" name="Firefighters.jpg" dataDxfId="341"/>
-    <tableColumn id="20" xr3:uid="{451F2472-8458-4D1E-A25B-52DFA615335E}" name="cocaine.png" dataDxfId="340"/>
-    <tableColumn id="21" xr3:uid="{48ACEDC9-F23F-4677-B5A2-BB004204C28A}" name="drug_addict.jpg" dataDxfId="339"/>
-    <tableColumn id="22" xr3:uid="{B0449C38-A2DF-42A6-8A9A-9379AD41C0ED}" name="Toothbrush.jpg" dataDxfId="338"/>
-    <tableColumn id="23" xr3:uid="{C464CA98-65CC-4FA8-9388-05CC643E5E41}" name="IceCream.jpg" dataDxfId="337"/>
-    <tableColumn id="24" xr3:uid="{0914679B-09FE-476A-BC26-7B8DC2EBDABF}" name="Cola.jpg" dataDxfId="336"/>
-    <tableColumn id="25" xr3:uid="{AED3769E-72DD-44E9-AD54-1B4CE7D04BCD}" name="Vulture.jpg" dataDxfId="335"/>
-    <tableColumn id="26" xr3:uid="{A181D100-5728-4FA6-99EC-40F392696415}" name="cinema_room.jpg" dataDxfId="334"/>
-    <tableColumn id="27" xr3:uid="{62F57A12-6605-4E07-B3F6-4CBEBA8CD2CE}" name="smoking_cigarette.jpg" dataDxfId="333"/>
-    <tableColumn id="28" xr3:uid="{B53E0D06-17E1-4F2F-976C-762193607738}" name="Alpaca.jpg" dataDxfId="332"/>
-    <tableColumn id="29" xr3:uid="{CECC962B-B6EA-4AB8-AF9D-0CF2DE0FA7B0}" name="opium_farm.jpg" dataDxfId="331"/>
-    <tableColumn id="30" xr3:uid="{D1654DC1-9707-420C-A880-587CF1633A28}" name="Bike.jpg" dataDxfId="330"/>
-    <tableColumn id="31" xr3:uid="{6FAFB8F7-1120-4496-A54F-45C330092FAC}" name="SoccerGame.jpg" dataDxfId="329"/>
-    <tableColumn id="32" xr3:uid="{6E1F9389-82D6-4BAD-A7AA-FD3921FEA93B}" name="Windows.png" dataDxfId="328"/>
-    <tableColumn id="33" xr3:uid="{22F7ADD2-9430-4FDC-9B5A-4F11F926586F}" name="Yogurt.jpg" dataDxfId="327"/>
-    <tableColumn id="34" xr3:uid="{B143A2C6-26C7-483F-B4BB-F5D2EDB50F41}" name="OpenAirSwimmingPool.jpg" dataDxfId="326"/>
-    <tableColumn id="35" xr3:uid="{5A98E449-FEA3-4AA4-9507-CBD4FDC7564B}" name="airport.jpg" dataDxfId="325"/>
-    <tableColumn id="36" xr3:uid="{848B3202-36A3-4C53-BCA9-3BAF84274725}" name="eating_women.jpg" dataDxfId="324"/>
-    <tableColumn id="37" xr3:uid="{E1A547CC-4EC4-4139-9B19-A8F457B7A7AE}" name="Bird.jpg" dataDxfId="323"/>
-    <tableColumn id="38" xr3:uid="{36E64648-590D-49A2-BD13-3013ABC0322F}" name="PaintBucket.jpg" dataDxfId="322"/>
-    <tableColumn id="39" xr3:uid="{1C9B70DA-40DE-49CE-AB05-7A3F50A5EDC7}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="321"/>
-    <tableColumn id="40" xr3:uid="{C278DACE-CE22-44F3-BB9E-A7A8D36B4739}" name="car.jpg" dataDxfId="320"/>
-    <tableColumn id="41" xr3:uid="{BF13EB41-DA12-4044-B229-A4D457FCD802}" name="SoupBowl.jpg" dataDxfId="319"/>
-    <tableColumn id="42" xr3:uid="{CA893E18-8CED-4C51-B7D2-4E5EFE879FDC}" name="boat.jpg" dataDxfId="318"/>
-    <tableColumn id="43" xr3:uid="{428DF765-B500-4DC4-B1F9-CC61F6B284C4}" name="Hedgehog.jpg" dataDxfId="317"/>
-    <tableColumn id="44" xr3:uid="{C4E9E590-E2E9-46C1-9DBF-001D25A85EC1}" name="Butter.jpg" dataDxfId="316"/>
-    <tableColumn id="45" xr3:uid="{887BB5F2-0002-4CBA-9E6A-5F0253707FE8}" name="lsd.png" dataDxfId="315"/>
-    <tableColumn id="46" xr3:uid="{34F3BCEA-4811-4A9E-BC98-23C9EEA26532}" name="Pond.jpg" dataDxfId="314"/>
-    <tableColumn id="47" xr3:uid="{7BD0636D-230C-4226-9A84-462FCDFA7236}" name="Hike.jpg" dataDxfId="313"/>
-    <tableColumn id="48" xr3:uid="{780A6644-358C-4F31-B7F4-974B8BF6F246}" name="PetrolStation.jpg" dataDxfId="312"/>
-    <tableColumn id="49" xr3:uid="{3EA7A2D2-ECA2-4883-9355-063040D502C5}" name="Grenade.JPG" dataDxfId="311"/>
-    <tableColumn id="50" xr3:uid="{0F59AB4C-C654-4F4C-8085-3FB4D225CFC9}" name="Glock17Gen4.jpg" dataDxfId="310"/>
-    <tableColumn id="51" xr3:uid="{71E4C100-31EB-4407-967E-30CA3179EE80}" name="Phone.jpg" dataDxfId="309"/>
-    <tableColumn id="52" xr3:uid="{2E625969-5B8A-4FFF-B949-BFC128C0B4B4}" name="bike_tour.jpg" dataDxfId="308"/>
-    <tableColumn id="53" xr3:uid="{B6E59C98-71B8-45A1-9D5C-C5E0DE599EE7}" name="Bread.jpg" dataDxfId="307"/>
-    <tableColumn id="54" xr3:uid="{6AC02AE6-0642-4884-95CD-3609ACAE4CEF}" name="Hotel.jpg" dataDxfId="306"/>
-    <tableColumn id="55" xr3:uid="{A2C92E50-B9D3-47A6-B227-2BBDC41A1406}" name="WashingMachine.JPG" dataDxfId="305"/>
-    <tableColumn id="56" xr3:uid="{A9579AF2-3C7E-4776-8F27-EFEB091BDB03}" name="runway.jpg" dataDxfId="304"/>
-    <tableColumn id="57" xr3:uid="{540AC9DA-9A74-4EF5-AFD0-C45F546CBD8C}" name="Bookshelf.jpg" dataDxfId="303"/>
-    <tableColumn id="58" xr3:uid="{D276A771-D6B4-4D56-AFBA-318AD653964A}" name="Cheese.jpg" dataDxfId="302"/>
-    <tableColumn id="59" xr3:uid="{230FDA7C-A419-4153-80EC-B2500EB73837}" name="drugs.jpg" dataDxfId="301"/>
-    <tableColumn id="60" xr3:uid="{B5BAC5D0-8084-47E8-99B2-554B4413FF49}" name="Flag_of_jihad.png" dataDxfId="300"/>
-    <tableColumn id="61" xr3:uid="{9B2B8D09-C353-498C-8279-DB89232AA41A}" name="Al_Qaida.jpg" dataDxfId="299"/>
-    <tableColumn id="62" xr3:uid="{84123036-E7FF-48D8-BEC2-1442B150DA6E}" name="Apple.jpg" dataDxfId="298"/>
-    <tableColumn id="63" xr3:uid="{A3B4FAD9-76A2-442E-8DD5-A955CEE5AE28}" name="soccer_field.jpg" dataDxfId="297"/>
-    <tableColumn id="64" xr3:uid="{164D7B2F-F1B7-4F98-A6B7-B262100A38C4}" name="SofaBed.jpg" dataDxfId="296"/>
-    <tableColumn id="65" xr3:uid="{7BE70772-952B-4CDC-A705-8980B4CD3AEE}" name="Giraffe.jpg" dataDxfId="295"/>
-    <tableColumn id="66" xr3:uid="{96D814DC-0A22-41C8-B83F-08AAAF4FD981}" name="party_crowd.jpg" dataDxfId="294"/>
-    <tableColumn id="67" xr3:uid="{85A76150-6A3A-485F-B780-4D99ADA16CB7}" name="Cola.jpg2" dataDxfId="293"/>
-    <tableColumn id="68" xr3:uid="{19935621-0F00-4018-B939-A01D6B365778}" name="Beer.jpg" dataDxfId="292"/>
-    <tableColumn id="69" xr3:uid="{08DE95B2-5BDE-4563-855D-43225A8494C5}" name="children.jpg" dataDxfId="291"/>
-    <tableColumn id="70" xr3:uid="{D1CAAF66-72AF-4CD0-A3F8-4BF3FF1F2C08}" name="cocaine.jpg" dataDxfId="290"/>
-    <tableColumn id="71" xr3:uid="{4515698F-F574-4D0B-9698-0AFCC91F4D2B}" name="refugeecamp.jpg" dataDxfId="289"/>
-    <tableColumn id="72" xr3:uid="{458BC5F7-C491-4D4D-A5AA-9457AC229BA6}" name="Car.jpg3" dataDxfId="288"/>
+    <tableColumn id="1" xr3:uid="{9FFBB335-9FC3-4CE2-94A0-29BED8D8ED92}" name="ResNet50" dataDxfId="383"/>
+    <tableColumn id="2" xr3:uid="{F632DAA1-0444-48BE-8AF3-6E25169CC301}" name="Laptop.jpg" dataDxfId="382"/>
+    <tableColumn id="3" xr3:uid="{3142E0EA-9579-4D19-8A64-7FB8580EE34E}" name="SteamLocomotive.jpg" dataDxfId="381"/>
+    <tableColumn id="4" xr3:uid="{18CC7E57-2FD1-400A-BB21-A03015C43695}" name="xtc.jpg" dataDxfId="380"/>
+    <tableColumn id="5" xr3:uid="{4B3E6E01-AA9E-4691-87E4-65D4DFEFFE42}" name="heroin.jpg" dataDxfId="379"/>
+    <tableColumn id="6" xr3:uid="{2F9ED3A3-961F-412F-B412-E3CF1276D11A}" name="Avocados.jpg" dataDxfId="378"/>
+    <tableColumn id="7" xr3:uid="{844E23DD-E9CB-4523-9CCC-D4C24FC4885F}" name="pig.jpg" dataDxfId="377"/>
+    <tableColumn id="8" xr3:uid="{8AC5668C-72EA-4043-B6AF-BC243CD6BAC4}" name="Methamphetamine.png" dataDxfId="376"/>
+    <tableColumn id="9" xr3:uid="{AC3D55CA-7B3B-46FB-BD03-B84A8E0B1227}" name="bomb.jpg" dataDxfId="375"/>
+    <tableColumn id="10" xr3:uid="{1B38D768-8320-4461-BD87-A6EA45FD4AA6}" name="cannabis.jpg" dataDxfId="374"/>
+    <tableColumn id="11" xr3:uid="{86B24E39-F5B5-4544-9A5E-7AB095A0FDD3}" name="knife.png" dataDxfId="373"/>
+    <tableColumn id="12" xr3:uid="{85D74640-69BF-45A8-B913-6F901A12AB44}" name="Tractor.jpg" dataDxfId="372"/>
+    <tableColumn id="13" xr3:uid="{2C5AB08F-4CEB-4912-B8D1-E59485A6EE25}" name="Cellphone.jpg" dataDxfId="371"/>
+    <tableColumn id="14" xr3:uid="{5A1DF276-B847-4136-909A-000C83BF426A}" name="Bananas.jpg" dataDxfId="370"/>
+    <tableColumn id="15" xr3:uid="{847FDC47-5B09-432A-A9D2-35748D7E3FA6}" name="Ship.jpg" dataDxfId="369"/>
+    <tableColumn id="16" xr3:uid="{EC86744D-E2C6-419B-A34B-D4F9B3B68BD6}" name="Popcorn.png" dataDxfId="368"/>
+    <tableColumn id="17" xr3:uid="{12A34324-93C5-48BF-9BA3-05961D2ADA0D}" name="Forest.jpg" dataDxfId="367"/>
+    <tableColumn id="18" xr3:uid="{99AB4F05-5AB4-40DB-A4FE-6501EE36D36F}" name="train.jpg" dataDxfId="366"/>
+    <tableColumn id="19" xr3:uid="{93F77FAF-6B2E-4FC6-8E29-DB0DEDC38590}" name="Firefighters.jpg" dataDxfId="365"/>
+    <tableColumn id="20" xr3:uid="{451F2472-8458-4D1E-A25B-52DFA615335E}" name="cocaine.png" dataDxfId="364"/>
+    <tableColumn id="21" xr3:uid="{48ACEDC9-F23F-4677-B5A2-BB004204C28A}" name="drug_addict.jpg" dataDxfId="363"/>
+    <tableColumn id="22" xr3:uid="{B0449C38-A2DF-42A6-8A9A-9379AD41C0ED}" name="Toothbrush.jpg" dataDxfId="362"/>
+    <tableColumn id="23" xr3:uid="{C464CA98-65CC-4FA8-9388-05CC643E5E41}" name="IceCream.jpg" dataDxfId="361"/>
+    <tableColumn id="24" xr3:uid="{0914679B-09FE-476A-BC26-7B8DC2EBDABF}" name="Cola.jpg" dataDxfId="360"/>
+    <tableColumn id="25" xr3:uid="{AED3769E-72DD-44E9-AD54-1B4CE7D04BCD}" name="Vulture.jpg" dataDxfId="359"/>
+    <tableColumn id="26" xr3:uid="{A181D100-5728-4FA6-99EC-40F392696415}" name="cinema_room.jpg" dataDxfId="358"/>
+    <tableColumn id="27" xr3:uid="{62F57A12-6605-4E07-B3F6-4CBEBA8CD2CE}" name="smoking_cigarette.jpg" dataDxfId="357"/>
+    <tableColumn id="28" xr3:uid="{B53E0D06-17E1-4F2F-976C-762193607738}" name="Alpaca.jpg" dataDxfId="356"/>
+    <tableColumn id="29" xr3:uid="{CECC962B-B6EA-4AB8-AF9D-0CF2DE0FA7B0}" name="opium_farm.jpg" dataDxfId="355"/>
+    <tableColumn id="30" xr3:uid="{D1654DC1-9707-420C-A880-587CF1633A28}" name="Bike.jpg" dataDxfId="354"/>
+    <tableColumn id="31" xr3:uid="{6FAFB8F7-1120-4496-A54F-45C330092FAC}" name="SoccerGame.jpg" dataDxfId="353"/>
+    <tableColumn id="32" xr3:uid="{6E1F9389-82D6-4BAD-A7AA-FD3921FEA93B}" name="Windows.png" dataDxfId="352"/>
+    <tableColumn id="33" xr3:uid="{22F7ADD2-9430-4FDC-9B5A-4F11F926586F}" name="Yogurt.jpg" dataDxfId="351"/>
+    <tableColumn id="34" xr3:uid="{B143A2C6-26C7-483F-B4BB-F5D2EDB50F41}" name="OpenAirSwimmingPool.jpg" dataDxfId="350"/>
+    <tableColumn id="35" xr3:uid="{5A98E449-FEA3-4AA4-9507-CBD4FDC7564B}" name="airport.jpg" dataDxfId="349"/>
+    <tableColumn id="36" xr3:uid="{848B3202-36A3-4C53-BCA9-3BAF84274725}" name="eating_women.jpg" dataDxfId="348"/>
+    <tableColumn id="37" xr3:uid="{E1A547CC-4EC4-4139-9B19-A8F457B7A7AE}" name="Bird.jpg" dataDxfId="347"/>
+    <tableColumn id="38" xr3:uid="{36E64648-590D-49A2-BD13-3013ABC0322F}" name="PaintBucket.jpg" dataDxfId="346"/>
+    <tableColumn id="39" xr3:uid="{1C9B70DA-40DE-49CE-AB05-7A3F50A5EDC7}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="345"/>
+    <tableColumn id="40" xr3:uid="{C278DACE-CE22-44F3-BB9E-A7A8D36B4739}" name="car.jpg" dataDxfId="344"/>
+    <tableColumn id="41" xr3:uid="{BF13EB41-DA12-4044-B229-A4D457FCD802}" name="SoupBowl.jpg" dataDxfId="343"/>
+    <tableColumn id="42" xr3:uid="{CA893E18-8CED-4C51-B7D2-4E5EFE879FDC}" name="boat.jpg" dataDxfId="342"/>
+    <tableColumn id="43" xr3:uid="{428DF765-B500-4DC4-B1F9-CC61F6B284C4}" name="Hedgehog.jpg" dataDxfId="341"/>
+    <tableColumn id="44" xr3:uid="{C4E9E590-E2E9-46C1-9DBF-001D25A85EC1}" name="Butter.jpg" dataDxfId="340"/>
+    <tableColumn id="45" xr3:uid="{887BB5F2-0002-4CBA-9E6A-5F0253707FE8}" name="lsd.png" dataDxfId="339"/>
+    <tableColumn id="46" xr3:uid="{34F3BCEA-4811-4A9E-BC98-23C9EEA26532}" name="Pond.jpg" dataDxfId="338"/>
+    <tableColumn id="47" xr3:uid="{7BD0636D-230C-4226-9A84-462FCDFA7236}" name="Hike.jpg" dataDxfId="337"/>
+    <tableColumn id="48" xr3:uid="{780A6644-358C-4F31-B7F4-974B8BF6F246}" name="PetrolStation.jpg" dataDxfId="336"/>
+    <tableColumn id="49" xr3:uid="{3EA7A2D2-ECA2-4883-9355-063040D502C5}" name="Grenade.JPG" dataDxfId="335"/>
+    <tableColumn id="50" xr3:uid="{0F59AB4C-C654-4F4C-8085-3FB4D225CFC9}" name="Glock17Gen4.jpg" dataDxfId="334"/>
+    <tableColumn id="51" xr3:uid="{71E4C100-31EB-4407-967E-30CA3179EE80}" name="Phone.jpg" dataDxfId="333"/>
+    <tableColumn id="52" xr3:uid="{2E625969-5B8A-4FFF-B949-BFC128C0B4B4}" name="bike_tour.jpg" dataDxfId="332"/>
+    <tableColumn id="53" xr3:uid="{B6E59C98-71B8-45A1-9D5C-C5E0DE599EE7}" name="Bread.jpg" dataDxfId="331"/>
+    <tableColumn id="54" xr3:uid="{6AC02AE6-0642-4884-95CD-3609ACAE4CEF}" name="Hotel.jpg" dataDxfId="330"/>
+    <tableColumn id="55" xr3:uid="{A2C92E50-B9D3-47A6-B227-2BBDC41A1406}" name="WashingMachine.JPG" dataDxfId="329"/>
+    <tableColumn id="56" xr3:uid="{A9579AF2-3C7E-4776-8F27-EFEB091BDB03}" name="runway.jpg" dataDxfId="328"/>
+    <tableColumn id="57" xr3:uid="{540AC9DA-9A74-4EF5-AFD0-C45F546CBD8C}" name="Bookshelf.jpg" dataDxfId="327"/>
+    <tableColumn id="58" xr3:uid="{D276A771-D6B4-4D56-AFBA-318AD653964A}" name="Cheese.jpg" dataDxfId="326"/>
+    <tableColumn id="59" xr3:uid="{230FDA7C-A419-4153-80EC-B2500EB73837}" name="drugs.jpg" dataDxfId="325"/>
+    <tableColumn id="60" xr3:uid="{B5BAC5D0-8084-47E8-99B2-554B4413FF49}" name="Flag_of_jihad.png" dataDxfId="324"/>
+    <tableColumn id="61" xr3:uid="{9B2B8D09-C353-498C-8279-DB89232AA41A}" name="Al_Qaida.jpg" dataDxfId="323"/>
+    <tableColumn id="62" xr3:uid="{84123036-E7FF-48D8-BEC2-1442B150DA6E}" name="Apple.jpg" dataDxfId="322"/>
+    <tableColumn id="63" xr3:uid="{A3B4FAD9-76A2-442E-8DD5-A955CEE5AE28}" name="soccer_field.jpg" dataDxfId="321"/>
+    <tableColumn id="64" xr3:uid="{164D7B2F-F1B7-4F98-A6B7-B262100A38C4}" name="SofaBed.jpg" dataDxfId="320"/>
+    <tableColumn id="65" xr3:uid="{7BE70772-952B-4CDC-A705-8980B4CD3AEE}" name="Giraffe.jpg" dataDxfId="319"/>
+    <tableColumn id="66" xr3:uid="{96D814DC-0A22-41C8-B83F-08AAAF4FD981}" name="party_crowd.jpg" dataDxfId="318"/>
+    <tableColumn id="67" xr3:uid="{85A76150-6A3A-485F-B780-4D99ADA16CB7}" name="Cola.jpg2" dataDxfId="317"/>
+    <tableColumn id="68" xr3:uid="{19935621-0F00-4018-B939-A01D6B365778}" name="Beer.jpg" dataDxfId="316"/>
+    <tableColumn id="69" xr3:uid="{08DE95B2-5BDE-4563-855D-43225A8494C5}" name="children.jpg" dataDxfId="315"/>
+    <tableColumn id="70" xr3:uid="{D1CAAF66-72AF-4CD0-A3F8-4BF3FF1F2C08}" name="cocaine.jpg" dataDxfId="314"/>
+    <tableColumn id="71" xr3:uid="{4515698F-F574-4D0B-9698-0AFCC91F4D2B}" name="refugeecamp.jpg" dataDxfId="313"/>
+    <tableColumn id="72" xr3:uid="{458BC5F7-C491-4D4D-A5AA-9457AC229BA6}" name="Car.jpg3" dataDxfId="312"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4077,78 +5447,78 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{641B3629-5B7F-4D36-9B1E-930A179A37A5}" name="densenet201" displayName="densenet201" ref="A4:BT9" totalsRowShown="0">
   <autoFilter ref="A4:BT9" xr:uid="{8EE75C2D-1073-480C-A969-49E265B1529E}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{B9AD851A-16ED-4D29-9043-B7DA792531FC}" name="DenseNet201" dataDxfId="287"/>
-    <tableColumn id="2" xr3:uid="{E0508655-4259-4EEA-AC85-B9B1D9E49031}" name="Laptop.jpg" dataDxfId="286"/>
-    <tableColumn id="3" xr3:uid="{08291F19-9BB8-45A3-A8A3-D290D89C70E3}" name="SteamLocomotive.jpg" dataDxfId="285"/>
-    <tableColumn id="4" xr3:uid="{9989FC54-56B8-4D31-93F1-A7DE9B77F381}" name="xtc.jpg" dataDxfId="284"/>
-    <tableColumn id="5" xr3:uid="{F21E6CD9-BB37-4572-83A7-E245080EA2CE}" name="heroin.jpg" dataDxfId="283"/>
-    <tableColumn id="6" xr3:uid="{7E69E962-672E-4041-AABF-46F9D25617B3}" name="Avocados.jpg" dataDxfId="282"/>
-    <tableColumn id="7" xr3:uid="{F8E649CF-7537-4DB0-9205-30C55D8ACF2E}" name="pig.jpg" dataDxfId="281"/>
-    <tableColumn id="8" xr3:uid="{C0C19488-64A5-4EA9-B12F-6F6F77A85657}" name="Methamphetamine.png" dataDxfId="280"/>
-    <tableColumn id="9" xr3:uid="{142C9474-25E5-4B5C-9033-AACB658381EE}" name="bomb.jpg" dataDxfId="279"/>
-    <tableColumn id="10" xr3:uid="{EBFEA010-2251-4E2A-B3AC-C8A02613CCED}" name="cannabis.jpg" dataDxfId="278"/>
-    <tableColumn id="11" xr3:uid="{B6AED7C8-2024-4DAA-B196-F25F435D2F4F}" name="knife.png" dataDxfId="277"/>
-    <tableColumn id="12" xr3:uid="{38D5384D-C765-4ECC-8DB5-C706C70E202F}" name="Tractor.jpg" dataDxfId="276"/>
-    <tableColumn id="13" xr3:uid="{F918646A-9E3A-4566-89D9-273B85AD287F}" name="Cellphone.jpg" dataDxfId="275"/>
-    <tableColumn id="14" xr3:uid="{135EAA59-E25D-47FF-8983-293EEDACF3EB}" name="Bananas.jpg" dataDxfId="274"/>
-    <tableColumn id="15" xr3:uid="{3D87A02E-B576-4521-AA8D-7A73ED70C902}" name="Ship.jpg" dataDxfId="273"/>
-    <tableColumn id="16" xr3:uid="{C9D2EA8E-00AD-4D63-AE42-E8F41765F6B1}" name="Popcorn.png" dataDxfId="272"/>
-    <tableColumn id="17" xr3:uid="{0CCF7643-03C2-4B22-8250-E3AC0CC0FC43}" name="Forest.jpg" dataDxfId="271"/>
-    <tableColumn id="18" xr3:uid="{449D360E-4C67-4340-8EE2-5416304567E0}" name="train.jpg" dataDxfId="270"/>
-    <tableColumn id="19" xr3:uid="{8B03C78A-3833-4576-93A0-E43C19E97BE2}" name="Firefighters.jpg" dataDxfId="269"/>
-    <tableColumn id="20" xr3:uid="{160322EE-BFC4-4086-9FBC-8494C43A8288}" name="cocaine.png" dataDxfId="268"/>
-    <tableColumn id="21" xr3:uid="{A8477936-0214-4425-AA63-BE5DFBFCABFF}" name="drug_addict.jpg" dataDxfId="267"/>
-    <tableColumn id="22" xr3:uid="{1F9A4172-3DB6-40F0-B1E5-4F2E65103490}" name="Toothbrush.jpg" dataDxfId="266"/>
-    <tableColumn id="23" xr3:uid="{34259D1E-CE7C-4DD8-AB41-29A9A9850A97}" name="IceCream.jpg" dataDxfId="265"/>
-    <tableColumn id="24" xr3:uid="{B420BDC0-15C1-4551-8E3D-2DA9507CB87F}" name="Cola.jpg" dataDxfId="264"/>
-    <tableColumn id="25" xr3:uid="{06254304-3036-448E-83DD-EE0BAE9C2807}" name="Vulture.jpg" dataDxfId="263"/>
-    <tableColumn id="26" xr3:uid="{302375B5-898C-486D-8E8A-DA8B232EFFCB}" name="cinema_room.jpg" dataDxfId="262"/>
-    <tableColumn id="27" xr3:uid="{08CF0DB1-07F0-49A9-BA48-0D470D114C5A}" name="smoking_cigarette.jpg" dataDxfId="261"/>
-    <tableColumn id="28" xr3:uid="{1A2D4B7A-EF32-4128-9F84-04936C5EFBCC}" name="Alpaca.jpg" dataDxfId="260"/>
-    <tableColumn id="29" xr3:uid="{80CCC984-D878-41EF-A92C-315D823EFE92}" name="opium_farm.jpg" dataDxfId="259"/>
-    <tableColumn id="30" xr3:uid="{4E33FBA3-BF6D-4C0D-9597-5CEC33BC1F4A}" name="Bike.jpg" dataDxfId="258"/>
-    <tableColumn id="31" xr3:uid="{8E571F76-C649-47EF-B346-70AEABC0D4A0}" name="SoccerGame.jpg" dataDxfId="257"/>
-    <tableColumn id="32" xr3:uid="{3F8B86B2-2DA1-484B-B7FC-4050CFD9631F}" name="Windows.png" dataDxfId="256"/>
-    <tableColumn id="33" xr3:uid="{01CD1983-7FEE-48B2-917C-B58E973D04E5}" name="Yogurt.jpg" dataDxfId="255"/>
-    <tableColumn id="34" xr3:uid="{C75FE36A-E065-4EB7-81B8-E7D11ABB38A2}" name="OpenAirSwimmingPool.jpg" dataDxfId="254"/>
-    <tableColumn id="35" xr3:uid="{7B4FB868-57F9-4619-8C7A-91F22FEF8E1F}" name="airport.jpg" dataDxfId="253"/>
-    <tableColumn id="36" xr3:uid="{8528674F-5D8F-4037-B9EF-3A813F042A48}" name="eating_women.jpg" dataDxfId="252"/>
-    <tableColumn id="37" xr3:uid="{12D72FCB-1D1C-4B76-9D80-5514B40AC608}" name="Bird.jpg" dataDxfId="251"/>
-    <tableColumn id="38" xr3:uid="{4088C1FA-C45A-49CA-AAE1-BB95DA9C9D62}" name="PaintBucket.jpg" dataDxfId="250"/>
-    <tableColumn id="39" xr3:uid="{E11EF31F-F9AB-43D2-8323-E35EB5070E73}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="249"/>
-    <tableColumn id="40" xr3:uid="{AE0DE963-1F5D-4786-9D22-97A6826C29FA}" name="car.jpg" dataDxfId="248"/>
-    <tableColumn id="41" xr3:uid="{45D4BDA4-0C6D-4D14-9D11-5EAEA35AD4DE}" name="SoupBowl.jpg" dataDxfId="247"/>
-    <tableColumn id="42" xr3:uid="{DCD4B9E5-2078-4789-B126-A762CF5251E7}" name="boat.jpg" dataDxfId="246"/>
-    <tableColumn id="43" xr3:uid="{37F76B0C-FC45-44D1-A24B-7BD4BE404143}" name="Hedgehog.jpg" dataDxfId="245"/>
-    <tableColumn id="44" xr3:uid="{3B29661A-8FC0-4A9D-BCA0-0A1F2C1042FD}" name="Butter.jpg" dataDxfId="244"/>
-    <tableColumn id="45" xr3:uid="{07C16528-0C8C-479D-89B9-E82E8DB607F0}" name="lsd.png" dataDxfId="243"/>
-    <tableColumn id="46" xr3:uid="{D7487731-3F8D-4A2D-ADC4-9B289CC19AB6}" name="Pond.jpg" dataDxfId="242"/>
-    <tableColumn id="47" xr3:uid="{11BB9138-5B1E-4FE5-8433-275AACB4DADE}" name="Hike.jpg" dataDxfId="241"/>
-    <tableColumn id="48" xr3:uid="{0F7415DC-B156-418E-BBD1-499E80DDEB0D}" name="PetrolStation.jpg" dataDxfId="240"/>
-    <tableColumn id="49" xr3:uid="{56E2E45E-2AEA-4F8C-93AD-F63826C05412}" name="Grenade.JPG" dataDxfId="239"/>
-    <tableColumn id="50" xr3:uid="{4705808E-56B7-473B-BA8F-D0EB66ED3427}" name="Glock17Gen4.jpg" dataDxfId="238"/>
-    <tableColumn id="51" xr3:uid="{90FAFE72-69A2-43E3-BC2C-AE1E576231E9}" name="Phone.jpg" dataDxfId="237"/>
-    <tableColumn id="52" xr3:uid="{B4806AD1-71F7-4F50-BFFE-EEBD8EE47BAA}" name="bike_tour.jpg" dataDxfId="236"/>
-    <tableColumn id="53" xr3:uid="{BA530DDB-28C8-4787-BA6D-41328DFE3997}" name="Bread.jpg" dataDxfId="235"/>
-    <tableColumn id="54" xr3:uid="{08351F4A-BE90-48B1-ABB0-2331DF98E2E9}" name="Hotel.jpg" dataDxfId="234"/>
-    <tableColumn id="55" xr3:uid="{AD78C452-7C28-4069-B9B8-4D7F6E2BB058}" name="WashingMachine.JPG" dataDxfId="233"/>
-    <tableColumn id="56" xr3:uid="{0FA6ECB5-BA81-436F-BBCA-4C381B611A4A}" name="runway.jpg" dataDxfId="232"/>
-    <tableColumn id="57" xr3:uid="{A57D3BF7-543D-4A93-A455-5085E28EF0D1}" name="Bookshelf.jpg" dataDxfId="231"/>
-    <tableColumn id="58" xr3:uid="{56601B0D-8E35-4F1C-9C72-1DC022E8FC0F}" name="Cheese.jpg" dataDxfId="230"/>
-    <tableColumn id="59" xr3:uid="{97D5E828-C6AB-47D7-8785-E2EE3A1DEE0C}" name="drugs.jpg" dataDxfId="229"/>
-    <tableColumn id="60" xr3:uid="{24E9B7F0-2ABB-4EBC-8716-B55FC3B24812}" name="Flag_of_jihad.png" dataDxfId="228"/>
-    <tableColumn id="61" xr3:uid="{E2C94916-C6C3-40A6-8535-78B855A57F6D}" name="Al_Qaida.jpg" dataDxfId="227"/>
-    <tableColumn id="62" xr3:uid="{1E9B289E-8B92-4BD8-BDDA-F49FAEAAEFD6}" name="Apple.jpg" dataDxfId="226"/>
-    <tableColumn id="63" xr3:uid="{5A48D858-031C-48AA-8361-28F8BDFB5783}" name="soccer_field.jpg" dataDxfId="225"/>
-    <tableColumn id="64" xr3:uid="{E9229AE3-22ED-4528-982A-E9EA29BDE13A}" name="SofaBed.jpg" dataDxfId="224"/>
-    <tableColumn id="65" xr3:uid="{CFE204FE-3D6E-4040-994D-615F15E5D539}" name="Giraffe.jpg" dataDxfId="223"/>
-    <tableColumn id="66" xr3:uid="{6282C4C1-8C6A-43DC-846C-CCBE15B10D46}" name="party_crowd.jpg" dataDxfId="222"/>
-    <tableColumn id="67" xr3:uid="{CF5FF284-4449-402C-86A1-B5FCE0BE1AF0}" name="Cola.jpg2" dataDxfId="221"/>
-    <tableColumn id="68" xr3:uid="{26DD449F-63D0-416F-ABBD-0E914A5DAFC1}" name="Beer.jpg" dataDxfId="220"/>
-    <tableColumn id="69" xr3:uid="{E9660F85-B2AF-4614-BF44-21231D2EB4B2}" name="children.jpg" dataDxfId="219"/>
-    <tableColumn id="70" xr3:uid="{F173A912-95B8-4ED0-8A19-D49EBBDBF121}" name="cocaine.jpg" dataDxfId="218"/>
-    <tableColumn id="71" xr3:uid="{C27794D2-B4C6-4D98-90DC-FBEBBF1E9529}" name="refugeecamp.jpg" dataDxfId="217"/>
-    <tableColumn id="72" xr3:uid="{7B9ECC20-0B71-4BE0-A8A2-E2D6E65D4945}" name="Car.jpg3" dataDxfId="216"/>
+    <tableColumn id="1" xr3:uid="{B9AD851A-16ED-4D29-9043-B7DA792531FC}" name="DenseNet201" dataDxfId="311"/>
+    <tableColumn id="2" xr3:uid="{E0508655-4259-4EEA-AC85-B9B1D9E49031}" name="Laptop.jpg" dataDxfId="310"/>
+    <tableColumn id="3" xr3:uid="{08291F19-9BB8-45A3-A8A3-D290D89C70E3}" name="SteamLocomotive.jpg" dataDxfId="309"/>
+    <tableColumn id="4" xr3:uid="{9989FC54-56B8-4D31-93F1-A7DE9B77F381}" name="xtc.jpg" dataDxfId="308"/>
+    <tableColumn id="5" xr3:uid="{F21E6CD9-BB37-4572-83A7-E245080EA2CE}" name="heroin.jpg" dataDxfId="307"/>
+    <tableColumn id="6" xr3:uid="{7E69E962-672E-4041-AABF-46F9D25617B3}" name="Avocados.jpg" dataDxfId="306"/>
+    <tableColumn id="7" xr3:uid="{F8E649CF-7537-4DB0-9205-30C55D8ACF2E}" name="pig.jpg" dataDxfId="305"/>
+    <tableColumn id="8" xr3:uid="{C0C19488-64A5-4EA9-B12F-6F6F77A85657}" name="Methamphetamine.png" dataDxfId="304"/>
+    <tableColumn id="9" xr3:uid="{142C9474-25E5-4B5C-9033-AACB658381EE}" name="bomb.jpg" dataDxfId="303"/>
+    <tableColumn id="10" xr3:uid="{EBFEA010-2251-4E2A-B3AC-C8A02613CCED}" name="cannabis.jpg" dataDxfId="302"/>
+    <tableColumn id="11" xr3:uid="{B6AED7C8-2024-4DAA-B196-F25F435D2F4F}" name="knife.png" dataDxfId="301"/>
+    <tableColumn id="12" xr3:uid="{38D5384D-C765-4ECC-8DB5-C706C70E202F}" name="Tractor.jpg" dataDxfId="300"/>
+    <tableColumn id="13" xr3:uid="{F918646A-9E3A-4566-89D9-273B85AD287F}" name="Cellphone.jpg" dataDxfId="299"/>
+    <tableColumn id="14" xr3:uid="{135EAA59-E25D-47FF-8983-293EEDACF3EB}" name="Bananas.jpg" dataDxfId="298"/>
+    <tableColumn id="15" xr3:uid="{3D87A02E-B576-4521-AA8D-7A73ED70C902}" name="Ship.jpg" dataDxfId="297"/>
+    <tableColumn id="16" xr3:uid="{C9D2EA8E-00AD-4D63-AE42-E8F41765F6B1}" name="Popcorn.png" dataDxfId="296"/>
+    <tableColumn id="17" xr3:uid="{0CCF7643-03C2-4B22-8250-E3AC0CC0FC43}" name="Forest.jpg" dataDxfId="295"/>
+    <tableColumn id="18" xr3:uid="{449D360E-4C67-4340-8EE2-5416304567E0}" name="train.jpg" dataDxfId="294"/>
+    <tableColumn id="19" xr3:uid="{8B03C78A-3833-4576-93A0-E43C19E97BE2}" name="Firefighters.jpg" dataDxfId="293"/>
+    <tableColumn id="20" xr3:uid="{160322EE-BFC4-4086-9FBC-8494C43A8288}" name="cocaine.png" dataDxfId="292"/>
+    <tableColumn id="21" xr3:uid="{A8477936-0214-4425-AA63-BE5DFBFCABFF}" name="drug_addict.jpg" dataDxfId="291"/>
+    <tableColumn id="22" xr3:uid="{1F9A4172-3DB6-40F0-B1E5-4F2E65103490}" name="Toothbrush.jpg" dataDxfId="290"/>
+    <tableColumn id="23" xr3:uid="{34259D1E-CE7C-4DD8-AB41-29A9A9850A97}" name="IceCream.jpg" dataDxfId="289"/>
+    <tableColumn id="24" xr3:uid="{B420BDC0-15C1-4551-8E3D-2DA9507CB87F}" name="Cola.jpg" dataDxfId="288"/>
+    <tableColumn id="25" xr3:uid="{06254304-3036-448E-83DD-EE0BAE9C2807}" name="Vulture.jpg" dataDxfId="287"/>
+    <tableColumn id="26" xr3:uid="{302375B5-898C-486D-8E8A-DA8B232EFFCB}" name="cinema_room.jpg" dataDxfId="286"/>
+    <tableColumn id="27" xr3:uid="{08CF0DB1-07F0-49A9-BA48-0D470D114C5A}" name="smoking_cigarette.jpg" dataDxfId="285"/>
+    <tableColumn id="28" xr3:uid="{1A2D4B7A-EF32-4128-9F84-04936C5EFBCC}" name="Alpaca.jpg" dataDxfId="284"/>
+    <tableColumn id="29" xr3:uid="{80CCC984-D878-41EF-A92C-315D823EFE92}" name="opium_farm.jpg" dataDxfId="283"/>
+    <tableColumn id="30" xr3:uid="{4E33FBA3-BF6D-4C0D-9597-5CEC33BC1F4A}" name="Bike.jpg" dataDxfId="282"/>
+    <tableColumn id="31" xr3:uid="{8E571F76-C649-47EF-B346-70AEABC0D4A0}" name="SoccerGame.jpg" dataDxfId="281"/>
+    <tableColumn id="32" xr3:uid="{3F8B86B2-2DA1-484B-B7FC-4050CFD9631F}" name="Windows.png" dataDxfId="280"/>
+    <tableColumn id="33" xr3:uid="{01CD1983-7FEE-48B2-917C-B58E973D04E5}" name="Yogurt.jpg" dataDxfId="279"/>
+    <tableColumn id="34" xr3:uid="{C75FE36A-E065-4EB7-81B8-E7D11ABB38A2}" name="OpenAirSwimmingPool.jpg" dataDxfId="278"/>
+    <tableColumn id="35" xr3:uid="{7B4FB868-57F9-4619-8C7A-91F22FEF8E1F}" name="airport.jpg" dataDxfId="277"/>
+    <tableColumn id="36" xr3:uid="{8528674F-5D8F-4037-B9EF-3A813F042A48}" name="eating_women.jpg" dataDxfId="276"/>
+    <tableColumn id="37" xr3:uid="{12D72FCB-1D1C-4B76-9D80-5514B40AC608}" name="Bird.jpg" dataDxfId="275"/>
+    <tableColumn id="38" xr3:uid="{4088C1FA-C45A-49CA-AAE1-BB95DA9C9D62}" name="PaintBucket.jpg" dataDxfId="274"/>
+    <tableColumn id="39" xr3:uid="{E11EF31F-F9AB-43D2-8323-E35EB5070E73}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="273"/>
+    <tableColumn id="40" xr3:uid="{AE0DE963-1F5D-4786-9D22-97A6826C29FA}" name="car.jpg" dataDxfId="272"/>
+    <tableColumn id="41" xr3:uid="{45D4BDA4-0C6D-4D14-9D11-5EAEA35AD4DE}" name="SoupBowl.jpg" dataDxfId="271"/>
+    <tableColumn id="42" xr3:uid="{DCD4B9E5-2078-4789-B126-A762CF5251E7}" name="boat.jpg" dataDxfId="270"/>
+    <tableColumn id="43" xr3:uid="{37F76B0C-FC45-44D1-A24B-7BD4BE404143}" name="Hedgehog.jpg" dataDxfId="269"/>
+    <tableColumn id="44" xr3:uid="{3B29661A-8FC0-4A9D-BCA0-0A1F2C1042FD}" name="Butter.jpg" dataDxfId="268"/>
+    <tableColumn id="45" xr3:uid="{07C16528-0C8C-479D-89B9-E82E8DB607F0}" name="lsd.png" dataDxfId="267"/>
+    <tableColumn id="46" xr3:uid="{D7487731-3F8D-4A2D-ADC4-9B289CC19AB6}" name="Pond.jpg" dataDxfId="266"/>
+    <tableColumn id="47" xr3:uid="{11BB9138-5B1E-4FE5-8433-275AACB4DADE}" name="Hike.jpg" dataDxfId="265"/>
+    <tableColumn id="48" xr3:uid="{0F7415DC-B156-418E-BBD1-499E80DDEB0D}" name="PetrolStation.jpg" dataDxfId="264"/>
+    <tableColumn id="49" xr3:uid="{56E2E45E-2AEA-4F8C-93AD-F63826C05412}" name="Grenade.JPG" dataDxfId="263"/>
+    <tableColumn id="50" xr3:uid="{4705808E-56B7-473B-BA8F-D0EB66ED3427}" name="Glock17Gen4.jpg" dataDxfId="262"/>
+    <tableColumn id="51" xr3:uid="{90FAFE72-69A2-43E3-BC2C-AE1E576231E9}" name="Phone.jpg" dataDxfId="261"/>
+    <tableColumn id="52" xr3:uid="{B4806AD1-71F7-4F50-BFFE-EEBD8EE47BAA}" name="bike_tour.jpg" dataDxfId="260"/>
+    <tableColumn id="53" xr3:uid="{BA530DDB-28C8-4787-BA6D-41328DFE3997}" name="Bread.jpg" dataDxfId="259"/>
+    <tableColumn id="54" xr3:uid="{08351F4A-BE90-48B1-ABB0-2331DF98E2E9}" name="Hotel.jpg" dataDxfId="258"/>
+    <tableColumn id="55" xr3:uid="{AD78C452-7C28-4069-B9B8-4D7F6E2BB058}" name="WashingMachine.JPG" dataDxfId="257"/>
+    <tableColumn id="56" xr3:uid="{0FA6ECB5-BA81-436F-BBCA-4C381B611A4A}" name="runway.jpg" dataDxfId="256"/>
+    <tableColumn id="57" xr3:uid="{A57D3BF7-543D-4A93-A455-5085E28EF0D1}" name="Bookshelf.jpg" dataDxfId="255"/>
+    <tableColumn id="58" xr3:uid="{56601B0D-8E35-4F1C-9C72-1DC022E8FC0F}" name="Cheese.jpg" dataDxfId="254"/>
+    <tableColumn id="59" xr3:uid="{97D5E828-C6AB-47D7-8785-E2EE3A1DEE0C}" name="drugs.jpg" dataDxfId="253"/>
+    <tableColumn id="60" xr3:uid="{24E9B7F0-2ABB-4EBC-8716-B55FC3B24812}" name="Flag_of_jihad.png" dataDxfId="252"/>
+    <tableColumn id="61" xr3:uid="{E2C94916-C6C3-40A6-8535-78B855A57F6D}" name="Al_Qaida.jpg" dataDxfId="251"/>
+    <tableColumn id="62" xr3:uid="{1E9B289E-8B92-4BD8-BDDA-F49FAEAAEFD6}" name="Apple.jpg" dataDxfId="250"/>
+    <tableColumn id="63" xr3:uid="{5A48D858-031C-48AA-8361-28F8BDFB5783}" name="soccer_field.jpg" dataDxfId="249"/>
+    <tableColumn id="64" xr3:uid="{E9229AE3-22ED-4528-982A-E9EA29BDE13A}" name="SofaBed.jpg" dataDxfId="248"/>
+    <tableColumn id="65" xr3:uid="{CFE204FE-3D6E-4040-994D-615F15E5D539}" name="Giraffe.jpg" dataDxfId="247"/>
+    <tableColumn id="66" xr3:uid="{6282C4C1-8C6A-43DC-846C-CCBE15B10D46}" name="party_crowd.jpg" dataDxfId="246"/>
+    <tableColumn id="67" xr3:uid="{CF5FF284-4449-402C-86A1-B5FCE0BE1AF0}" name="Cola.jpg2" dataDxfId="245"/>
+    <tableColumn id="68" xr3:uid="{26DD449F-63D0-416F-ABBD-0E914A5DAFC1}" name="Beer.jpg" dataDxfId="244"/>
+    <tableColumn id="69" xr3:uid="{E9660F85-B2AF-4614-BF44-21231D2EB4B2}" name="children.jpg" dataDxfId="243"/>
+    <tableColumn id="70" xr3:uid="{F173A912-95B8-4ED0-8A19-D49EBBDBF121}" name="cocaine.jpg" dataDxfId="242"/>
+    <tableColumn id="71" xr3:uid="{C27794D2-B4C6-4D98-90DC-FBEBBF1E9529}" name="refugeecamp.jpg" dataDxfId="241"/>
+    <tableColumn id="72" xr3:uid="{7B9ECC20-0B71-4BE0-A8A2-E2D6E65D4945}" name="Car.jpg3" dataDxfId="240"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4158,78 +5528,78 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1B4B9D34-5DFA-4F7F-B3A9-0F39888E40CD}" name="inception_v3" displayName="inception_v3" ref="A4:BT9" totalsRowShown="0">
   <autoFilter ref="A4:BT9" xr:uid="{09876B25-07C1-4BB6-AD39-D5C64234065D}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{39B3357A-8036-45C0-BA62-7AD98C55E97A}" name="InceptionV3" dataDxfId="215"/>
-    <tableColumn id="2" xr3:uid="{55BB7E90-B0B8-4BDE-806B-F2BBF065CD50}" name="Laptop.jpg" dataDxfId="214"/>
-    <tableColumn id="3" xr3:uid="{0E0D2C53-3642-4C61-AE95-A73F1FD3AF9C}" name="SteamLocomotive.jpg" dataDxfId="213"/>
-    <tableColumn id="4" xr3:uid="{0D6005E4-EE78-454A-BACC-24BE4EBC70E9}" name="xtc.jpg" dataDxfId="212"/>
-    <tableColumn id="5" xr3:uid="{F1F897EF-0F67-45AA-816B-A18129BC9BB6}" name="heroin.jpg" dataDxfId="211"/>
-    <tableColumn id="6" xr3:uid="{0F8B52E6-F5D2-4FC7-8AAF-10363C7BEF42}" name="Avocados.jpg" dataDxfId="210"/>
-    <tableColumn id="7" xr3:uid="{8F85066F-7B41-4190-93E9-DDFEF6E84A6D}" name="pig.jpg" dataDxfId="209"/>
-    <tableColumn id="8" xr3:uid="{04FF2D72-B66E-477A-9CE2-FB77D4F72BC3}" name="Methamphetamine.png" dataDxfId="208"/>
-    <tableColumn id="9" xr3:uid="{BF35FB74-3FBE-4EBC-BE8E-CEB54E191AF2}" name="bomb.jpg" dataDxfId="207"/>
-    <tableColumn id="10" xr3:uid="{90298541-C789-4937-8C35-5E591F584401}" name="cannabis.jpg" dataDxfId="206"/>
-    <tableColumn id="11" xr3:uid="{C3012CD8-787A-4F24-BD90-3854AFEEA3BE}" name="knife.png" dataDxfId="205"/>
-    <tableColumn id="12" xr3:uid="{C2C10FE4-2FC2-46BB-BC66-8D68B6D4CDB2}" name="Tractor.jpg" dataDxfId="204"/>
-    <tableColumn id="13" xr3:uid="{EF836358-E3E4-44F2-8C7F-395BBF5CE41B}" name="Cellphone.jpg" dataDxfId="203"/>
-    <tableColumn id="14" xr3:uid="{C93CB923-8FBD-4C08-9D7B-45D3621985DB}" name="Bananas.jpg" dataDxfId="202"/>
-    <tableColumn id="15" xr3:uid="{0DDE47BB-2E22-48C9-B95F-8ED88BA2F4F4}" name="Ship.jpg" dataDxfId="201"/>
-    <tableColumn id="16" xr3:uid="{4A48E265-1653-4915-988A-513316474A8B}" name="Popcorn.png" dataDxfId="200"/>
-    <tableColumn id="17" xr3:uid="{F3C63D77-1D58-4DC0-BD26-27668D607A87}" name="Forest.jpg" dataDxfId="199"/>
-    <tableColumn id="18" xr3:uid="{E236DCB9-F161-49A0-9046-A3D6F7C343E2}" name="train.jpg" dataDxfId="198"/>
-    <tableColumn id="19" xr3:uid="{0EE9AA84-0295-44E8-8838-0C23F9F70E18}" name="Firefighters.jpg" dataDxfId="197"/>
-    <tableColumn id="20" xr3:uid="{6B4487D5-9093-4DAE-9410-1D5B0343728D}" name="cocaine.png" dataDxfId="196"/>
-    <tableColumn id="21" xr3:uid="{BD224F98-F012-49A8-A7EB-D692C8440DAF}" name="drug_addict.jpg" dataDxfId="195"/>
-    <tableColumn id="22" xr3:uid="{934773D6-5BAF-4D56-B28C-D9067FA52545}" name="Toothbrush.jpg" dataDxfId="194"/>
-    <tableColumn id="23" xr3:uid="{E01C7828-2689-4186-8987-1A01874D6FD7}" name="IceCream.jpg" dataDxfId="193"/>
-    <tableColumn id="24" xr3:uid="{A241D0C4-32D5-48C3-84EE-8C38DF748B21}" name="Cola.jpg" dataDxfId="192"/>
-    <tableColumn id="25" xr3:uid="{CF76BDF1-7E09-4262-9FDD-84B47E63BA35}" name="Vulture.jpg" dataDxfId="191"/>
-    <tableColumn id="26" xr3:uid="{90DF0A0B-735F-4D5B-9886-40A4AC5E554A}" name="cinema_room.jpg" dataDxfId="190"/>
-    <tableColumn id="27" xr3:uid="{5C823B8E-7C56-49C0-82EC-D6DED989FD1E}" name="smoking_cigarette.jpg" dataDxfId="189"/>
-    <tableColumn id="28" xr3:uid="{FF0FDF6B-84CF-4FD2-8FF9-7CB253083682}" name="Alpaca.jpg" dataDxfId="188"/>
-    <tableColumn id="29" xr3:uid="{5CB95546-DD9C-4A70-9C96-7758CC0A2972}" name="opium_farm.jpg" dataDxfId="187"/>
-    <tableColumn id="30" xr3:uid="{16E6B664-BCE8-44D9-9AFA-5A9AEF01C2B2}" name="Bike.jpg" dataDxfId="186"/>
-    <tableColumn id="31" xr3:uid="{7F0AB83D-2C36-4418-A617-9F1AE06812FA}" name="SoccerGame.jpg" dataDxfId="185"/>
-    <tableColumn id="32" xr3:uid="{81CB78C0-7626-49C9-B8EF-7C9E74A7DADB}" name="Windows.png" dataDxfId="184"/>
-    <tableColumn id="33" xr3:uid="{50F57E30-5872-4533-8A4F-C76D6B0F1CB3}" name="Yogurt.jpg" dataDxfId="183"/>
-    <tableColumn id="34" xr3:uid="{0ADBC01F-541A-45D1-A35F-39A9C67F0AB8}" name="OpenAirSwimmingPool.jpg" dataDxfId="182"/>
-    <tableColumn id="35" xr3:uid="{CD080962-D5B6-4EB2-B06F-26AD2259A09C}" name="airport.jpg" dataDxfId="181"/>
-    <tableColumn id="36" xr3:uid="{564A1D37-D623-421B-A8A0-2714E2EBD424}" name="eating_women.jpg" dataDxfId="180"/>
-    <tableColumn id="37" xr3:uid="{AEA34BFA-2FBE-4E82-9CB8-0B1998F77DF4}" name="Bird.jpg" dataDxfId="179"/>
-    <tableColumn id="38" xr3:uid="{3661E67D-2252-49AA-954A-A4C57726D2CD}" name="PaintBucket.jpg" dataDxfId="178"/>
-    <tableColumn id="39" xr3:uid="{484EA7D4-FEA5-4BBE-83A6-826011D3C628}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="177"/>
-    <tableColumn id="40" xr3:uid="{98E0210E-7E10-4AFC-BEF2-811A992A65F4}" name="car.jpg" dataDxfId="176"/>
-    <tableColumn id="41" xr3:uid="{7B73327D-D8FE-4B3A-8836-486C1028BA45}" name="SoupBowl.jpg" dataDxfId="175"/>
-    <tableColumn id="42" xr3:uid="{02EACEF8-A795-4584-B4DB-E28733DDF95F}" name="boat.jpg" dataDxfId="174"/>
-    <tableColumn id="43" xr3:uid="{2DA4743A-9163-4E8F-93E9-4184427321EA}" name="Hedgehog.jpg" dataDxfId="173"/>
-    <tableColumn id="44" xr3:uid="{23776AF4-3882-464F-A356-2D6CA865303C}" name="Butter.jpg" dataDxfId="172"/>
-    <tableColumn id="45" xr3:uid="{5A7AA733-CD2B-43BF-8C97-7EEACA4000A6}" name="lsd.png" dataDxfId="171"/>
-    <tableColumn id="46" xr3:uid="{8CA1234E-4A08-4039-811C-2CADBAD5CA6E}" name="Pond.jpg" dataDxfId="170"/>
-    <tableColumn id="47" xr3:uid="{351505E9-92F3-4221-A5EC-F3BD09D80B1D}" name="Hike.jpg" dataDxfId="169"/>
-    <tableColumn id="48" xr3:uid="{E57512C4-B723-4E93-8487-5A621823181C}" name="PetrolStation.jpg" dataDxfId="168"/>
-    <tableColumn id="49" xr3:uid="{E9CC1C6E-5A66-4940-A009-CAD325A528E6}" name="Grenade.JPG" dataDxfId="167"/>
-    <tableColumn id="50" xr3:uid="{A9C6034C-D864-4D43-B9E7-06C715988459}" name="Glock17Gen4.jpg" dataDxfId="166"/>
-    <tableColumn id="51" xr3:uid="{66D7B6BB-4486-46CF-955F-744EE8DFBA9F}" name="Phone.jpg" dataDxfId="165"/>
-    <tableColumn id="52" xr3:uid="{BE9A4BCA-643E-480C-B882-A5366456D979}" name="bike_tour.jpg" dataDxfId="164"/>
-    <tableColumn id="53" xr3:uid="{5DC70A50-ED6B-4A6C-A3E4-70DB2404545B}" name="Bread.jpg" dataDxfId="163"/>
-    <tableColumn id="54" xr3:uid="{2546D2E9-CF6C-4999-A461-081A312D7C22}" name="Hotel.jpg" dataDxfId="162"/>
-    <tableColumn id="55" xr3:uid="{6334CD31-CFF4-4DD4-B718-06CAA56E6633}" name="WashingMachine.JPG" dataDxfId="161"/>
-    <tableColumn id="56" xr3:uid="{A523CE74-F427-40AB-B06A-520548B1F271}" name="runway.jpg" dataDxfId="160"/>
-    <tableColumn id="57" xr3:uid="{15666204-884D-480B-8F75-0D1EF5076B75}" name="Bookshelf.jpg" dataDxfId="159"/>
-    <tableColumn id="58" xr3:uid="{AC49B50B-7723-448F-B235-AB907A1F28DE}" name="Cheese.jpg" dataDxfId="158"/>
-    <tableColumn id="59" xr3:uid="{9EB92D82-B997-4A4C-AA39-BF8EA5A592E7}" name="drugs.jpg" dataDxfId="157"/>
-    <tableColumn id="60" xr3:uid="{809FA4FB-156E-4539-8B76-6F64E2C7012A}" name="Flag_of_jihad.png" dataDxfId="156"/>
-    <tableColumn id="61" xr3:uid="{B07277A5-03C2-44EE-8333-7FB7E3B10A4C}" name="Al_Qaida.jpg" dataDxfId="155"/>
-    <tableColumn id="62" xr3:uid="{A4CD9889-0974-4657-8E4B-3A5CB153175E}" name="Apple.jpg" dataDxfId="154"/>
-    <tableColumn id="63" xr3:uid="{EFE82791-6385-4D27-9737-E98C74F62BB5}" name="soccer_field.jpg" dataDxfId="153"/>
-    <tableColumn id="64" xr3:uid="{4F9EC11A-6C7B-494A-BCC0-5F260711C7D3}" name="SofaBed.jpg" dataDxfId="152"/>
-    <tableColumn id="65" xr3:uid="{E15B432E-2D85-49B5-A383-45E616E81900}" name="Giraffe.jpg" dataDxfId="151"/>
-    <tableColumn id="66" xr3:uid="{70647898-2D21-439E-AFE8-6D21E3F99D5E}" name="party_crowd.jpg" dataDxfId="150"/>
-    <tableColumn id="67" xr3:uid="{395E71B6-095D-4FD1-A5BD-C1C1665535F9}" name="Cola.jpg2" dataDxfId="149"/>
-    <tableColumn id="68" xr3:uid="{6ABEEF60-33F5-437D-B513-E10E8BEE3EF6}" name="Beer.jpg" dataDxfId="148"/>
-    <tableColumn id="69" xr3:uid="{9C2BACF4-A679-4DB4-B36D-5A4001BD0C1E}" name="children.jpg" dataDxfId="147"/>
-    <tableColumn id="70" xr3:uid="{B5847919-1EA0-48DA-9E73-9950EEA33982}" name="cocaine.jpg" dataDxfId="146"/>
-    <tableColumn id="71" xr3:uid="{3CED00FE-E21C-4624-9418-2AC8481A6EE1}" name="refugeecamp.jpg" dataDxfId="145"/>
-    <tableColumn id="72" xr3:uid="{8C8FCDA6-E608-4C57-B479-D88A2C37ACA5}" name="Car.jpg3" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{39B3357A-8036-45C0-BA62-7AD98C55E97A}" name="InceptionV3" dataDxfId="239"/>
+    <tableColumn id="2" xr3:uid="{55BB7E90-B0B8-4BDE-806B-F2BBF065CD50}" name="Laptop.jpg" dataDxfId="238"/>
+    <tableColumn id="3" xr3:uid="{0E0D2C53-3642-4C61-AE95-A73F1FD3AF9C}" name="SteamLocomotive.jpg" dataDxfId="237"/>
+    <tableColumn id="4" xr3:uid="{0D6005E4-EE78-454A-BACC-24BE4EBC70E9}" name="xtc.jpg" dataDxfId="236"/>
+    <tableColumn id="5" xr3:uid="{F1F897EF-0F67-45AA-816B-A18129BC9BB6}" name="heroin.jpg" dataDxfId="235"/>
+    <tableColumn id="6" xr3:uid="{0F8B52E6-F5D2-4FC7-8AAF-10363C7BEF42}" name="Avocados.jpg" dataDxfId="234"/>
+    <tableColumn id="7" xr3:uid="{8F85066F-7B41-4190-93E9-DDFEF6E84A6D}" name="pig.jpg" dataDxfId="233"/>
+    <tableColumn id="8" xr3:uid="{04FF2D72-B66E-477A-9CE2-FB77D4F72BC3}" name="Methamphetamine.png" dataDxfId="232"/>
+    <tableColumn id="9" xr3:uid="{BF35FB74-3FBE-4EBC-BE8E-CEB54E191AF2}" name="bomb.jpg" dataDxfId="231"/>
+    <tableColumn id="10" xr3:uid="{90298541-C789-4937-8C35-5E591F584401}" name="cannabis.jpg" dataDxfId="230"/>
+    <tableColumn id="11" xr3:uid="{C3012CD8-787A-4F24-BD90-3854AFEEA3BE}" name="knife.png" dataDxfId="229"/>
+    <tableColumn id="12" xr3:uid="{C2C10FE4-2FC2-46BB-BC66-8D68B6D4CDB2}" name="Tractor.jpg" dataDxfId="228"/>
+    <tableColumn id="13" xr3:uid="{EF836358-E3E4-44F2-8C7F-395BBF5CE41B}" name="Cellphone.jpg" dataDxfId="227"/>
+    <tableColumn id="14" xr3:uid="{C93CB923-8FBD-4C08-9D7B-45D3621985DB}" name="Bananas.jpg" dataDxfId="226"/>
+    <tableColumn id="15" xr3:uid="{0DDE47BB-2E22-48C9-B95F-8ED88BA2F4F4}" name="Ship.jpg" dataDxfId="225"/>
+    <tableColumn id="16" xr3:uid="{4A48E265-1653-4915-988A-513316474A8B}" name="Popcorn.png" dataDxfId="224"/>
+    <tableColumn id="17" xr3:uid="{F3C63D77-1D58-4DC0-BD26-27668D607A87}" name="Forest.jpg" dataDxfId="223"/>
+    <tableColumn id="18" xr3:uid="{E236DCB9-F161-49A0-9046-A3D6F7C343E2}" name="train.jpg" dataDxfId="222"/>
+    <tableColumn id="19" xr3:uid="{0EE9AA84-0295-44E8-8838-0C23F9F70E18}" name="Firefighters.jpg" dataDxfId="221"/>
+    <tableColumn id="20" xr3:uid="{6B4487D5-9093-4DAE-9410-1D5B0343728D}" name="cocaine.png" dataDxfId="220"/>
+    <tableColumn id="21" xr3:uid="{BD224F98-F012-49A8-A7EB-D692C8440DAF}" name="drug_addict.jpg" dataDxfId="219"/>
+    <tableColumn id="22" xr3:uid="{934773D6-5BAF-4D56-B28C-D9067FA52545}" name="Toothbrush.jpg" dataDxfId="218"/>
+    <tableColumn id="23" xr3:uid="{E01C7828-2689-4186-8987-1A01874D6FD7}" name="IceCream.jpg" dataDxfId="217"/>
+    <tableColumn id="24" xr3:uid="{A241D0C4-32D5-48C3-84EE-8C38DF748B21}" name="Cola.jpg" dataDxfId="216"/>
+    <tableColumn id="25" xr3:uid="{CF76BDF1-7E09-4262-9FDD-84B47E63BA35}" name="Vulture.jpg" dataDxfId="215"/>
+    <tableColumn id="26" xr3:uid="{90DF0A0B-735F-4D5B-9886-40A4AC5E554A}" name="cinema_room.jpg" dataDxfId="214"/>
+    <tableColumn id="27" xr3:uid="{5C823B8E-7C56-49C0-82EC-D6DED989FD1E}" name="smoking_cigarette.jpg" dataDxfId="213"/>
+    <tableColumn id="28" xr3:uid="{FF0FDF6B-84CF-4FD2-8FF9-7CB253083682}" name="Alpaca.jpg" dataDxfId="212"/>
+    <tableColumn id="29" xr3:uid="{5CB95546-DD9C-4A70-9C96-7758CC0A2972}" name="opium_farm.jpg" dataDxfId="211"/>
+    <tableColumn id="30" xr3:uid="{16E6B664-BCE8-44D9-9AFA-5A9AEF01C2B2}" name="Bike.jpg" dataDxfId="210"/>
+    <tableColumn id="31" xr3:uid="{7F0AB83D-2C36-4418-A617-9F1AE06812FA}" name="SoccerGame.jpg" dataDxfId="209"/>
+    <tableColumn id="32" xr3:uid="{81CB78C0-7626-49C9-B8EF-7C9E74A7DADB}" name="Windows.png" dataDxfId="208"/>
+    <tableColumn id="33" xr3:uid="{50F57E30-5872-4533-8A4F-C76D6B0F1CB3}" name="Yogurt.jpg" dataDxfId="207"/>
+    <tableColumn id="34" xr3:uid="{0ADBC01F-541A-45D1-A35F-39A9C67F0AB8}" name="OpenAirSwimmingPool.jpg" dataDxfId="206"/>
+    <tableColumn id="35" xr3:uid="{CD080962-D5B6-4EB2-B06F-26AD2259A09C}" name="airport.jpg" dataDxfId="205"/>
+    <tableColumn id="36" xr3:uid="{564A1D37-D623-421B-A8A0-2714E2EBD424}" name="eating_women.jpg" dataDxfId="204"/>
+    <tableColumn id="37" xr3:uid="{AEA34BFA-2FBE-4E82-9CB8-0B1998F77DF4}" name="Bird.jpg" dataDxfId="203"/>
+    <tableColumn id="38" xr3:uid="{3661E67D-2252-49AA-954A-A4C57726D2CD}" name="PaintBucket.jpg" dataDxfId="202"/>
+    <tableColumn id="39" xr3:uid="{484EA7D4-FEA5-4BBE-83A6-826011D3C628}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="201"/>
+    <tableColumn id="40" xr3:uid="{98E0210E-7E10-4AFC-BEF2-811A992A65F4}" name="car.jpg" dataDxfId="200"/>
+    <tableColumn id="41" xr3:uid="{7B73327D-D8FE-4B3A-8836-486C1028BA45}" name="SoupBowl.jpg" dataDxfId="199"/>
+    <tableColumn id="42" xr3:uid="{02EACEF8-A795-4584-B4DB-E28733DDF95F}" name="boat.jpg" dataDxfId="198"/>
+    <tableColumn id="43" xr3:uid="{2DA4743A-9163-4E8F-93E9-4184427321EA}" name="Hedgehog.jpg" dataDxfId="197"/>
+    <tableColumn id="44" xr3:uid="{23776AF4-3882-464F-A356-2D6CA865303C}" name="Butter.jpg" dataDxfId="196"/>
+    <tableColumn id="45" xr3:uid="{5A7AA733-CD2B-43BF-8C97-7EEACA4000A6}" name="lsd.png" dataDxfId="195"/>
+    <tableColumn id="46" xr3:uid="{8CA1234E-4A08-4039-811C-2CADBAD5CA6E}" name="Pond.jpg" dataDxfId="194"/>
+    <tableColumn id="47" xr3:uid="{351505E9-92F3-4221-A5EC-F3BD09D80B1D}" name="Hike.jpg" dataDxfId="193"/>
+    <tableColumn id="48" xr3:uid="{E57512C4-B723-4E93-8487-5A621823181C}" name="PetrolStation.jpg" dataDxfId="192"/>
+    <tableColumn id="49" xr3:uid="{E9CC1C6E-5A66-4940-A009-CAD325A528E6}" name="Grenade.JPG" dataDxfId="191"/>
+    <tableColumn id="50" xr3:uid="{A9C6034C-D864-4D43-B9E7-06C715988459}" name="Glock17Gen4.jpg" dataDxfId="190"/>
+    <tableColumn id="51" xr3:uid="{66D7B6BB-4486-46CF-955F-744EE8DFBA9F}" name="Phone.jpg" dataDxfId="189"/>
+    <tableColumn id="52" xr3:uid="{BE9A4BCA-643E-480C-B882-A5366456D979}" name="bike_tour.jpg" dataDxfId="188"/>
+    <tableColumn id="53" xr3:uid="{5DC70A50-ED6B-4A6C-A3E4-70DB2404545B}" name="Bread.jpg" dataDxfId="187"/>
+    <tableColumn id="54" xr3:uid="{2546D2E9-CF6C-4999-A461-081A312D7C22}" name="Hotel.jpg" dataDxfId="186"/>
+    <tableColumn id="55" xr3:uid="{6334CD31-CFF4-4DD4-B718-06CAA56E6633}" name="WashingMachine.JPG" dataDxfId="185"/>
+    <tableColumn id="56" xr3:uid="{A523CE74-F427-40AB-B06A-520548B1F271}" name="runway.jpg" dataDxfId="184"/>
+    <tableColumn id="57" xr3:uid="{15666204-884D-480B-8F75-0D1EF5076B75}" name="Bookshelf.jpg" dataDxfId="183"/>
+    <tableColumn id="58" xr3:uid="{AC49B50B-7723-448F-B235-AB907A1F28DE}" name="Cheese.jpg" dataDxfId="182"/>
+    <tableColumn id="59" xr3:uid="{9EB92D82-B997-4A4C-AA39-BF8EA5A592E7}" name="drugs.jpg" dataDxfId="181"/>
+    <tableColumn id="60" xr3:uid="{809FA4FB-156E-4539-8B76-6F64E2C7012A}" name="Flag_of_jihad.png" dataDxfId="180"/>
+    <tableColumn id="61" xr3:uid="{B07277A5-03C2-44EE-8333-7FB7E3B10A4C}" name="Al_Qaida.jpg" dataDxfId="179"/>
+    <tableColumn id="62" xr3:uid="{A4CD9889-0974-4657-8E4B-3A5CB153175E}" name="Apple.jpg" dataDxfId="178"/>
+    <tableColumn id="63" xr3:uid="{EFE82791-6385-4D27-9737-E98C74F62BB5}" name="soccer_field.jpg" dataDxfId="177"/>
+    <tableColumn id="64" xr3:uid="{4F9EC11A-6C7B-494A-BCC0-5F260711C7D3}" name="SofaBed.jpg" dataDxfId="176"/>
+    <tableColumn id="65" xr3:uid="{E15B432E-2D85-49B5-A383-45E616E81900}" name="Giraffe.jpg" dataDxfId="175"/>
+    <tableColumn id="66" xr3:uid="{70647898-2D21-439E-AFE8-6D21E3F99D5E}" name="party_crowd.jpg" dataDxfId="174"/>
+    <tableColumn id="67" xr3:uid="{395E71B6-095D-4FD1-A5BD-C1C1665535F9}" name="Cola.jpg2" dataDxfId="173"/>
+    <tableColumn id="68" xr3:uid="{6ABEEF60-33F5-437D-B513-E10E8BEE3EF6}" name="Beer.jpg" dataDxfId="172"/>
+    <tableColumn id="69" xr3:uid="{9C2BACF4-A679-4DB4-B36D-5A4001BD0C1E}" name="children.jpg" dataDxfId="171"/>
+    <tableColumn id="70" xr3:uid="{B5847919-1EA0-48DA-9E73-9950EEA33982}" name="cocaine.jpg" dataDxfId="170"/>
+    <tableColumn id="71" xr3:uid="{3CED00FE-E21C-4624-9418-2AC8481A6EE1}" name="refugeecamp.jpg" dataDxfId="169"/>
+    <tableColumn id="72" xr3:uid="{8C8FCDA6-E608-4C57-B479-D88A2C37ACA5}" name="Car.jpg3" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4239,78 +5609,78 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9E4517C4-22A6-451B-8523-B611D84B38C4}" name="xception" displayName="xception" ref="A4:BT9" totalsRowShown="0">
   <autoFilter ref="A4:BT9" xr:uid="{F445CAEE-7D19-4E7A-BF76-EFEE5BD74C6B}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{9768DAF6-62F7-4786-B49A-9E2CE533ECCE}" name="Xception" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{0273EE22-9CE2-4E17-8B4F-23FE54DD9A5F}" name="Laptop.jpg" dataDxfId="142"/>
-    <tableColumn id="3" xr3:uid="{EAE40ADB-1A99-4301-B2B9-6D069ACE00C5}" name="SteamLocomotive.jpg" dataDxfId="141"/>
-    <tableColumn id="4" xr3:uid="{9EAFB7A5-914E-476D-A7C3-BA3DD1D160A9}" name="xtc.jpg" dataDxfId="140"/>
-    <tableColumn id="5" xr3:uid="{9BA0ADFD-C927-4A4A-97A1-2283ED4C979B}" name="heroin.jpg" dataDxfId="139"/>
-    <tableColumn id="6" xr3:uid="{DA81A7DA-23AA-4401-9CEF-ACE65E278B5E}" name="Avocados.jpg" dataDxfId="138"/>
-    <tableColumn id="7" xr3:uid="{1CA0504E-0D35-4A49-8F78-A7CCD8CA9A44}" name="pig.jpg" dataDxfId="137"/>
-    <tableColumn id="8" xr3:uid="{3D91FC20-86F1-464E-9003-97EC5CB80D41}" name="Methamphetamine.png" dataDxfId="136"/>
-    <tableColumn id="9" xr3:uid="{2469A395-EB4E-47A4-9E3D-DC38DC7F2E2E}" name="bomb.jpg" dataDxfId="135"/>
-    <tableColumn id="10" xr3:uid="{8C481916-811B-40E6-90DB-3F765F7E2F7A}" name="cannabis.jpg" dataDxfId="134"/>
-    <tableColumn id="11" xr3:uid="{60482368-685D-4521-B8FA-72787A53C494}" name="knife.png" dataDxfId="133"/>
-    <tableColumn id="12" xr3:uid="{37C5861D-B8E9-4972-A4DB-08BFA4053A59}" name="Tractor.jpg" dataDxfId="132"/>
-    <tableColumn id="13" xr3:uid="{54CD78F5-1AAF-4745-B852-4A7CCB6089CF}" name="Cellphone.jpg" dataDxfId="131"/>
-    <tableColumn id="14" xr3:uid="{2AC14DCF-A036-4949-A082-5D7224538A3B}" name="Bananas.jpg" dataDxfId="130"/>
-    <tableColumn id="15" xr3:uid="{20A7CCCC-F329-4095-8A17-76133D72B625}" name="Ship.jpg" dataDxfId="129"/>
-    <tableColumn id="16" xr3:uid="{30EE6790-4FBA-477C-B247-A3D968501C47}" name="Popcorn.png" dataDxfId="128"/>
-    <tableColumn id="17" xr3:uid="{8BB5B13B-A566-4793-8968-235ADEE8537F}" name="Forest.jpg" dataDxfId="127"/>
-    <tableColumn id="18" xr3:uid="{C73AA436-58A7-4485-BB4F-C087653E07DF}" name="train.jpg" dataDxfId="126"/>
-    <tableColumn id="19" xr3:uid="{CC363BFC-9C46-4533-B606-F4BF3412646A}" name="Firefighters.jpg" dataDxfId="125"/>
-    <tableColumn id="20" xr3:uid="{B100F0D3-57F7-446B-A757-9943540DD059}" name="cocaine.png" dataDxfId="124"/>
-    <tableColumn id="21" xr3:uid="{803AC400-3032-467B-A431-170556012B07}" name="drug_addict.jpg" dataDxfId="123"/>
-    <tableColumn id="22" xr3:uid="{E6113BAA-EA37-4AD8-A381-FEAC3D09A6F2}" name="Toothbrush.jpg" dataDxfId="122"/>
-    <tableColumn id="23" xr3:uid="{D66D69D1-67FE-45CD-AF29-BF90D1554E97}" name="IceCream.jpg" dataDxfId="121"/>
-    <tableColumn id="24" xr3:uid="{0FE320A9-B21F-4AE8-A11A-E2E6C235A1BA}" name="Cola.jpg" dataDxfId="120"/>
-    <tableColumn id="25" xr3:uid="{9D36D332-6B78-4784-927A-A86407EA365B}" name="Vulture.jpg" dataDxfId="119"/>
-    <tableColumn id="26" xr3:uid="{BE547A34-7594-4029-9128-7DDDF57BEA72}" name="cinema_room.jpg" dataDxfId="118"/>
-    <tableColumn id="27" xr3:uid="{ABB7216E-05C4-4C65-89AE-E14033179EFD}" name="smoking_cigarette.jpg" dataDxfId="117"/>
-    <tableColumn id="28" xr3:uid="{B5C1C435-AC53-4B34-9113-C7E63056B160}" name="Alpaca.jpg" dataDxfId="116"/>
-    <tableColumn id="29" xr3:uid="{29E23140-04BE-45CD-892C-63F1EC4B5985}" name="opium_farm.jpg" dataDxfId="115"/>
-    <tableColumn id="30" xr3:uid="{7C502E34-11BD-44FD-BFC6-A85DF0045C6E}" name="Bike.jpg" dataDxfId="114"/>
-    <tableColumn id="31" xr3:uid="{D7B1CFD4-53D3-4C32-AB30-E22635FBC23D}" name="SoccerGame.jpg" dataDxfId="113"/>
-    <tableColumn id="32" xr3:uid="{150EF456-F3F3-4291-A753-55EF8BB2835F}" name="Windows.png" dataDxfId="112"/>
-    <tableColumn id="33" xr3:uid="{017B01F0-03B2-4246-9C1E-6A738292DCEC}" name="Yogurt.jpg" dataDxfId="111"/>
-    <tableColumn id="34" xr3:uid="{0A7BBCDB-F861-4AC5-8B5B-EF0465977FB1}" name="OpenAirSwimmingPool.jpg" dataDxfId="110"/>
-    <tableColumn id="35" xr3:uid="{BD577E7A-EDE6-441A-93FB-5CCB8BFC7415}" name="airport.jpg" dataDxfId="109"/>
-    <tableColumn id="36" xr3:uid="{AD381508-8E0F-47A5-AF25-86BD381A051D}" name="eating_women.jpg" dataDxfId="108"/>
-    <tableColumn id="37" xr3:uid="{B804F56A-7D5D-4115-9FA6-7812FEA225D2}" name="Bird.jpg" dataDxfId="107"/>
-    <tableColumn id="38" xr3:uid="{850350DB-2495-4A31-8487-A4C6A2245A51}" name="PaintBucket.jpg" dataDxfId="106"/>
-    <tableColumn id="39" xr3:uid="{1DFA7F0E-ACDE-4F17-828F-AB2778AFACE3}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="105"/>
-    <tableColumn id="40" xr3:uid="{5753959F-85D7-4F22-B664-4D9F3976D056}" name="car.jpg" dataDxfId="104"/>
-    <tableColumn id="41" xr3:uid="{74265639-90B2-46CA-9FDF-887566E83EE1}" name="SoupBowl.jpg" dataDxfId="103"/>
-    <tableColumn id="42" xr3:uid="{8D973280-FF3B-416E-9345-955008E50D14}" name="boat.jpg" dataDxfId="102"/>
-    <tableColumn id="43" xr3:uid="{6CCA3E6C-5AB9-4635-9F0B-09580CACA26F}" name="Hedgehog.jpg" dataDxfId="101"/>
-    <tableColumn id="44" xr3:uid="{09E165B7-A251-4A23-9F52-04483A02AD81}" name="Butter.jpg" dataDxfId="100"/>
-    <tableColumn id="45" xr3:uid="{C9E794F5-FAF9-4AC6-9062-002A96AFD8AC}" name="lsd.png" dataDxfId="99"/>
-    <tableColumn id="46" xr3:uid="{52420FC9-B1E5-426F-A79D-2D5DE5E44718}" name="Pond.jpg" dataDxfId="98"/>
-    <tableColumn id="47" xr3:uid="{CA51E0A4-08BC-47E1-9953-DC1FADDB773F}" name="Hike.jpg" dataDxfId="97"/>
-    <tableColumn id="48" xr3:uid="{C8FB7793-727D-4BEA-947C-94A2F61D3999}" name="PetrolStation.jpg" dataDxfId="96"/>
-    <tableColumn id="49" xr3:uid="{EE47B2C4-EDF3-4C03-90AD-B616C9462414}" name="Grenade.JPG" dataDxfId="95"/>
-    <tableColumn id="50" xr3:uid="{783B3869-1365-4B0D-B383-4FD424BDC39F}" name="Glock17Gen4.jpg" dataDxfId="94"/>
-    <tableColumn id="51" xr3:uid="{3D7EE6A7-BA1D-4753-9F0A-10BA2A33D054}" name="Phone.jpg" dataDxfId="93"/>
-    <tableColumn id="52" xr3:uid="{BB897CFF-8318-44FC-A032-376E00D0A277}" name="bike_tour.jpg" dataDxfId="92"/>
-    <tableColumn id="53" xr3:uid="{2136CAF5-9EBC-4168-A160-DFB86B2EC2AF}" name="Bread.jpg" dataDxfId="91"/>
-    <tableColumn id="54" xr3:uid="{7E6A7203-3308-496F-8A4E-9BE38AF72EB3}" name="Hotel.jpg" dataDxfId="90"/>
-    <tableColumn id="55" xr3:uid="{E950B841-CD89-4FCF-A1CB-95BDCEE451A3}" name="WashingMachine.JPG" dataDxfId="89"/>
-    <tableColumn id="56" xr3:uid="{DA998318-D61F-4BA1-8E90-CB601CF4BEC1}" name="runway.jpg" dataDxfId="88"/>
-    <tableColumn id="57" xr3:uid="{FA95C60E-1ACF-492B-B9FA-F0D8AC843EB5}" name="Bookshelf.jpg" dataDxfId="87"/>
-    <tableColumn id="58" xr3:uid="{C5907882-892B-4A7D-92E3-62DC5F6996CB}" name="Cheese.jpg" dataDxfId="86"/>
-    <tableColumn id="59" xr3:uid="{66D74073-2647-4BB7-9BD1-F66EE053C80C}" name="drugs.jpg" dataDxfId="85"/>
-    <tableColumn id="60" xr3:uid="{EE20B59D-B3DB-42D6-B5E6-F67F1950AED0}" name="Flag_of_jihad.png" dataDxfId="84"/>
-    <tableColumn id="61" xr3:uid="{3244E6BE-F2D5-462B-8BAF-7A10C529BB31}" name="Al_Qaida.jpg" dataDxfId="83"/>
-    <tableColumn id="62" xr3:uid="{33E0915F-0105-4070-8C52-6D0D754B0BCE}" name="Apple.jpg" dataDxfId="82"/>
-    <tableColumn id="63" xr3:uid="{915A2D46-4600-4E65-979C-548E411DBCBD}" name="soccer_field.jpg" dataDxfId="81"/>
-    <tableColumn id="64" xr3:uid="{4A527ED3-C772-4C7B-B61A-5FAB417AA66F}" name="SofaBed.jpg" dataDxfId="80"/>
-    <tableColumn id="65" xr3:uid="{398A092C-AEEA-4B34-8968-84D9BF67AC41}" name="Giraffe.jpg" dataDxfId="79"/>
-    <tableColumn id="66" xr3:uid="{79599B3B-A28D-4FD0-801F-B4F9900B4F68}" name="party_crowd.jpg" dataDxfId="78"/>
-    <tableColumn id="67" xr3:uid="{C1501152-ABA1-4655-B204-D4764A41F57C}" name="Cola.jpg2" dataDxfId="77"/>
-    <tableColumn id="68" xr3:uid="{D63CC391-5335-4839-B427-C1A96C64721B}" name="Beer.jpg" dataDxfId="76"/>
-    <tableColumn id="69" xr3:uid="{3AEFAF64-088E-4EAC-91C0-64F5DD195F08}" name="children.jpg" dataDxfId="75"/>
-    <tableColumn id="70" xr3:uid="{206B822E-933A-4762-868A-9908B59DF6DA}" name="cocaine.jpg" dataDxfId="74"/>
-    <tableColumn id="71" xr3:uid="{4BF6F1AE-8C2F-41A7-AA84-93DE8A68B6C8}" name="refugeecamp.jpg" dataDxfId="73"/>
-    <tableColumn id="72" xr3:uid="{8E3AAE22-5D66-40CB-B6C0-FC0A1E95F2F6}" name="Car.jpg3" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{9768DAF6-62F7-4786-B49A-9E2CE533ECCE}" name="Xception" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{0273EE22-9CE2-4E17-8B4F-23FE54DD9A5F}" name="Laptop.jpg" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{EAE40ADB-1A99-4301-B2B9-6D069ACE00C5}" name="SteamLocomotive.jpg" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{9EAFB7A5-914E-476D-A7C3-BA3DD1D160A9}" name="xtc.jpg" dataDxfId="164"/>
+    <tableColumn id="5" xr3:uid="{9BA0ADFD-C927-4A4A-97A1-2283ED4C979B}" name="heroin.jpg" dataDxfId="163"/>
+    <tableColumn id="6" xr3:uid="{DA81A7DA-23AA-4401-9CEF-ACE65E278B5E}" name="Avocados.jpg" dataDxfId="162"/>
+    <tableColumn id="7" xr3:uid="{1CA0504E-0D35-4A49-8F78-A7CCD8CA9A44}" name="pig.jpg" dataDxfId="161"/>
+    <tableColumn id="8" xr3:uid="{3D91FC20-86F1-464E-9003-97EC5CB80D41}" name="Methamphetamine.png" dataDxfId="160"/>
+    <tableColumn id="9" xr3:uid="{2469A395-EB4E-47A4-9E3D-DC38DC7F2E2E}" name="bomb.jpg" dataDxfId="159"/>
+    <tableColumn id="10" xr3:uid="{8C481916-811B-40E6-90DB-3F765F7E2F7A}" name="cannabis.jpg" dataDxfId="158"/>
+    <tableColumn id="11" xr3:uid="{60482368-685D-4521-B8FA-72787A53C494}" name="knife.png" dataDxfId="157"/>
+    <tableColumn id="12" xr3:uid="{37C5861D-B8E9-4972-A4DB-08BFA4053A59}" name="Tractor.jpg" dataDxfId="156"/>
+    <tableColumn id="13" xr3:uid="{54CD78F5-1AAF-4745-B852-4A7CCB6089CF}" name="Cellphone.jpg" dataDxfId="155"/>
+    <tableColumn id="14" xr3:uid="{2AC14DCF-A036-4949-A082-5D7224538A3B}" name="Bananas.jpg" dataDxfId="154"/>
+    <tableColumn id="15" xr3:uid="{20A7CCCC-F329-4095-8A17-76133D72B625}" name="Ship.jpg" dataDxfId="153"/>
+    <tableColumn id="16" xr3:uid="{30EE6790-4FBA-477C-B247-A3D968501C47}" name="Popcorn.png" dataDxfId="152"/>
+    <tableColumn id="17" xr3:uid="{8BB5B13B-A566-4793-8968-235ADEE8537F}" name="Forest.jpg" dataDxfId="151"/>
+    <tableColumn id="18" xr3:uid="{C73AA436-58A7-4485-BB4F-C087653E07DF}" name="train.jpg" dataDxfId="150"/>
+    <tableColumn id="19" xr3:uid="{CC363BFC-9C46-4533-B606-F4BF3412646A}" name="Firefighters.jpg" dataDxfId="149"/>
+    <tableColumn id="20" xr3:uid="{B100F0D3-57F7-446B-A757-9943540DD059}" name="cocaine.png" dataDxfId="148"/>
+    <tableColumn id="21" xr3:uid="{803AC400-3032-467B-A431-170556012B07}" name="drug_addict.jpg" dataDxfId="147"/>
+    <tableColumn id="22" xr3:uid="{E6113BAA-EA37-4AD8-A381-FEAC3D09A6F2}" name="Toothbrush.jpg" dataDxfId="146"/>
+    <tableColumn id="23" xr3:uid="{D66D69D1-67FE-45CD-AF29-BF90D1554E97}" name="IceCream.jpg" dataDxfId="145"/>
+    <tableColumn id="24" xr3:uid="{0FE320A9-B21F-4AE8-A11A-E2E6C235A1BA}" name="Cola.jpg" dataDxfId="144"/>
+    <tableColumn id="25" xr3:uid="{9D36D332-6B78-4784-927A-A86407EA365B}" name="Vulture.jpg" dataDxfId="143"/>
+    <tableColumn id="26" xr3:uid="{BE547A34-7594-4029-9128-7DDDF57BEA72}" name="cinema_room.jpg" dataDxfId="142"/>
+    <tableColumn id="27" xr3:uid="{ABB7216E-05C4-4C65-89AE-E14033179EFD}" name="smoking_cigarette.jpg" dataDxfId="141"/>
+    <tableColumn id="28" xr3:uid="{B5C1C435-AC53-4B34-9113-C7E63056B160}" name="Alpaca.jpg" dataDxfId="140"/>
+    <tableColumn id="29" xr3:uid="{29E23140-04BE-45CD-892C-63F1EC4B5985}" name="opium_farm.jpg" dataDxfId="139"/>
+    <tableColumn id="30" xr3:uid="{7C502E34-11BD-44FD-BFC6-A85DF0045C6E}" name="Bike.jpg" dataDxfId="138"/>
+    <tableColumn id="31" xr3:uid="{D7B1CFD4-53D3-4C32-AB30-E22635FBC23D}" name="SoccerGame.jpg" dataDxfId="137"/>
+    <tableColumn id="32" xr3:uid="{150EF456-F3F3-4291-A753-55EF8BB2835F}" name="Windows.png" dataDxfId="136"/>
+    <tableColumn id="33" xr3:uid="{017B01F0-03B2-4246-9C1E-6A738292DCEC}" name="Yogurt.jpg" dataDxfId="135"/>
+    <tableColumn id="34" xr3:uid="{0A7BBCDB-F861-4AC5-8B5B-EF0465977FB1}" name="OpenAirSwimmingPool.jpg" dataDxfId="134"/>
+    <tableColumn id="35" xr3:uid="{BD577E7A-EDE6-441A-93FB-5CCB8BFC7415}" name="airport.jpg" dataDxfId="133"/>
+    <tableColumn id="36" xr3:uid="{AD381508-8E0F-47A5-AF25-86BD381A051D}" name="eating_women.jpg" dataDxfId="132"/>
+    <tableColumn id="37" xr3:uid="{B804F56A-7D5D-4115-9FA6-7812FEA225D2}" name="Bird.jpg" dataDxfId="131"/>
+    <tableColumn id="38" xr3:uid="{850350DB-2495-4A31-8487-A4C6A2245A51}" name="PaintBucket.jpg" dataDxfId="130"/>
+    <tableColumn id="39" xr3:uid="{1DFA7F0E-ACDE-4F17-828F-AB2778AFACE3}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="129"/>
+    <tableColumn id="40" xr3:uid="{5753959F-85D7-4F22-B664-4D9F3976D056}" name="car.jpg" dataDxfId="128"/>
+    <tableColumn id="41" xr3:uid="{74265639-90B2-46CA-9FDF-887566E83EE1}" name="SoupBowl.jpg" dataDxfId="127"/>
+    <tableColumn id="42" xr3:uid="{8D973280-FF3B-416E-9345-955008E50D14}" name="boat.jpg" dataDxfId="126"/>
+    <tableColumn id="43" xr3:uid="{6CCA3E6C-5AB9-4635-9F0B-09580CACA26F}" name="Hedgehog.jpg" dataDxfId="125"/>
+    <tableColumn id="44" xr3:uid="{09E165B7-A251-4A23-9F52-04483A02AD81}" name="Butter.jpg" dataDxfId="124"/>
+    <tableColumn id="45" xr3:uid="{C9E794F5-FAF9-4AC6-9062-002A96AFD8AC}" name="lsd.png" dataDxfId="123"/>
+    <tableColumn id="46" xr3:uid="{52420FC9-B1E5-426F-A79D-2D5DE5E44718}" name="Pond.jpg" dataDxfId="122"/>
+    <tableColumn id="47" xr3:uid="{CA51E0A4-08BC-47E1-9953-DC1FADDB773F}" name="Hike.jpg" dataDxfId="121"/>
+    <tableColumn id="48" xr3:uid="{C8FB7793-727D-4BEA-947C-94A2F61D3999}" name="PetrolStation.jpg" dataDxfId="120"/>
+    <tableColumn id="49" xr3:uid="{EE47B2C4-EDF3-4C03-90AD-B616C9462414}" name="Grenade.JPG" dataDxfId="119"/>
+    <tableColumn id="50" xr3:uid="{783B3869-1365-4B0D-B383-4FD424BDC39F}" name="Glock17Gen4.jpg" dataDxfId="118"/>
+    <tableColumn id="51" xr3:uid="{3D7EE6A7-BA1D-4753-9F0A-10BA2A33D054}" name="Phone.jpg" dataDxfId="117"/>
+    <tableColumn id="52" xr3:uid="{BB897CFF-8318-44FC-A032-376E00D0A277}" name="bike_tour.jpg" dataDxfId="116"/>
+    <tableColumn id="53" xr3:uid="{2136CAF5-9EBC-4168-A160-DFB86B2EC2AF}" name="Bread.jpg" dataDxfId="115"/>
+    <tableColumn id="54" xr3:uid="{7E6A7203-3308-496F-8A4E-9BE38AF72EB3}" name="Hotel.jpg" dataDxfId="114"/>
+    <tableColumn id="55" xr3:uid="{E950B841-CD89-4FCF-A1CB-95BDCEE451A3}" name="WashingMachine.JPG" dataDxfId="113"/>
+    <tableColumn id="56" xr3:uid="{DA998318-D61F-4BA1-8E90-CB601CF4BEC1}" name="runway.jpg" dataDxfId="112"/>
+    <tableColumn id="57" xr3:uid="{FA95C60E-1ACF-492B-B9FA-F0D8AC843EB5}" name="Bookshelf.jpg" dataDxfId="111"/>
+    <tableColumn id="58" xr3:uid="{C5907882-892B-4A7D-92E3-62DC5F6996CB}" name="Cheese.jpg" dataDxfId="110"/>
+    <tableColumn id="59" xr3:uid="{66D74073-2647-4BB7-9BD1-F66EE053C80C}" name="drugs.jpg" dataDxfId="109"/>
+    <tableColumn id="60" xr3:uid="{EE20B59D-B3DB-42D6-B5E6-F67F1950AED0}" name="Flag_of_jihad.png" dataDxfId="108"/>
+    <tableColumn id="61" xr3:uid="{3244E6BE-F2D5-462B-8BAF-7A10C529BB31}" name="Al_Qaida.jpg" dataDxfId="107"/>
+    <tableColumn id="62" xr3:uid="{33E0915F-0105-4070-8C52-6D0D754B0BCE}" name="Apple.jpg" dataDxfId="106"/>
+    <tableColumn id="63" xr3:uid="{915A2D46-4600-4E65-979C-548E411DBCBD}" name="soccer_field.jpg" dataDxfId="105"/>
+    <tableColumn id="64" xr3:uid="{4A527ED3-C772-4C7B-B61A-5FAB417AA66F}" name="SofaBed.jpg" dataDxfId="104"/>
+    <tableColumn id="65" xr3:uid="{398A092C-AEEA-4B34-8968-84D9BF67AC41}" name="Giraffe.jpg" dataDxfId="103"/>
+    <tableColumn id="66" xr3:uid="{79599B3B-A28D-4FD0-801F-B4F9900B4F68}" name="party_crowd.jpg" dataDxfId="102"/>
+    <tableColumn id="67" xr3:uid="{C1501152-ABA1-4655-B204-D4764A41F57C}" name="Cola.jpg2" dataDxfId="101"/>
+    <tableColumn id="68" xr3:uid="{D63CC391-5335-4839-B427-C1A96C64721B}" name="Beer.jpg" dataDxfId="100"/>
+    <tableColumn id="69" xr3:uid="{3AEFAF64-088E-4EAC-91C0-64F5DD195F08}" name="children.jpg" dataDxfId="99"/>
+    <tableColumn id="70" xr3:uid="{206B822E-933A-4762-868A-9908B59DF6DA}" name="cocaine.jpg" dataDxfId="98"/>
+    <tableColumn id="71" xr3:uid="{4BF6F1AE-8C2F-41A7-AA84-93DE8A68B6C8}" name="refugeecamp.jpg" dataDxfId="97"/>
+    <tableColumn id="72" xr3:uid="{8E3AAE22-5D66-40CB-B6C0-FC0A1E95F2F6}" name="Car.jpg3" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4320,78 +5690,78 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{47AABC47-C83A-4B7D-A329-F9E7761E60B5}" name="inception_resnet" displayName="inception_resnet" ref="A4:BT9" totalsRowShown="0">
   <autoFilter ref="A4:BT9" xr:uid="{DB567A1A-064E-408A-A0AF-EAE8F48EAC51}"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{8AB5EFFF-7D20-4284-B3E3-801C874DB913}" name="InceptionResNet" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{15B47171-E56A-4061-941A-84C7901D5186}" name="Laptop.jpg" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{77C9874E-8FE3-4B0A-8E11-7D1CDEDCE9CD}" name="SteamLocomotive.jpg" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{CF50A6BF-10DD-434A-95A0-BC1512BA866B}" name="xtc.jpg" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{7BF39B84-76B6-4499-8225-40C34111DD2A}" name="heroin.jpg" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{FBC03CA2-5635-4E4E-8F05-98FA143A53F9}" name="Avocados.jpg" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{75424268-F62F-4261-92F6-50BC257B372A}" name="pig.jpg" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{AE07D7F0-D022-4076-9705-44C38F410BA7}" name="Methamphetamine.png" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{26AF0C8E-760D-43F3-92C1-D974FFD69A75}" name="bomb.jpg" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{1A97529C-85AD-4302-AB34-009338633BCE}" name="cannabis.jpg" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{D6A02E83-F4CC-4D4F-9D22-D709938B33E2}" name="knife.png" dataDxfId="61"/>
-    <tableColumn id="12" xr3:uid="{E0CA933C-D5DC-4D2D-A0A3-6FBB9DC1F52E}" name="Tractor.jpg" dataDxfId="60"/>
-    <tableColumn id="13" xr3:uid="{D3C11FAF-DD82-4943-9B4F-C37C7932107D}" name="Cellphone.jpg" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{8DA5EA99-DB80-4105-A3B7-2D133134C5FC}" name="Bananas.jpg" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{0F746BFF-AC7B-4DD4-B820-BAF11626D77B}" name="Ship.jpg" dataDxfId="57"/>
-    <tableColumn id="16" xr3:uid="{C0E278D5-948C-4E20-8217-D0691B9D2A52}" name="Popcorn.png" dataDxfId="56"/>
-    <tableColumn id="17" xr3:uid="{2E29FA1D-1A10-4560-907F-9E78510F1F9D}" name="Forest.jpg" dataDxfId="55"/>
-    <tableColumn id="18" xr3:uid="{8542FA94-D357-4971-A687-654CE4F28245}" name="train.jpg" dataDxfId="54"/>
-    <tableColumn id="19" xr3:uid="{9922D34E-80BC-402E-97C3-EE19A88658EB}" name="Firefighters.jpg" dataDxfId="53"/>
-    <tableColumn id="20" xr3:uid="{EB58108E-D98A-44EB-BF27-4FAA88569952}" name="cocaine.png" dataDxfId="52"/>
-    <tableColumn id="21" xr3:uid="{7C32D59B-A95F-49E2-AC1E-D1ED65BA428E}" name="drug_addict.jpg" dataDxfId="51"/>
-    <tableColumn id="22" xr3:uid="{E0561BF9-BC2C-4D3B-8687-2CA0E5AD3340}" name="Toothbrush.jpg" dataDxfId="50"/>
-    <tableColumn id="23" xr3:uid="{83C2019A-F1D2-4797-9D63-F1B5857FDDF8}" name="IceCream.jpg" dataDxfId="49"/>
-    <tableColumn id="24" xr3:uid="{8755D9EA-42A8-4A53-B3CB-6E5D6AB3C87D}" name="Cola.jpg" dataDxfId="48"/>
-    <tableColumn id="25" xr3:uid="{45A509EA-C5B2-4E15-93F4-ED1D576ED277}" name="Vulture.jpg" dataDxfId="47"/>
-    <tableColumn id="26" xr3:uid="{30AEC445-8889-41E0-81AA-D90682358177}" name="cinema_room.jpg" dataDxfId="46"/>
-    <tableColumn id="27" xr3:uid="{0E04AEA0-B185-49D9-89CF-DD387CD4F3DF}" name="smoking_cigarette.jpg" dataDxfId="45"/>
-    <tableColumn id="28" xr3:uid="{8C68F773-7101-432B-846D-46520797F1F7}" name="Alpaca.jpg" dataDxfId="44"/>
-    <tableColumn id="29" xr3:uid="{4C28E28E-4075-44B9-8182-7B9C89BEFB59}" name="opium_farm.jpg" dataDxfId="43"/>
-    <tableColumn id="30" xr3:uid="{73A3C894-DDDA-42E8-A03B-E674F2683CB9}" name="Bike.jpg" dataDxfId="42"/>
-    <tableColumn id="31" xr3:uid="{69E8989E-39F2-4AF7-AAD6-AD4544531979}" name="SoccerGame.jpg" dataDxfId="41"/>
-    <tableColumn id="32" xr3:uid="{E7EB919A-4E10-4F02-BDF7-C24C9580BF72}" name="Windows.png" dataDxfId="40"/>
-    <tableColumn id="33" xr3:uid="{3E1FF894-7EAE-4149-812B-4BF88540F005}" name="Yogurt.jpg" dataDxfId="39"/>
-    <tableColumn id="34" xr3:uid="{801CC291-E854-4E21-BF56-84B784DC9702}" name="OpenAirSwimmingPool.jpg" dataDxfId="38"/>
-    <tableColumn id="35" xr3:uid="{5E19C155-B9ED-4CEF-9818-3DBD3E908E68}" name="airport.jpg" dataDxfId="37"/>
-    <tableColumn id="36" xr3:uid="{F4454C3C-2D94-4A78-B562-D160CA7AEACC}" name="eating_women.jpg" dataDxfId="36"/>
-    <tableColumn id="37" xr3:uid="{7D3AC033-4C8F-4FC1-8E29-35E6EC3E7D45}" name="Bird.jpg" dataDxfId="35"/>
-    <tableColumn id="38" xr3:uid="{3AA1E00D-3BF8-45E4-A272-4D54D921F670}" name="PaintBucket.jpg" dataDxfId="34"/>
-    <tableColumn id="39" xr3:uid="{58FAC04C-C75E-4BAF-9284-D236AEB0941E}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="33"/>
-    <tableColumn id="40" xr3:uid="{5A25B7E1-27BB-48F0-AAD8-9DD7DC51863D}" name="car.jpg" dataDxfId="32"/>
-    <tableColumn id="41" xr3:uid="{7909A4F6-D96C-40EF-8FBC-D322D6696F06}" name="SoupBowl.jpg" dataDxfId="31"/>
-    <tableColumn id="42" xr3:uid="{4CE3B9B8-69E2-4FE4-8BEB-8C3D841B724F}" name="boat.jpg" dataDxfId="30"/>
-    <tableColumn id="43" xr3:uid="{97FD7F09-0CA8-44C0-B6BD-74E0636F1C72}" name="Hedgehog.jpg" dataDxfId="29"/>
-    <tableColumn id="44" xr3:uid="{EC3ABD7B-A908-44EC-83B2-F0043DD20619}" name="Butter.jpg" dataDxfId="28"/>
-    <tableColumn id="45" xr3:uid="{C29FC5CA-42E0-4685-AF25-D3FE534DE6FE}" name="lsd.png" dataDxfId="27"/>
-    <tableColumn id="46" xr3:uid="{0C75DBB1-7159-42CB-8CCE-A16267F76E57}" name="Pond.jpg" dataDxfId="26"/>
-    <tableColumn id="47" xr3:uid="{10CBBA18-CB85-41BB-B548-9ED2863096C6}" name="Hike.jpg" dataDxfId="25"/>
-    <tableColumn id="48" xr3:uid="{97F55594-7F3B-4958-B7A9-A764B14350E9}" name="PetrolStation.jpg" dataDxfId="24"/>
-    <tableColumn id="49" xr3:uid="{6EB19CD4-4BC8-4CEE-ADA1-E5A69881402A}" name="Grenade.JPG" dataDxfId="23"/>
-    <tableColumn id="50" xr3:uid="{5BDBEE90-947E-4680-84CD-DDDFB0605868}" name="Glock17Gen4.jpg" dataDxfId="22"/>
-    <tableColumn id="51" xr3:uid="{1F21E1C9-B09A-4530-9691-D7E26EA5DC6E}" name="Phone.jpg" dataDxfId="21"/>
-    <tableColumn id="52" xr3:uid="{3F66B657-FE2E-4459-AF78-F4BABBAEE2D2}" name="bike_tour.jpg" dataDxfId="20"/>
-    <tableColumn id="53" xr3:uid="{725D448A-5B24-4357-B925-CE4AB1FD9DA7}" name="Bread.jpg" dataDxfId="19"/>
-    <tableColumn id="54" xr3:uid="{2B0BD0C3-9551-4D74-A22B-8BB580BC7192}" name="Hotel.jpg" dataDxfId="18"/>
-    <tableColumn id="55" xr3:uid="{6A4DCAF6-9C4A-437E-84C3-0EA2EC5EF557}" name="WashingMachine.JPG" dataDxfId="17"/>
-    <tableColumn id="56" xr3:uid="{47FE60C2-F96C-4648-8400-9CE43D1992E0}" name="runway.jpg" dataDxfId="16"/>
-    <tableColumn id="57" xr3:uid="{BC6C0585-2D65-42EB-A65F-62DDF122F7A1}" name="Bookshelf.jpg" dataDxfId="15"/>
-    <tableColumn id="58" xr3:uid="{D4A7E7EB-E98F-4F09-BCE9-61AFF9AD8E71}" name="Cheese.jpg" dataDxfId="14"/>
-    <tableColumn id="59" xr3:uid="{07132F41-45BF-4078-B7E6-DD5BBD336BD5}" name="drugs.jpg" dataDxfId="13"/>
-    <tableColumn id="60" xr3:uid="{123F5743-9F93-4512-A6F4-D224B77BFC81}" name="Flag_of_jihad.png" dataDxfId="12"/>
-    <tableColumn id="61" xr3:uid="{D92A3661-7DF5-4EE1-8AC4-9DB5D9DED1D0}" name="Al_Qaida.jpg" dataDxfId="11"/>
-    <tableColumn id="62" xr3:uid="{048E22AD-E9A4-4A53-8B2B-FEBEB5679A59}" name="Apple.jpg" dataDxfId="10"/>
-    <tableColumn id="63" xr3:uid="{287E2E6C-D5CF-4E3D-BA4D-E6734224BA6A}" name="soccer_field.jpg" dataDxfId="9"/>
-    <tableColumn id="64" xr3:uid="{2B7EEA1D-AEAD-4C30-94A1-9E95202022FD}" name="SofaBed.jpg" dataDxfId="8"/>
-    <tableColumn id="65" xr3:uid="{554804AB-7805-4D23-AFEE-796E86A01F1F}" name="Giraffe.jpg" dataDxfId="7"/>
-    <tableColumn id="66" xr3:uid="{6AFD353B-A097-498C-88A1-14005AC26D68}" name="party_crowd.jpg" dataDxfId="6"/>
-    <tableColumn id="67" xr3:uid="{8C84DD44-56CE-4F3F-9029-3B348559439D}" name="Cola.jpg2" dataDxfId="5"/>
-    <tableColumn id="68" xr3:uid="{CC368C9D-05E8-4970-A577-719D445C70CA}" name="Beer.jpg" dataDxfId="4"/>
-    <tableColumn id="69" xr3:uid="{7FFBA421-F222-4D85-9021-FF7F30315B43}" name="children.jpg" dataDxfId="3"/>
-    <tableColumn id="70" xr3:uid="{C2E0D276-0FFF-42BC-94FA-10168DE76941}" name="cocaine.jpg" dataDxfId="2"/>
-    <tableColumn id="71" xr3:uid="{FA442AE2-5EC2-484A-AD4D-52C386D4482B}" name="refugeecamp.jpg" dataDxfId="1"/>
-    <tableColumn id="72" xr3:uid="{33439E01-9435-4771-8CA1-68B34C301029}" name="Car.jpg3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8AB5EFFF-7D20-4284-B3E3-801C874DB913}" name="InceptionResNet" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{15B47171-E56A-4061-941A-84C7901D5186}" name="Laptop.jpg" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{77C9874E-8FE3-4B0A-8E11-7D1CDEDCE9CD}" name="SteamLocomotive.jpg" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{CF50A6BF-10DD-434A-95A0-BC1512BA866B}" name="xtc.jpg" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{7BF39B84-76B6-4499-8225-40C34111DD2A}" name="heroin.jpg" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{FBC03CA2-5635-4E4E-8F05-98FA143A53F9}" name="Avocados.jpg" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{75424268-F62F-4261-92F6-50BC257B372A}" name="pig.jpg" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{AE07D7F0-D022-4076-9705-44C38F410BA7}" name="Methamphetamine.png" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{26AF0C8E-760D-43F3-92C1-D974FFD69A75}" name="bomb.jpg" dataDxfId="87"/>
+    <tableColumn id="10" xr3:uid="{1A97529C-85AD-4302-AB34-009338633BCE}" name="cannabis.jpg" dataDxfId="86"/>
+    <tableColumn id="11" xr3:uid="{D6A02E83-F4CC-4D4F-9D22-D709938B33E2}" name="knife.png" dataDxfId="85"/>
+    <tableColumn id="12" xr3:uid="{E0CA933C-D5DC-4D2D-A0A3-6FBB9DC1F52E}" name="Tractor.jpg" dataDxfId="84"/>
+    <tableColumn id="13" xr3:uid="{D3C11FAF-DD82-4943-9B4F-C37C7932107D}" name="Cellphone.jpg" dataDxfId="83"/>
+    <tableColumn id="14" xr3:uid="{8DA5EA99-DB80-4105-A3B7-2D133134C5FC}" name="Bananas.jpg" dataDxfId="82"/>
+    <tableColumn id="15" xr3:uid="{0F746BFF-AC7B-4DD4-B820-BAF11626D77B}" name="Ship.jpg" dataDxfId="81"/>
+    <tableColumn id="16" xr3:uid="{C0E278D5-948C-4E20-8217-D0691B9D2A52}" name="Popcorn.png" dataDxfId="80"/>
+    <tableColumn id="17" xr3:uid="{2E29FA1D-1A10-4560-907F-9E78510F1F9D}" name="Forest.jpg" dataDxfId="79"/>
+    <tableColumn id="18" xr3:uid="{8542FA94-D357-4971-A687-654CE4F28245}" name="train.jpg" dataDxfId="78"/>
+    <tableColumn id="19" xr3:uid="{9922D34E-80BC-402E-97C3-EE19A88658EB}" name="Firefighters.jpg" dataDxfId="77"/>
+    <tableColumn id="20" xr3:uid="{EB58108E-D98A-44EB-BF27-4FAA88569952}" name="cocaine.png" dataDxfId="76"/>
+    <tableColumn id="21" xr3:uid="{7C32D59B-A95F-49E2-AC1E-D1ED65BA428E}" name="drug_addict.jpg" dataDxfId="75"/>
+    <tableColumn id="22" xr3:uid="{E0561BF9-BC2C-4D3B-8687-2CA0E5AD3340}" name="Toothbrush.jpg" dataDxfId="74"/>
+    <tableColumn id="23" xr3:uid="{83C2019A-F1D2-4797-9D63-F1B5857FDDF8}" name="IceCream.jpg" dataDxfId="73"/>
+    <tableColumn id="24" xr3:uid="{8755D9EA-42A8-4A53-B3CB-6E5D6AB3C87D}" name="Cola.jpg" dataDxfId="72"/>
+    <tableColumn id="25" xr3:uid="{45A509EA-C5B2-4E15-93F4-ED1D576ED277}" name="Vulture.jpg" dataDxfId="71"/>
+    <tableColumn id="26" xr3:uid="{30AEC445-8889-41E0-81AA-D90682358177}" name="cinema_room.jpg" dataDxfId="70"/>
+    <tableColumn id="27" xr3:uid="{0E04AEA0-B185-49D9-89CF-DD387CD4F3DF}" name="smoking_cigarette.jpg" dataDxfId="69"/>
+    <tableColumn id="28" xr3:uid="{8C68F773-7101-432B-846D-46520797F1F7}" name="Alpaca.jpg" dataDxfId="68"/>
+    <tableColumn id="29" xr3:uid="{4C28E28E-4075-44B9-8182-7B9C89BEFB59}" name="opium_farm.jpg" dataDxfId="67"/>
+    <tableColumn id="30" xr3:uid="{73A3C894-DDDA-42E8-A03B-E674F2683CB9}" name="Bike.jpg" dataDxfId="66"/>
+    <tableColumn id="31" xr3:uid="{69E8989E-39F2-4AF7-AAD6-AD4544531979}" name="SoccerGame.jpg" dataDxfId="65"/>
+    <tableColumn id="32" xr3:uid="{E7EB919A-4E10-4F02-BDF7-C24C9580BF72}" name="Windows.png" dataDxfId="64"/>
+    <tableColumn id="33" xr3:uid="{3E1FF894-7EAE-4149-812B-4BF88540F005}" name="Yogurt.jpg" dataDxfId="63"/>
+    <tableColumn id="34" xr3:uid="{801CC291-E854-4E21-BF56-84B784DC9702}" name="OpenAirSwimmingPool.jpg" dataDxfId="62"/>
+    <tableColumn id="35" xr3:uid="{5E19C155-B9ED-4CEF-9818-3DBD3E908E68}" name="airport.jpg" dataDxfId="61"/>
+    <tableColumn id="36" xr3:uid="{F4454C3C-2D94-4A78-B562-D160CA7AEACC}" name="eating_women.jpg" dataDxfId="60"/>
+    <tableColumn id="37" xr3:uid="{7D3AC033-4C8F-4FC1-8E29-35E6EC3E7D45}" name="Bird.jpg" dataDxfId="59"/>
+    <tableColumn id="38" xr3:uid="{3AA1E00D-3BF8-45E4-A272-4D54D921F670}" name="PaintBucket.jpg" dataDxfId="58"/>
+    <tableColumn id="39" xr3:uid="{58FAC04C-C75E-4BAF-9284-D236AEB0941E}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="57"/>
+    <tableColumn id="40" xr3:uid="{5A25B7E1-27BB-48F0-AAD8-9DD7DC51863D}" name="car.jpg" dataDxfId="56"/>
+    <tableColumn id="41" xr3:uid="{7909A4F6-D96C-40EF-8FBC-D322D6696F06}" name="SoupBowl.jpg" dataDxfId="55"/>
+    <tableColumn id="42" xr3:uid="{4CE3B9B8-69E2-4FE4-8BEB-8C3D841B724F}" name="boat.jpg" dataDxfId="54"/>
+    <tableColumn id="43" xr3:uid="{97FD7F09-0CA8-44C0-B6BD-74E0636F1C72}" name="Hedgehog.jpg" dataDxfId="53"/>
+    <tableColumn id="44" xr3:uid="{EC3ABD7B-A908-44EC-83B2-F0043DD20619}" name="Butter.jpg" dataDxfId="52"/>
+    <tableColumn id="45" xr3:uid="{C29FC5CA-42E0-4685-AF25-D3FE534DE6FE}" name="lsd.png" dataDxfId="51"/>
+    <tableColumn id="46" xr3:uid="{0C75DBB1-7159-42CB-8CCE-A16267F76E57}" name="Pond.jpg" dataDxfId="50"/>
+    <tableColumn id="47" xr3:uid="{10CBBA18-CB85-41BB-B548-9ED2863096C6}" name="Hike.jpg" dataDxfId="49"/>
+    <tableColumn id="48" xr3:uid="{97F55594-7F3B-4958-B7A9-A764B14350E9}" name="PetrolStation.jpg" dataDxfId="48"/>
+    <tableColumn id="49" xr3:uid="{6EB19CD4-4BC8-4CEE-ADA1-E5A69881402A}" name="Grenade.JPG" dataDxfId="47"/>
+    <tableColumn id="50" xr3:uid="{5BDBEE90-947E-4680-84CD-DDDFB0605868}" name="Glock17Gen4.jpg" dataDxfId="46"/>
+    <tableColumn id="51" xr3:uid="{1F21E1C9-B09A-4530-9691-D7E26EA5DC6E}" name="Phone.jpg" dataDxfId="45"/>
+    <tableColumn id="52" xr3:uid="{3F66B657-FE2E-4459-AF78-F4BABBAEE2D2}" name="bike_tour.jpg" dataDxfId="44"/>
+    <tableColumn id="53" xr3:uid="{725D448A-5B24-4357-B925-CE4AB1FD9DA7}" name="Bread.jpg" dataDxfId="43"/>
+    <tableColumn id="54" xr3:uid="{2B0BD0C3-9551-4D74-A22B-8BB580BC7192}" name="Hotel.jpg" dataDxfId="42"/>
+    <tableColumn id="55" xr3:uid="{6A4DCAF6-9C4A-437E-84C3-0EA2EC5EF557}" name="WashingMachine.JPG" dataDxfId="41"/>
+    <tableColumn id="56" xr3:uid="{47FE60C2-F96C-4648-8400-9CE43D1992E0}" name="runway.jpg" dataDxfId="40"/>
+    <tableColumn id="57" xr3:uid="{BC6C0585-2D65-42EB-A65F-62DDF122F7A1}" name="Bookshelf.jpg" dataDxfId="39"/>
+    <tableColumn id="58" xr3:uid="{D4A7E7EB-E98F-4F09-BCE9-61AFF9AD8E71}" name="Cheese.jpg" dataDxfId="38"/>
+    <tableColumn id="59" xr3:uid="{07132F41-45BF-4078-B7E6-DD5BBD336BD5}" name="drugs.jpg" dataDxfId="37"/>
+    <tableColumn id="60" xr3:uid="{123F5743-9F93-4512-A6F4-D224B77BFC81}" name="Flag_of_jihad.png" dataDxfId="36"/>
+    <tableColumn id="61" xr3:uid="{D92A3661-7DF5-4EE1-8AC4-9DB5D9DED1D0}" name="Al_Qaida.jpg" dataDxfId="35"/>
+    <tableColumn id="62" xr3:uid="{048E22AD-E9A4-4A53-8B2B-FEBEB5679A59}" name="Apple.jpg" dataDxfId="34"/>
+    <tableColumn id="63" xr3:uid="{287E2E6C-D5CF-4E3D-BA4D-E6734224BA6A}" name="soccer_field.jpg" dataDxfId="33"/>
+    <tableColumn id="64" xr3:uid="{2B7EEA1D-AEAD-4C30-94A1-9E95202022FD}" name="SofaBed.jpg" dataDxfId="32"/>
+    <tableColumn id="65" xr3:uid="{554804AB-7805-4D23-AFEE-796E86A01F1F}" name="Giraffe.jpg" dataDxfId="31"/>
+    <tableColumn id="66" xr3:uid="{6AFD353B-A097-498C-88A1-14005AC26D68}" name="party_crowd.jpg" dataDxfId="30"/>
+    <tableColumn id="67" xr3:uid="{8C84DD44-56CE-4F3F-9029-3B348559439D}" name="Cola.jpg2" dataDxfId="29"/>
+    <tableColumn id="68" xr3:uid="{CC368C9D-05E8-4970-A577-719D445C70CA}" name="Beer.jpg" dataDxfId="28"/>
+    <tableColumn id="69" xr3:uid="{7FFBA421-F222-4D85-9021-FF7F30315B43}" name="children.jpg" dataDxfId="27"/>
+    <tableColumn id="70" xr3:uid="{C2E0D276-0FFF-42BC-94FA-10168DE76941}" name="cocaine.jpg" dataDxfId="26"/>
+    <tableColumn id="71" xr3:uid="{FA442AE2-5EC2-484A-AD4D-52C386D4482B}" name="refugeecamp.jpg" dataDxfId="25"/>
+    <tableColumn id="72" xr3:uid="{33439E01-9435-4771-8CA1-68B34C301029}" name="Car.jpg3" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4696,84 +6066,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847074CA-00C2-43AD-9380-7F58422588AF}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -4988,7 +6358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -5203,9 +6573,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("http://comprabienprod.s3-website-us-east-1.amazonaws.com/tienda/plazavea/catalogo/electro-mama/seccion/computo/producto/mini-laptop-advance-sp7148-1297/thumb/1600x1599/mini-laptop-advance-sp7148-1297.jpg")</f>
@@ -5247,7 +6617,7 @@
         <f>HYPERLINK("https://upload.wikimedia.org/wikipedia/commons/thumb/d/da/4Messer_fcm.png/150px-4Messer_fcm.png")</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/d/da/4Messer_fcm.png/150px-4Messer_fcm.png</v>
       </c>
-      <c r="L3" s="3" t="str">
+      <c r="L3" s="2" t="str">
         <f>HYPERLINK("https://www.ingenieur.de/wp-content/uploads/2017/11/2016/17082_E-Traktor-von-John-Deere.jpg")</f>
         <v>https://www.ingenieur.de/wp-content/uploads/2017/11/2016/17082_E-Traktor-von-John-Deere.jpg</v>
       </c>
@@ -5492,7 +6862,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5692,7 +7062,7 @@
         <v>35</v>
       </c>
       <c r="BO4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BP4" t="s">
         <v>67</v>
@@ -5707,10 +7077,10 @@
         <v>29</v>
       </c>
       <c r="BT4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -5928,7 +7298,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -6146,7 +7516,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -6364,7 +7734,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -6582,7 +7952,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -6800,7 +8170,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -6912,8 +8282,62 @@
       <c r="AK11">
         <v>1</v>
       </c>
+      <c r="AL11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -6981,16 +8405,16 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -7002,10 +8426,10 @@
         <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -7023,6 +8447,60 @@
         <v>1</v>
       </c>
       <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -7038,85 +8516,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62AF4AC-A49C-49D6-9E02-FF1EBD20E539}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="12" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -7331,7 +8809,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -7546,9 +9024,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("http://comprabienprod.s3-website-us-east-1.amazonaws.com/tienda/plazavea/catalogo/electro-mama/seccion/computo/producto/mini-laptop-advance-sp7148-1297/thumb/1600x1599/mini-laptop-advance-sp7148-1297.jpg")</f>
@@ -7835,7 +9313,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -8035,7 +9513,7 @@
         <v>35</v>
       </c>
       <c r="BO4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BP4" t="s">
         <v>67</v>
@@ -8050,10 +9528,10 @@
         <v>29</v>
       </c>
       <c r="BT4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -8271,7 +9749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -8489,7 +9967,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -8707,7 +10185,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -8925,7 +10403,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -9143,7 +10621,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -9201,8 +10679,116 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="13">
+        <v>1</v>
+      </c>
+      <c r="X11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -9258,6 +10844,114 @@
         <v>1</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1</v>
+      </c>
+      <c r="X12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="5">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="5">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="5">
         <v>1</v>
       </c>
     </row>
@@ -9273,85 +10967,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDDC2B-214B-499B-89CE-9FC6115C0E00}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -9566,7 +11260,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -9781,9 +11475,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("http://comprabienprod.s3-website-us-east-1.amazonaws.com/tienda/plazavea/catalogo/electro-mama/seccion/computo/producto/mini-laptop-advance-sp7148-1297/thumb/1600x1599/mini-laptop-advance-sp7148-1297.jpg")</f>
@@ -9809,7 +11503,7 @@
         <f>HYPERLINK("https://upload.wikimedia.org/wikipedia/commons/9/9b/Wild_Pig_KSC02pd0873.jpg")</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/9/9b/Wild_Pig_KSC02pd0873.jpg</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="2" t="str">
         <f>HYPERLINK("https://upload.wikimedia.org/wikipedia/commons/thumb/4/4d/Racemic_methamphetamine.svg/1920px-Racemic_methamphetamine.svg.png")</f>
         <v>https://upload.wikimedia.org/wikipedia/commons/thumb/4/4d/Racemic_methamphetamine.svg/1920px-Racemic_methamphetamine.svg.png</v>
       </c>
@@ -10070,7 +11764,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -10270,7 +11964,7 @@
         <v>35</v>
       </c>
       <c r="BO4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BP4" t="s">
         <v>67</v>
@@ -10285,10 +11979,10 @@
         <v>29</v>
       </c>
       <c r="BT4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -10506,7 +12200,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -10724,7 +12418,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -10942,7 +12636,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -11160,7 +12854,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -11378,7 +13072,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -11436,8 +13130,116 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11" s="15">
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <v>1</v>
+      </c>
+      <c r="X11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -11493,6 +13295,114 @@
         <v>1</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="14">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>1</v>
+      </c>
+      <c r="X12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="6">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="6">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -11508,85 +13418,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0531973-FBE4-459A-9E59-2DD83F48C3DF}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="19" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -11801,7 +13711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -12016,9 +13926,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("http://comprabienprod.s3-website-us-east-1.amazonaws.com/tienda/plazavea/catalogo/electro-mama/seccion/computo/producto/mini-laptop-advance-sp7148-1297/thumb/1600x1599/mini-laptop-advance-sp7148-1297.jpg")</f>
@@ -12305,7 +14215,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>474</v>
       </c>
@@ -12505,7 +14415,7 @@
         <v>35</v>
       </c>
       <c r="BO4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BP4" t="s">
         <v>67</v>
@@ -12520,10 +14430,10 @@
         <v>29</v>
       </c>
       <c r="BT4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -12741,7 +14651,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -12959,7 +14869,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -13177,7 +15087,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -13395,7 +15305,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -13613,7 +15523,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -13671,8 +15581,116 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11" s="17">
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
+        <v>0</v>
+      </c>
+      <c r="W11" s="17">
+        <v>1</v>
+      </c>
+      <c r="X11" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -13728,6 +15746,114 @@
         <v>1</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <v>1</v>
+      </c>
+      <c r="X12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -13743,84 +15869,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FB2B3-CB1C-476B-B8D0-EDD6312D152E}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -14035,7 +16161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -14250,9 +16376,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("http://comprabienprod.s3-website-us-east-1.amazonaws.com/tienda/plazavea/catalogo/electro-mama/seccion/computo/producto/mini-laptop-advance-sp7148-1297/thumb/1600x1599/mini-laptop-advance-sp7148-1297.jpg")</f>
@@ -14539,7 +16665,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>509</v>
       </c>
@@ -14739,7 +16865,7 @@
         <v>35</v>
       </c>
       <c r="BO4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BP4" t="s">
         <v>67</v>
@@ -14754,10 +16880,10 @@
         <v>29</v>
       </c>
       <c r="BT4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -14975,7 +17101,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -15193,7 +17319,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -15411,7 +17537,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -15629,7 +17755,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -15847,7 +17973,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -15905,8 +18031,116 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <v>0</v>
+      </c>
+      <c r="V11" s="19">
+        <v>0</v>
+      </c>
+      <c r="W11" s="19">
+        <v>1</v>
+      </c>
+      <c r="X11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -15962,6 +18196,114 @@
         <v>1</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="18">
+        <v>0</v>
+      </c>
+      <c r="U12" s="18">
+        <v>1</v>
+      </c>
+      <c r="V12" s="18">
+        <v>0</v>
+      </c>
+      <c r="W12" s="18">
+        <v>1</v>
+      </c>
+      <c r="X12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="8">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="8">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="8">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="8">
         <v>1</v>
       </c>
     </row>
@@ -15977,85 +18319,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5873861-7BB8-4C0D-B4F0-EE71BDB5D866}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="15" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -16270,7 +18612,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -16485,9 +18827,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("http://comprabienprod.s3-website-us-east-1.amazonaws.com/tienda/plazavea/catalogo/electro-mama/seccion/computo/producto/mini-laptop-advance-sp7148-1297/thumb/1600x1599/mini-laptop-advance-sp7148-1297.jpg")</f>
@@ -16774,7 +19116,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>533</v>
       </c>
@@ -16974,7 +19316,7 @@
         <v>35</v>
       </c>
       <c r="BO4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BP4" t="s">
         <v>67</v>
@@ -16989,10 +19331,10 @@
         <v>29</v>
       </c>
       <c r="BT4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -17210,7 +19552,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -17428,7 +19770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -17646,7 +19988,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -17864,7 +20206,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -18082,7 +20424,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -18140,8 +20482,116 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11" s="20">
+        <v>0</v>
+      </c>
+      <c r="U11" s="21">
+        <v>0</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0</v>
+      </c>
+      <c r="W11" s="21">
+        <v>1</v>
+      </c>
+      <c r="X11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -18197,6 +20647,114 @@
         <v>1</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="20">
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
+        <v>0</v>
+      </c>
+      <c r="V12" s="20">
+        <v>0</v>
+      </c>
+      <c r="W12" s="20">
+        <v>1</v>
+      </c>
+      <c r="X12" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="9">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18212,85 +20770,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7FCF79-2E49-4AFF-988C-E4BB5C08D42A}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -18505,7 +21063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -18720,9 +21278,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("http://comprabienprod.s3-website-us-east-1.amazonaws.com/tienda/plazavea/catalogo/electro-mama/seccion/computo/producto/mini-laptop-advance-sp7148-1297/thumb/1600x1599/mini-laptop-advance-sp7148-1297.jpg")</f>
@@ -19009,7 +21567,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>573</v>
       </c>
@@ -19209,7 +21767,7 @@
         <v>35</v>
       </c>
       <c r="BO4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BP4" t="s">
         <v>67</v>
@@ -19224,10 +21782,10 @@
         <v>29</v>
       </c>
       <c r="BT4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -19445,7 +22003,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -19663,7 +22221,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -19881,7 +22439,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -20099,7 +22657,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -20317,7 +22875,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -20375,8 +22933,116 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11" s="23">
+        <v>0</v>
+      </c>
+      <c r="U11" s="23">
+        <v>0</v>
+      </c>
+      <c r="V11" s="23">
+        <v>0</v>
+      </c>
+      <c r="W11" s="23">
+        <v>1</v>
+      </c>
+      <c r="X11" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="10">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -20432,6 +23098,114 @@
         <v>1</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+      <c r="V12" s="22">
+        <v>0</v>
+      </c>
+      <c r="W12" s="22">
+        <v>1</v>
+      </c>
+      <c r="X12" s="22">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="10">
         <v>1</v>
       </c>
     </row>
@@ -20447,85 +23221,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41344A75-69A0-494A-87C9-2B407DF4026F}">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="13" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -20740,7 +23514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -20955,9 +23729,9 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72">
       <c r="A3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("http://comprabienprod.s3-website-us-east-1.amazonaws.com/tienda/plazavea/catalogo/electro-mama/seccion/computo/producto/mini-laptop-advance-sp7148-1297/thumb/1600x1599/mini-laptop-advance-sp7148-1297.jpg")</f>
@@ -21244,7 +24018,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72">
       <c r="A4" t="s">
         <v>591</v>
       </c>
@@ -21444,7 +24218,7 @@
         <v>35</v>
       </c>
       <c r="BO4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="BP4" t="s">
         <v>67</v>
@@ -21459,10 +24233,10 @@
         <v>29</v>
       </c>
       <c r="BT4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -21680,7 +24454,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -21898,7 +24672,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -22116,7 +24890,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -22334,7 +25108,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -22552,7 +25326,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -22610,8 +25384,116 @@
       <c r="S11">
         <v>1</v>
       </c>
+      <c r="T11" s="25">
+        <v>0</v>
+      </c>
+      <c r="U11" s="25">
+        <v>0</v>
+      </c>
+      <c r="V11" s="25">
+        <v>0</v>
+      </c>
+      <c r="W11" s="25">
+        <v>1</v>
+      </c>
+      <c r="X11" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -22667,6 +25549,114 @@
         <v>1</v>
       </c>
       <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="24">
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <v>0</v>
+      </c>
+      <c r="V12" s="24">
+        <v>0</v>
+      </c>
+      <c r="W12" s="24">
+        <v>1</v>
+      </c>
+      <c r="X12" s="24">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="24">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="24">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="11">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="11">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="11">
         <v>1</v>
       </c>
     </row>
@@ -22680,31 +25670,34 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A549D88-9782-4382-B82A-DD67F5D5D994}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="9" width="17.6640625" customWidth="1"/>
+    <col min="2" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="27" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>615</v>
-      </c>
       <c r="C3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" t="s">
         <v>617</v>
-      </c>
-      <c r="D3" t="s">
-        <v>618</v>
       </c>
       <c r="E3" t="s">
         <v>474</v>
@@ -22719,91 +25712,203 @@
         <v>573</v>
       </c>
       <c r="I3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>616</v>
-      </c>
-      <c r="B4">
+        <v>615</v>
+      </c>
+      <c r="B4" s="27">
         <f>SUM('VGG 16'!B11:BT11)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <f>SUM('VGG 19'!B11:BT11)</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <f>SUM('MobileNet V2'!B11:BT11)</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <f>SUM('ResNet 50'!B11:BT11)</f>
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <f>SUM('DenseNet 201'!B11:BT11)</f>
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <f>SUM('Inception V3'!B11:BT11)</f>
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <f>SUM(Xception!B11:BT11)</f>
-        <v>11</v>
-      </c>
-      <c r="I4">
+        <v>28</v>
+      </c>
+      <c r="I4" s="4">
         <f>SUM(InceptionResnet!B11:BT11)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B5">
+        <v>619</v>
+      </c>
+      <c r="B5" s="27">
         <f>SUM('VGG 16'!B12:BT12)</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <f>SUM('VGG 19'!B12:BT12)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <f>SUM('MobileNet V2'!B12:BT12)</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <f>SUM('ResNet 50'!B12:BT12)</f>
-        <v>13</v>
-      </c>
-      <c r="F5">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4">
         <f>SUM('DenseNet 201'!B12:BT12)</f>
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <f>SUM('Inception V3'!B12:BT12)</f>
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <f>SUM(Xception!B12:BT12)</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I5">
         <f>SUM(InceptionResnet!B12:BT12)</f>
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>621</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>614</v>
+      </c>
+      <c r="C11" t="s">
+        <v>616</v>
+      </c>
+      <c r="D11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" t="s">
+        <v>509</v>
+      </c>
+      <c r="G11" t="s">
+        <v>533</v>
+      </c>
+      <c r="H11" t="s">
+        <v>573</v>
+      </c>
+      <c r="I11" t="s">
+        <v>618</v>
+      </c>
+      <c r="L11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>615</v>
+      </c>
+      <c r="B12" s="27">
+        <f>B4/L12</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C12" s="28">
+        <f>C4/$L$12</f>
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="28">
+        <f>D4/$L$12</f>
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="28">
+        <f>E4/$L$12</f>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12:I12" si="0">F4/$L$12</f>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L12">
+        <f>COUNTA('VGG 16'!B11:EP11)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>619</v>
+      </c>
+      <c r="B13" s="27">
+        <f>B5/$L$13</f>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="C13" s="28">
+        <f t="shared" ref="C13:I13" si="1">C5/$L$13</f>
+        <v>0.64814814814814814</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="F13" s="29">
+        <f t="shared" si="1"/>
+        <v>0.68518518518518523</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.64814814814814814</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L13" s="24">
+        <f>COUNTA('VGG 16'!B12:EP12)</f>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/model_comparison/model_comparison.xlsx
+++ b/model_comparison/model_comparison.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E4017-4FAF-4F4D-A724-67F85D300F1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{5CEAE545-A299-4C48-92E4-DD670355EE21}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="VGG 16" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="InceptionResnet" sheetId="9" r:id="rId8"/>
     <sheet name="Modellvergleich" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,29 +38,29 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{7B531D55-99C0-48B4-9FA2-7D32B1001239}" keepAlive="1" name="Abfrage - densenet201" description="Verbindung mit der Abfrage 'densenet201' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Abfrage - densenet201" description="Verbindung mit der Abfrage 'densenet201' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=densenet201;Extended Properties=&quot;&quot;" command="SELECT * FROM [densenet201]"/>
   </connection>
-  <connection id="2" xr16:uid="{E4158E39-E652-4E6C-96EC-30E7BD60DA3E}" keepAlive="1" name="Abfrage - inception_resnet" description="Verbindung mit der Abfrage 'inception_resnet' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" keepAlive="1" name="Abfrage - inception_resnet" description="Verbindung mit der Abfrage 'inception_resnet' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=inception_resnet;Extended Properties=&quot;&quot;" command="SELECT * FROM [inception_resnet]"/>
   </connection>
-  <connection id="3" xr16:uid="{2A61AA9B-660E-48C8-B54D-D23F8C0DA5A9}" keepAlive="1" name="Abfrage - inception_v3" description="Verbindung mit der Abfrage 'inception_v3' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" keepAlive="1" name="Abfrage - inception_v3" description="Verbindung mit der Abfrage 'inception_v3' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=inception_v3;Extended Properties=&quot;&quot;" command="SELECT * FROM [inception_v3]"/>
   </connection>
-  <connection id="4" xr16:uid="{813BE828-AF1B-4B8C-A4E0-5E41D256CB31}" keepAlive="1" name="Abfrage - mobile_net_v2" description="Verbindung mit der Abfrage 'mobile_net_v2' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" keepAlive="1" name="Abfrage - mobile_net_v2" description="Verbindung mit der Abfrage 'mobile_net_v2' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=mobile_net_v2;Extended Properties=&quot;&quot;" command="SELECT * FROM [mobile_net_v2]"/>
   </connection>
-  <connection id="5" xr16:uid="{4EA5AACA-0D76-4849-A1AC-FDBD804E29D4}" keepAlive="1" name="Abfrage - resnet50" description="Verbindung mit der Abfrage 'resnet50' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" keepAlive="1" name="Abfrage - resnet50" description="Verbindung mit der Abfrage 'resnet50' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=resnet50;Extended Properties=&quot;&quot;" command="SELECT * FROM [resnet50]"/>
   </connection>
-  <connection id="6" xr16:uid="{C89E5951-5DA0-443C-9000-8FD2EE6D49BB}" keepAlive="1" name="Abfrage - vgg16" description="Verbindung mit der Abfrage 'vgg16' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" keepAlive="1" name="Abfrage - vgg16" description="Verbindung mit der Abfrage 'vgg16' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=vgg16;Extended Properties=&quot;&quot;" command="SELECT * FROM [vgg16]"/>
   </connection>
-  <connection id="7" xr16:uid="{BFA80550-D8F9-4292-88AF-9B61294D32FD}" keepAlive="1" name="Abfrage - vgg19" description="Verbindung mit der Abfrage 'vgg19' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" keepAlive="1" name="Abfrage - vgg19" description="Verbindung mit der Abfrage 'vgg19' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=vgg19;Extended Properties=&quot;&quot;" command="SELECT * FROM [vgg19]"/>
   </connection>
-  <connection id="8" xr16:uid="{292E0D79-1781-48D3-A280-3857B5543298}" keepAlive="1" name="Abfrage - xception" description="Verbindung mit der Abfrage 'xception' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="8" keepAlive="1" name="Abfrage - xception" description="Verbindung mit der Abfrage 'xception' in der Arbeitsmappe." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=xception;Extended Properties=&quot;&quot;" command="SELECT * FROM [xception]"/>
   </connection>
 </connections>
@@ -1954,11 +1953,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2049,7 +2048,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2080,18 +2079,1747 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Gut" xfId="2" builtinId="26"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Schlecht" xfId="3" builtinId="27"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="4" xr:uid="{D42AA4FB-1372-414A-B6BB-5EED9181C071}"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="4"/>
   </cellStyles>
   <dxfs count="600">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2284,1775 +4012,47 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="VGG 16-style" pivot="0" count="3" xr9:uid="{CABD8E9D-79B0-46A3-9808-AD5E9DDF416D}">
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+    <tableStyle name="VGG 16-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="599"/>
+      <tableStyleElement type="firstRowStripe" dxfId="598"/>
+      <tableStyleElement type="secondRowStripe" dxfId="597"/>
     </tableStyle>
-    <tableStyle name="MobileNet V2-style" pivot="0" count="3" xr9:uid="{5E920C9D-4F2E-4DDF-B947-941E9E0EA26F}">
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+    <tableStyle name="MobileNet V2-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="596"/>
+      <tableStyleElement type="firstRowStripe" dxfId="595"/>
+      <tableStyleElement type="secondRowStripe" dxfId="594"/>
     </tableStyle>
-    <tableStyle name="VGG 19-style" pivot="0" count="3" xr9:uid="{45F7D806-FFB6-419C-B29E-C5140E4565B1}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+    <tableStyle name="VGG 19-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="593"/>
+      <tableStyleElement type="firstRowStripe" dxfId="592"/>
+      <tableStyleElement type="secondRowStripe" dxfId="591"/>
     </tableStyle>
-    <tableStyle name="DenseNet 201-style" pivot="0" count="3" xr9:uid="{5D400D90-2AFE-40B5-BD65-08D299500315}">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+    <tableStyle name="DenseNet 201-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="590"/>
+      <tableStyleElement type="firstRowStripe" dxfId="589"/>
+      <tableStyleElement type="secondRowStripe" dxfId="588"/>
     </tableStyle>
-    <tableStyle name="Inception V3-style" pivot="0" count="3" xr9:uid="{C294C66F-C758-4E44-AAF5-15A54804A53F}">
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+    <tableStyle name="Inception V3-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="587"/>
+      <tableStyleElement type="firstRowStripe" dxfId="586"/>
+      <tableStyleElement type="secondRowStripe" dxfId="585"/>
     </tableStyle>
-    <tableStyle name="ResNet 50-style" pivot="0" count="3" xr9:uid="{C8D86033-B183-4353-8B2D-D61528BFCE64}">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+    <tableStyle name="ResNet 50-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="584"/>
+      <tableStyleElement type="firstRowStripe" dxfId="583"/>
+      <tableStyleElement type="secondRowStripe" dxfId="582"/>
     </tableStyle>
-    <tableStyle name="Xception-style" pivot="0" count="3" xr9:uid="{8111AEAB-F926-4748-BDA0-49DE4C41CD22}">
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+    <tableStyle name="Xception-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="581"/>
+      <tableStyleElement type="firstRowStripe" dxfId="580"/>
+      <tableStyleElement type="secondRowStripe" dxfId="579"/>
     </tableStyle>
-    <tableStyle name="InceptionResnet-style" pivot="0" count="3" xr9:uid="{B008A482-5616-4350-9429-96AC21CF56CE}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle name="InceptionResnet-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="578"/>
+      <tableStyleElement type="firstRowStripe" dxfId="577"/>
+      <tableStyleElement type="secondRowStripe" dxfId="576"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4069,7 +4069,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4106,6 +4106,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4131,7 +4132,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4205,28 +4206,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4300,28 +4301,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,7 +4387,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="93997064"/>
@@ -4445,7 +4446,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="316730696"/>
@@ -4462,6 +4463,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4487,12 +4489,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4500,7 +4503,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4524,7 +4526,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5120,648 +5122,648 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1D6AB7A-1DD7-4754-B1EA-C451EBAE0043}" name="_vgg16" displayName="_vgg16" ref="A4:BT9" totalsRowShown="0">
-  <autoFilter ref="A4:BT9" xr:uid="{0EC4601B-6086-4F8C-9C1C-D33CF0FD1228}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="_vgg16" displayName="_vgg16" ref="A4:BT9" totalsRowShown="0">
+  <autoFilter ref="A4:BT9"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{2A7A9E90-4812-487E-9E34-D21F3B53B04F}" name="VGG16" dataDxfId="599"/>
-    <tableColumn id="2" xr3:uid="{2EB04ED6-2A51-4927-8202-257E4A3FF7AF}" name="Laptop.jpg" dataDxfId="598"/>
-    <tableColumn id="3" xr3:uid="{936AB692-4B38-4301-8F2E-EF64D645B703}" name="SteamLocomotive.jpg" dataDxfId="597"/>
-    <tableColumn id="4" xr3:uid="{8A8A5BFB-2468-41BA-B557-992F9869A719}" name="xtc.jpg" dataDxfId="596"/>
-    <tableColumn id="5" xr3:uid="{4E887E50-2F9A-45AD-B051-9370B08C0EF8}" name="heroin.jpg" dataDxfId="595"/>
-    <tableColumn id="6" xr3:uid="{DC22891E-F697-4309-8ECC-76134AF2F1AF}" name="Avocados.jpg" dataDxfId="594"/>
-    <tableColumn id="7" xr3:uid="{1E433C65-798D-42CB-8DAA-544250DBE124}" name="pig.jpg" dataDxfId="593"/>
-    <tableColumn id="8" xr3:uid="{1254CB6A-70AF-459B-9F2E-831EAFC79454}" name="Methamphetamine.png" dataDxfId="592"/>
-    <tableColumn id="9" xr3:uid="{7ABB8F87-67CC-4496-B489-3A62FDA1358E}" name="bomb.jpg" dataDxfId="591"/>
-    <tableColumn id="10" xr3:uid="{9B9B80A2-16F6-4D99-B018-0C50ADD50B30}" name="cannabis.jpg" dataDxfId="590"/>
-    <tableColumn id="11" xr3:uid="{4E69FC13-D197-490E-99C7-671202411AC0}" name="knife.png" dataDxfId="589"/>
-    <tableColumn id="12" xr3:uid="{65C68235-30E9-4828-8763-B499F2F7246D}" name="Tractor.jpg" dataDxfId="588"/>
-    <tableColumn id="13" xr3:uid="{9C51BB24-C027-4472-A02D-CF78D866EDEA}" name="Cellphone.jpg" dataDxfId="587"/>
-    <tableColumn id="14" xr3:uid="{F858DF98-0D7C-417E-8DD6-778DBB9FF562}" name="Bananas.jpg" dataDxfId="586"/>
-    <tableColumn id="15" xr3:uid="{338701EE-0165-44BB-BE4E-132CCB736F45}" name="Ship.jpg" dataDxfId="585"/>
-    <tableColumn id="16" xr3:uid="{213DE00A-E416-481D-90B0-CC6E938200E7}" name="Popcorn.png" dataDxfId="584"/>
-    <tableColumn id="17" xr3:uid="{999039DF-BAE6-46C2-9166-734969CE43A5}" name="Forest.jpg" dataDxfId="583"/>
-    <tableColumn id="18" xr3:uid="{D33B66C6-3988-493C-9086-BD89A565782D}" name="train.jpg" dataDxfId="582"/>
-    <tableColumn id="19" xr3:uid="{46D06E85-56F9-4EE8-B3E5-42EC7E0602E6}" name="Firefighters.jpg" dataDxfId="581"/>
-    <tableColumn id="20" xr3:uid="{2A123B60-707A-4E46-9172-8B31BB20EF88}" name="cocaine.png" dataDxfId="580"/>
-    <tableColumn id="21" xr3:uid="{02D52D70-D839-4245-90AC-13616038B167}" name="drug_addict.jpg" dataDxfId="579"/>
-    <tableColumn id="22" xr3:uid="{3D65B0EC-8D16-43B2-AA98-F004D86FB540}" name="Toothbrush.jpg" dataDxfId="578"/>
-    <tableColumn id="23" xr3:uid="{6E65BA03-E390-45C9-BB14-80FCE300AD66}" name="IceCream.jpg" dataDxfId="577"/>
-    <tableColumn id="24" xr3:uid="{C87C0D41-74F3-4E9E-86CE-6BAC5DF9E343}" name="Cola.jpg" dataDxfId="576"/>
-    <tableColumn id="25" xr3:uid="{FEA646B1-E3E7-49B0-AB30-40C923ABA361}" name="Vulture.jpg" dataDxfId="575"/>
-    <tableColumn id="26" xr3:uid="{244EC120-D266-4B88-AC90-7D6CDF1A32B3}" name="cinema_room.jpg" dataDxfId="574"/>
-    <tableColumn id="27" xr3:uid="{7416E0E5-DA1E-43C6-B0FB-175F9E455A00}" name="smoking_cigarette.jpg" dataDxfId="573"/>
-    <tableColumn id="28" xr3:uid="{746D5826-2D06-4FA3-9A29-39590E253DDC}" name="Alpaca.jpg" dataDxfId="572"/>
-    <tableColumn id="29" xr3:uid="{6BD5A951-7837-4DCA-82DB-7F97A604FCF8}" name="opium_farm.jpg" dataDxfId="571"/>
-    <tableColumn id="30" xr3:uid="{929DA303-A179-46AF-96C0-B1C6CBAD4572}" name="Bike.jpg" dataDxfId="570"/>
-    <tableColumn id="31" xr3:uid="{C451248D-EE1A-4735-BB8A-43BC27449E9F}" name="SoccerGame.jpg" dataDxfId="569"/>
-    <tableColumn id="32" xr3:uid="{FD8A98D4-D702-48BB-97F0-80A750819150}" name="Windows.png" dataDxfId="568"/>
-    <tableColumn id="33" xr3:uid="{9BA63119-EF3A-4E49-B9AE-39EC995ACA1E}" name="Yogurt.jpg" dataDxfId="567"/>
-    <tableColumn id="34" xr3:uid="{34667F14-9E64-4106-B25E-9D091178E7A3}" name="OpenAirSwimmingPool.jpg" dataDxfId="566"/>
-    <tableColumn id="35" xr3:uid="{17899780-3CF4-4F2A-AA61-D86EAD8A9BD3}" name="airport.jpg" dataDxfId="565"/>
-    <tableColumn id="36" xr3:uid="{8FB1E320-60CB-4582-A192-8C3F2DD66D3A}" name="eating_women.jpg" dataDxfId="564"/>
-    <tableColumn id="37" xr3:uid="{A5C93D6B-E8D1-477D-B7CF-EB2A41511EBE}" name="Bird.jpg" dataDxfId="563"/>
-    <tableColumn id="38" xr3:uid="{4738C0CF-F5C3-4AF7-A4DB-498460CA0780}" name="PaintBucket.jpg" dataDxfId="562"/>
-    <tableColumn id="39" xr3:uid="{340A1E02-62BD-4E2A-B79C-F2E9CD3BC9D8}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="561"/>
-    <tableColumn id="40" xr3:uid="{D4B1C753-74CB-46B1-9716-109F2D7AD7C6}" name="car.jpg" dataDxfId="560"/>
-    <tableColumn id="41" xr3:uid="{80F0C284-F0D0-4D09-B8F5-5EF6F9C184E3}" name="SoupBowl.jpg" dataDxfId="559"/>
-    <tableColumn id="42" xr3:uid="{646AF500-F4EE-4E3B-971D-757C2E0E3C82}" name="boat.jpg" dataDxfId="558"/>
-    <tableColumn id="43" xr3:uid="{5F5309DF-325D-4925-8E0A-433A3F137F23}" name="Hedgehog.jpg" dataDxfId="557"/>
-    <tableColumn id="44" xr3:uid="{AB7360C0-D7B7-41F2-8DF9-A1228B96C2A3}" name="Butter.jpg" dataDxfId="556"/>
-    <tableColumn id="45" xr3:uid="{40B01027-2DC1-40C9-9322-EF4ED67EAB1C}" name="lsd.png" dataDxfId="555"/>
-    <tableColumn id="46" xr3:uid="{2D53793A-7E4C-48C7-B531-53692D6079E2}" name="Pond.jpg" dataDxfId="554"/>
-    <tableColumn id="47" xr3:uid="{D3327EB5-5EDD-4407-93D0-CBC9D6B44054}" name="Hike.jpg" dataDxfId="553"/>
-    <tableColumn id="48" xr3:uid="{3DB2048D-E4A1-4CBB-8967-3B6AEC651B54}" name="PetrolStation.jpg" dataDxfId="552"/>
-    <tableColumn id="49" xr3:uid="{E00FD631-DF5E-4C0D-9846-9FD772B8C564}" name="Grenade.JPG" dataDxfId="551"/>
-    <tableColumn id="50" xr3:uid="{B3950CEA-4535-44C8-A1A4-ACB48AEA5AAE}" name="Glock17Gen4.jpg" dataDxfId="550"/>
-    <tableColumn id="51" xr3:uid="{DB95449E-1A1C-4971-BE24-2E4676946431}" name="Phone.jpg" dataDxfId="549"/>
-    <tableColumn id="52" xr3:uid="{3196E56B-71EA-4687-8C20-B7749682EB82}" name="bike_tour.jpg" dataDxfId="548"/>
-    <tableColumn id="53" xr3:uid="{B4CA1313-050D-4C51-B1FB-51EBAEA57E8C}" name="Bread.jpg" dataDxfId="547"/>
-    <tableColumn id="54" xr3:uid="{21E52597-DE6B-47DA-91BD-C2E1867E6B8E}" name="Hotel.jpg" dataDxfId="546"/>
-    <tableColumn id="55" xr3:uid="{416264D7-ED5A-42F8-812A-33C740E1144E}" name="WashingMachine.JPG" dataDxfId="545"/>
-    <tableColumn id="56" xr3:uid="{FF6C2BB6-9C48-445A-A9CC-644E095DB924}" name="runway.jpg" dataDxfId="544"/>
-    <tableColumn id="57" xr3:uid="{4C95A000-F296-42E8-8490-229C258E30D1}" name="Bookshelf.jpg" dataDxfId="543"/>
-    <tableColumn id="58" xr3:uid="{A266FEF5-C504-4E26-B367-B7E0D3660974}" name="Cheese.jpg" dataDxfId="542"/>
-    <tableColumn id="59" xr3:uid="{4C28EFD5-981D-4976-8C67-2862FA1746DF}" name="drugs.jpg" dataDxfId="541"/>
-    <tableColumn id="60" xr3:uid="{1B5E8F7B-688B-40A9-BB8D-27B7806F3010}" name="Flag_of_jihad.png" dataDxfId="540"/>
-    <tableColumn id="61" xr3:uid="{1AF92E80-B03B-4886-9877-AEFCA8BC3C6A}" name="Al_Qaida.jpg" dataDxfId="539"/>
-    <tableColumn id="62" xr3:uid="{38357739-9482-4EFB-9F7B-3FFE62997C4E}" name="Apple.jpg" dataDxfId="538"/>
-    <tableColumn id="63" xr3:uid="{11FD5F67-B29E-4286-8E00-8D5CC251F7E9}" name="soccer_field.jpg" dataDxfId="537"/>
-    <tableColumn id="64" xr3:uid="{7E110952-312E-4AFA-9AD5-231E22278073}" name="SofaBed.jpg" dataDxfId="536"/>
-    <tableColumn id="65" xr3:uid="{A35E8DC0-70BC-4343-97B5-B7FFFE9DAF01}" name="Giraffe.jpg" dataDxfId="535"/>
-    <tableColumn id="66" xr3:uid="{61EAC2BD-5929-47D0-A6C4-BDC8D8C90444}" name="party_crowd.jpg" dataDxfId="534"/>
-    <tableColumn id="67" xr3:uid="{2AEA7A9A-6E39-4F84-9683-74C987384968}" name="Cola.jpg2" dataDxfId="533"/>
-    <tableColumn id="68" xr3:uid="{7E9D078D-5307-4E42-877A-7491AEDCED6D}" name="Beer.jpg" dataDxfId="532"/>
-    <tableColumn id="69" xr3:uid="{4EF219CB-5843-4D99-9976-B5C2B67BDD82}" name="children.jpg" dataDxfId="531"/>
-    <tableColumn id="70" xr3:uid="{F78BCB85-9887-4173-949E-7CB038E8962C}" name="cocaine.jpg" dataDxfId="530"/>
-    <tableColumn id="71" xr3:uid="{0D83F019-2A5E-413D-88FA-4D3CAB154FE2}" name="refugeecamp.jpg" dataDxfId="529"/>
-    <tableColumn id="72" xr3:uid="{FB618BB8-E1AC-4F40-A3D1-F67BAE95E5C4}" name="Car.jpg3" dataDxfId="528"/>
+    <tableColumn id="1" name="VGG16" dataDxfId="575"/>
+    <tableColumn id="2" name="Laptop.jpg" dataDxfId="574"/>
+    <tableColumn id="3" name="SteamLocomotive.jpg" dataDxfId="573"/>
+    <tableColumn id="4" name="xtc.jpg" dataDxfId="572"/>
+    <tableColumn id="5" name="heroin.jpg" dataDxfId="571"/>
+    <tableColumn id="6" name="Avocados.jpg" dataDxfId="570"/>
+    <tableColumn id="7" name="pig.jpg" dataDxfId="569"/>
+    <tableColumn id="8" name="Methamphetamine.png" dataDxfId="568"/>
+    <tableColumn id="9" name="bomb.jpg" dataDxfId="567"/>
+    <tableColumn id="10" name="cannabis.jpg" dataDxfId="566"/>
+    <tableColumn id="11" name="knife.png" dataDxfId="565"/>
+    <tableColumn id="12" name="Tractor.jpg" dataDxfId="564"/>
+    <tableColumn id="13" name="Cellphone.jpg" dataDxfId="563"/>
+    <tableColumn id="14" name="Bananas.jpg" dataDxfId="562"/>
+    <tableColumn id="15" name="Ship.jpg" dataDxfId="561"/>
+    <tableColumn id="16" name="Popcorn.png" dataDxfId="560"/>
+    <tableColumn id="17" name="Forest.jpg" dataDxfId="559"/>
+    <tableColumn id="18" name="train.jpg" dataDxfId="558"/>
+    <tableColumn id="19" name="Firefighters.jpg" dataDxfId="557"/>
+    <tableColumn id="20" name="cocaine.png" dataDxfId="556"/>
+    <tableColumn id="21" name="drug_addict.jpg" dataDxfId="555"/>
+    <tableColumn id="22" name="Toothbrush.jpg" dataDxfId="554"/>
+    <tableColumn id="23" name="IceCream.jpg" dataDxfId="553"/>
+    <tableColumn id="24" name="Cola.jpg" dataDxfId="552"/>
+    <tableColumn id="25" name="Vulture.jpg" dataDxfId="551"/>
+    <tableColumn id="26" name="cinema_room.jpg" dataDxfId="550"/>
+    <tableColumn id="27" name="smoking_cigarette.jpg" dataDxfId="549"/>
+    <tableColumn id="28" name="Alpaca.jpg" dataDxfId="548"/>
+    <tableColumn id="29" name="opium_farm.jpg" dataDxfId="547"/>
+    <tableColumn id="30" name="Bike.jpg" dataDxfId="546"/>
+    <tableColumn id="31" name="SoccerGame.jpg" dataDxfId="545"/>
+    <tableColumn id="32" name="Windows.png" dataDxfId="544"/>
+    <tableColumn id="33" name="Yogurt.jpg" dataDxfId="543"/>
+    <tableColumn id="34" name="OpenAirSwimmingPool.jpg" dataDxfId="542"/>
+    <tableColumn id="35" name="airport.jpg" dataDxfId="541"/>
+    <tableColumn id="36" name="eating_women.jpg" dataDxfId="540"/>
+    <tableColumn id="37" name="Bird.jpg" dataDxfId="539"/>
+    <tableColumn id="38" name="PaintBucket.jpg" dataDxfId="538"/>
+    <tableColumn id="39" name="crystal-meth-Methamphetamine.jpg" dataDxfId="537"/>
+    <tableColumn id="40" name="car.jpg" dataDxfId="536"/>
+    <tableColumn id="41" name="SoupBowl.jpg" dataDxfId="535"/>
+    <tableColumn id="42" name="boat.jpg" dataDxfId="534"/>
+    <tableColumn id="43" name="Hedgehog.jpg" dataDxfId="533"/>
+    <tableColumn id="44" name="Butter.jpg" dataDxfId="532"/>
+    <tableColumn id="45" name="lsd.png" dataDxfId="531"/>
+    <tableColumn id="46" name="Pond.jpg" dataDxfId="530"/>
+    <tableColumn id="47" name="Hike.jpg" dataDxfId="529"/>
+    <tableColumn id="48" name="PetrolStation.jpg" dataDxfId="528"/>
+    <tableColumn id="49" name="Grenade.JPG" dataDxfId="527"/>
+    <tableColumn id="50" name="Glock17Gen4.jpg" dataDxfId="526"/>
+    <tableColumn id="51" name="Phone.jpg" dataDxfId="525"/>
+    <tableColumn id="52" name="bike_tour.jpg" dataDxfId="524"/>
+    <tableColumn id="53" name="Bread.jpg" dataDxfId="523"/>
+    <tableColumn id="54" name="Hotel.jpg" dataDxfId="522"/>
+    <tableColumn id="55" name="WashingMachine.JPG" dataDxfId="521"/>
+    <tableColumn id="56" name="runway.jpg" dataDxfId="520"/>
+    <tableColumn id="57" name="Bookshelf.jpg" dataDxfId="519"/>
+    <tableColumn id="58" name="Cheese.jpg" dataDxfId="518"/>
+    <tableColumn id="59" name="drugs.jpg" dataDxfId="517"/>
+    <tableColumn id="60" name="Flag_of_jihad.png" dataDxfId="516"/>
+    <tableColumn id="61" name="Al_Qaida.jpg" dataDxfId="515"/>
+    <tableColumn id="62" name="Apple.jpg" dataDxfId="514"/>
+    <tableColumn id="63" name="soccer_field.jpg" dataDxfId="513"/>
+    <tableColumn id="64" name="SofaBed.jpg" dataDxfId="512"/>
+    <tableColumn id="65" name="Giraffe.jpg" dataDxfId="511"/>
+    <tableColumn id="66" name="party_crowd.jpg" dataDxfId="510"/>
+    <tableColumn id="67" name="Cola.jpg2" dataDxfId="509"/>
+    <tableColumn id="68" name="Beer.jpg" dataDxfId="508"/>
+    <tableColumn id="69" name="children.jpg" dataDxfId="507"/>
+    <tableColumn id="70" name="cocaine.jpg" dataDxfId="506"/>
+    <tableColumn id="71" name="refugeecamp.jpg" dataDxfId="505"/>
+    <tableColumn id="72" name="Car.jpg3" dataDxfId="504"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46EA8EF0-DF9D-4626-805A-6821219D3C5F}" name="_vgg19" displayName="_vgg19" ref="A4:BT9" totalsRowShown="0">
-  <autoFilter ref="A4:BT9" xr:uid="{DE35A263-7586-479E-8B3A-67C633061F88}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="_vgg19" displayName="_vgg19" ref="A4:BT9" totalsRowShown="0">
+  <autoFilter ref="A4:BT9"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{8512D6F1-D4A1-4E11-8FC7-E92751FD86FB}" name="VGG19" dataDxfId="527"/>
-    <tableColumn id="2" xr3:uid="{0D48382A-8F8A-46C6-B81E-767B6E790CC6}" name="Laptop.jpg" dataDxfId="526"/>
-    <tableColumn id="3" xr3:uid="{D0C3E114-03B7-405E-A9A4-4969B8893EFA}" name="SteamLocomotive.jpg" dataDxfId="525"/>
-    <tableColumn id="4" xr3:uid="{9C5D8089-87B4-47B4-B2FE-F60A86D004D0}" name="xtc.jpg" dataDxfId="524"/>
-    <tableColumn id="5" xr3:uid="{F43C2576-F714-4542-9840-0A342043C934}" name="heroin.jpg" dataDxfId="523"/>
-    <tableColumn id="6" xr3:uid="{4B76292F-BE38-4134-920B-E434E27ADC1D}" name="Avocados.jpg" dataDxfId="522"/>
-    <tableColumn id="7" xr3:uid="{48E00E1C-5755-4604-9898-F85551EC5525}" name="pig.jpg" dataDxfId="521"/>
-    <tableColumn id="8" xr3:uid="{2693F95B-E1E8-497B-980E-A8FC4F00C33D}" name="Methamphetamine.png" dataDxfId="520"/>
-    <tableColumn id="9" xr3:uid="{029E0A29-3578-4BB8-86BA-5CC72A9F4B44}" name="bomb.jpg" dataDxfId="519"/>
-    <tableColumn id="10" xr3:uid="{21C2044E-A9BE-4886-AEC6-F2C996926DA3}" name="cannabis.jpg" dataDxfId="518"/>
-    <tableColumn id="11" xr3:uid="{4B537FA5-B597-4F09-B280-D4F2CDF219E0}" name="knife.png" dataDxfId="517"/>
-    <tableColumn id="12" xr3:uid="{6098DE52-8D7E-4878-978E-D3C9FE1278AA}" name="Tractor.jpg" dataDxfId="516"/>
-    <tableColumn id="13" xr3:uid="{902CF328-14C2-404C-A5DB-063967C69DA1}" name="Cellphone.jpg" dataDxfId="515"/>
-    <tableColumn id="14" xr3:uid="{80E2FB1E-B1D7-4A2F-AFF6-7D1D09B085B8}" name="Bananas.jpg" dataDxfId="514"/>
-    <tableColumn id="15" xr3:uid="{3CF30C29-426A-4EC3-875C-BC8F9E6E41A4}" name="Ship.jpg" dataDxfId="513"/>
-    <tableColumn id="16" xr3:uid="{465B3E18-DF61-44B2-8D6C-65D3A0B6BABD}" name="Popcorn.png" dataDxfId="512"/>
-    <tableColumn id="17" xr3:uid="{EFB0DFAD-55E7-43C4-96A8-578A6F1A719A}" name="Forest.jpg" dataDxfId="511"/>
-    <tableColumn id="18" xr3:uid="{5E566626-97BE-4456-8E19-FEB120CBDE1A}" name="train.jpg" dataDxfId="510"/>
-    <tableColumn id="19" xr3:uid="{DABA0A3A-815D-4297-BD9D-102D9CE2CD46}" name="Firefighters.jpg" dataDxfId="509"/>
-    <tableColumn id="20" xr3:uid="{56CEAA93-CD4D-4F8C-B8BA-C5F701C2B14F}" name="cocaine.png" dataDxfId="508"/>
-    <tableColumn id="21" xr3:uid="{888C35EC-BB5D-4495-BA6F-BA32B586D672}" name="drug_addict.jpg" dataDxfId="507"/>
-    <tableColumn id="22" xr3:uid="{490EA6CF-2772-4D53-8995-8E1438D175F1}" name="Toothbrush.jpg" dataDxfId="506"/>
-    <tableColumn id="23" xr3:uid="{C0EFA342-2B95-4D01-801E-7DA768DB0896}" name="IceCream.jpg" dataDxfId="505"/>
-    <tableColumn id="24" xr3:uid="{5FDEF4B1-9912-4120-85FE-A27327966DE3}" name="Cola.jpg" dataDxfId="504"/>
-    <tableColumn id="25" xr3:uid="{B4D02228-890A-45F7-A778-E759029C9A0D}" name="Vulture.jpg" dataDxfId="503"/>
-    <tableColumn id="26" xr3:uid="{22817E66-780E-4E21-9BFE-8AB81741663F}" name="cinema_room.jpg" dataDxfId="502"/>
-    <tableColumn id="27" xr3:uid="{F71B21EE-E0F7-4CD1-97B4-CB012AB24C21}" name="smoking_cigarette.jpg" dataDxfId="501"/>
-    <tableColumn id="28" xr3:uid="{3A089881-EAAE-4423-B05B-427FCAAD95BA}" name="Alpaca.jpg" dataDxfId="500"/>
-    <tableColumn id="29" xr3:uid="{190BF0CC-2342-4ABC-9112-33F16774DBD9}" name="opium_farm.jpg" dataDxfId="499"/>
-    <tableColumn id="30" xr3:uid="{0FDDAC27-2D94-44C1-A08E-37C4EE3C424B}" name="Bike.jpg" dataDxfId="498"/>
-    <tableColumn id="31" xr3:uid="{F4AC8706-CFD9-4412-BDAC-69B9585BFD9D}" name="SoccerGame.jpg" dataDxfId="497"/>
-    <tableColumn id="32" xr3:uid="{2AC63F44-B7A2-4112-A1D3-93B1D1D693DA}" name="Windows.png" dataDxfId="496"/>
-    <tableColumn id="33" xr3:uid="{47FF900F-6DC5-4C84-AC74-C9292F5AF6D5}" name="Yogurt.jpg" dataDxfId="495"/>
-    <tableColumn id="34" xr3:uid="{A141BCEE-3A0F-4013-B09B-6284A75765D5}" name="OpenAirSwimmingPool.jpg" dataDxfId="494"/>
-    <tableColumn id="35" xr3:uid="{83E4B27C-D4F3-4A20-9C23-7E7DC1172427}" name="airport.jpg" dataDxfId="493"/>
-    <tableColumn id="36" xr3:uid="{E4C5E653-A6D7-4AC2-8ADE-0AA8999A083D}" name="eating_women.jpg" dataDxfId="492"/>
-    <tableColumn id="37" xr3:uid="{1F06F362-6F0A-499E-BCE5-8943DE7E8A54}" name="Bird.jpg" dataDxfId="491"/>
-    <tableColumn id="38" xr3:uid="{CD042F1C-7A71-445A-8CAE-4ED2E77180FF}" name="PaintBucket.jpg" dataDxfId="490"/>
-    <tableColumn id="39" xr3:uid="{A4ED4BCB-3BB7-431F-9362-E57E892A0B86}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="489"/>
-    <tableColumn id="40" xr3:uid="{FD3F5DC1-E0E8-491A-BB60-836F45AF4A38}" name="car.jpg" dataDxfId="488"/>
-    <tableColumn id="41" xr3:uid="{4D1EE336-449E-435F-B1DF-13A3D1ACBE8B}" name="SoupBowl.jpg" dataDxfId="487"/>
-    <tableColumn id="42" xr3:uid="{8036C88C-3C6D-4710-84D1-24C06813F3A3}" name="boat.jpg" dataDxfId="486"/>
-    <tableColumn id="43" xr3:uid="{92CAC62C-66D6-42B5-9941-4737EF4620D2}" name="Hedgehog.jpg" dataDxfId="485"/>
-    <tableColumn id="44" xr3:uid="{5E7C9996-419B-49DB-B9D1-E8C36D80324B}" name="Butter.jpg" dataDxfId="484"/>
-    <tableColumn id="45" xr3:uid="{09F133A2-673E-4F5D-8621-A85C06337486}" name="lsd.png" dataDxfId="483"/>
-    <tableColumn id="46" xr3:uid="{94864893-0748-4CD8-B5AC-BAAE15A7CDE6}" name="Pond.jpg" dataDxfId="482"/>
-    <tableColumn id="47" xr3:uid="{3AD44531-429F-4455-9052-377A943B11B4}" name="Hike.jpg" dataDxfId="481"/>
-    <tableColumn id="48" xr3:uid="{2E375BBF-2FD7-4F84-A442-5B7D69238C8B}" name="PetrolStation.jpg" dataDxfId="480"/>
-    <tableColumn id="49" xr3:uid="{32E094A1-D463-4A9B-9E74-869A5CACF8D2}" name="Grenade.JPG" dataDxfId="479"/>
-    <tableColumn id="50" xr3:uid="{9E98E745-DC43-49A9-A609-756E5F9DA0E0}" name="Glock17Gen4.jpg" dataDxfId="478"/>
-    <tableColumn id="51" xr3:uid="{09011258-800B-404A-A78B-9260B11B3CFB}" name="Phone.jpg" dataDxfId="477"/>
-    <tableColumn id="52" xr3:uid="{D6BC8608-E402-4ED4-85FD-AA884F44323A}" name="bike_tour.jpg" dataDxfId="476"/>
-    <tableColumn id="53" xr3:uid="{788C48A6-E572-472D-8F7B-87E74481E5C5}" name="Bread.jpg" dataDxfId="475"/>
-    <tableColumn id="54" xr3:uid="{E7D292DD-A496-4AB2-A6D5-9C7DB9397339}" name="Hotel.jpg" dataDxfId="474"/>
-    <tableColumn id="55" xr3:uid="{02F68E68-5B97-4256-801E-B03D5660F842}" name="WashingMachine.JPG" dataDxfId="473"/>
-    <tableColumn id="56" xr3:uid="{B906A5A2-8289-4AF2-82A1-BFC918B84501}" name="runway.jpg" dataDxfId="472"/>
-    <tableColumn id="57" xr3:uid="{D3C7D857-E7B7-4F56-A035-786C2543427D}" name="Bookshelf.jpg" dataDxfId="471"/>
-    <tableColumn id="58" xr3:uid="{2B6C48E0-EC45-4623-805A-134835C85AFA}" name="Cheese.jpg" dataDxfId="470"/>
-    <tableColumn id="59" xr3:uid="{E17600F4-1C4D-4650-AF5C-9BC78F6021BE}" name="drugs.jpg" dataDxfId="469"/>
-    <tableColumn id="60" xr3:uid="{54D15244-A28F-4C73-9C77-5806B0CCB5AF}" name="Flag_of_jihad.png" dataDxfId="468"/>
-    <tableColumn id="61" xr3:uid="{552166F7-9BA7-4D93-91FC-B1FE00058C13}" name="Al_Qaida.jpg" dataDxfId="467"/>
-    <tableColumn id="62" xr3:uid="{784E3029-C843-4155-A2BD-5E15E7419ECD}" name="Apple.jpg" dataDxfId="466"/>
-    <tableColumn id="63" xr3:uid="{EB4B352D-3A28-49F1-B895-A118D848BAE7}" name="soccer_field.jpg" dataDxfId="465"/>
-    <tableColumn id="64" xr3:uid="{813DE1E3-A51D-42E3-AF07-150D92E7202F}" name="SofaBed.jpg" dataDxfId="464"/>
-    <tableColumn id="65" xr3:uid="{6891F171-6BFC-43A4-885E-648C239925C1}" name="Giraffe.jpg" dataDxfId="463"/>
-    <tableColumn id="66" xr3:uid="{21F83AD2-4B91-40D1-8DAD-B880B27FEDBB}" name="party_crowd.jpg" dataDxfId="462"/>
-    <tableColumn id="67" xr3:uid="{5962852D-4F29-4638-B79D-B8430B21D201}" name="Cola.jpg2" dataDxfId="461"/>
-    <tableColumn id="68" xr3:uid="{0BCF36C2-0175-4B6B-A59B-3F787F9251B4}" name="Beer.jpg" dataDxfId="460"/>
-    <tableColumn id="69" xr3:uid="{865181BB-2325-487C-9FEE-700E24FA5B13}" name="children.jpg" dataDxfId="459"/>
-    <tableColumn id="70" xr3:uid="{BA625788-6B23-438A-8692-455C02A42E45}" name="cocaine.jpg" dataDxfId="458"/>
-    <tableColumn id="71" xr3:uid="{ED3FA969-A18C-4DC0-8275-873910E80C65}" name="refugeecamp.jpg" dataDxfId="457"/>
-    <tableColumn id="72" xr3:uid="{A92D5161-43C0-4672-AC8D-CA8CD0D4B5DE}" name="Car.jpg3" dataDxfId="456"/>
+    <tableColumn id="1" name="VGG19" dataDxfId="503"/>
+    <tableColumn id="2" name="Laptop.jpg" dataDxfId="502"/>
+    <tableColumn id="3" name="SteamLocomotive.jpg" dataDxfId="501"/>
+    <tableColumn id="4" name="xtc.jpg" dataDxfId="500"/>
+    <tableColumn id="5" name="heroin.jpg" dataDxfId="499"/>
+    <tableColumn id="6" name="Avocados.jpg" dataDxfId="498"/>
+    <tableColumn id="7" name="pig.jpg" dataDxfId="497"/>
+    <tableColumn id="8" name="Methamphetamine.png" dataDxfId="496"/>
+    <tableColumn id="9" name="bomb.jpg" dataDxfId="495"/>
+    <tableColumn id="10" name="cannabis.jpg" dataDxfId="494"/>
+    <tableColumn id="11" name="knife.png" dataDxfId="493"/>
+    <tableColumn id="12" name="Tractor.jpg" dataDxfId="492"/>
+    <tableColumn id="13" name="Cellphone.jpg" dataDxfId="491"/>
+    <tableColumn id="14" name="Bananas.jpg" dataDxfId="490"/>
+    <tableColumn id="15" name="Ship.jpg" dataDxfId="489"/>
+    <tableColumn id="16" name="Popcorn.png" dataDxfId="488"/>
+    <tableColumn id="17" name="Forest.jpg" dataDxfId="487"/>
+    <tableColumn id="18" name="train.jpg" dataDxfId="486"/>
+    <tableColumn id="19" name="Firefighters.jpg" dataDxfId="485"/>
+    <tableColumn id="20" name="cocaine.png" dataDxfId="484"/>
+    <tableColumn id="21" name="drug_addict.jpg" dataDxfId="483"/>
+    <tableColumn id="22" name="Toothbrush.jpg" dataDxfId="482"/>
+    <tableColumn id="23" name="IceCream.jpg" dataDxfId="481"/>
+    <tableColumn id="24" name="Cola.jpg" dataDxfId="480"/>
+    <tableColumn id="25" name="Vulture.jpg" dataDxfId="479"/>
+    <tableColumn id="26" name="cinema_room.jpg" dataDxfId="478"/>
+    <tableColumn id="27" name="smoking_cigarette.jpg" dataDxfId="477"/>
+    <tableColumn id="28" name="Alpaca.jpg" dataDxfId="476"/>
+    <tableColumn id="29" name="opium_farm.jpg" dataDxfId="475"/>
+    <tableColumn id="30" name="Bike.jpg" dataDxfId="474"/>
+    <tableColumn id="31" name="SoccerGame.jpg" dataDxfId="473"/>
+    <tableColumn id="32" name="Windows.png" dataDxfId="472"/>
+    <tableColumn id="33" name="Yogurt.jpg" dataDxfId="471"/>
+    <tableColumn id="34" name="OpenAirSwimmingPool.jpg" dataDxfId="470"/>
+    <tableColumn id="35" name="airport.jpg" dataDxfId="469"/>
+    <tableColumn id="36" name="eating_women.jpg" dataDxfId="468"/>
+    <tableColumn id="37" name="Bird.jpg" dataDxfId="467"/>
+    <tableColumn id="38" name="PaintBucket.jpg" dataDxfId="466"/>
+    <tableColumn id="39" name="crystal-meth-Methamphetamine.jpg" dataDxfId="465"/>
+    <tableColumn id="40" name="car.jpg" dataDxfId="464"/>
+    <tableColumn id="41" name="SoupBowl.jpg" dataDxfId="463"/>
+    <tableColumn id="42" name="boat.jpg" dataDxfId="462"/>
+    <tableColumn id="43" name="Hedgehog.jpg" dataDxfId="461"/>
+    <tableColumn id="44" name="Butter.jpg" dataDxfId="460"/>
+    <tableColumn id="45" name="lsd.png" dataDxfId="459"/>
+    <tableColumn id="46" name="Pond.jpg" dataDxfId="458"/>
+    <tableColumn id="47" name="Hike.jpg" dataDxfId="457"/>
+    <tableColumn id="48" name="PetrolStation.jpg" dataDxfId="456"/>
+    <tableColumn id="49" name="Grenade.JPG" dataDxfId="455"/>
+    <tableColumn id="50" name="Glock17Gen4.jpg" dataDxfId="454"/>
+    <tableColumn id="51" name="Phone.jpg" dataDxfId="453"/>
+    <tableColumn id="52" name="bike_tour.jpg" dataDxfId="452"/>
+    <tableColumn id="53" name="Bread.jpg" dataDxfId="451"/>
+    <tableColumn id="54" name="Hotel.jpg" dataDxfId="450"/>
+    <tableColumn id="55" name="WashingMachine.JPG" dataDxfId="449"/>
+    <tableColumn id="56" name="runway.jpg" dataDxfId="448"/>
+    <tableColumn id="57" name="Bookshelf.jpg" dataDxfId="447"/>
+    <tableColumn id="58" name="Cheese.jpg" dataDxfId="446"/>
+    <tableColumn id="59" name="drugs.jpg" dataDxfId="445"/>
+    <tableColumn id="60" name="Flag_of_jihad.png" dataDxfId="444"/>
+    <tableColumn id="61" name="Al_Qaida.jpg" dataDxfId="443"/>
+    <tableColumn id="62" name="Apple.jpg" dataDxfId="442"/>
+    <tableColumn id="63" name="soccer_field.jpg" dataDxfId="441"/>
+    <tableColumn id="64" name="SofaBed.jpg" dataDxfId="440"/>
+    <tableColumn id="65" name="Giraffe.jpg" dataDxfId="439"/>
+    <tableColumn id="66" name="party_crowd.jpg" dataDxfId="438"/>
+    <tableColumn id="67" name="Cola.jpg2" dataDxfId="437"/>
+    <tableColumn id="68" name="Beer.jpg" dataDxfId="436"/>
+    <tableColumn id="69" name="children.jpg" dataDxfId="435"/>
+    <tableColumn id="70" name="cocaine.jpg" dataDxfId="434"/>
+    <tableColumn id="71" name="refugeecamp.jpg" dataDxfId="433"/>
+    <tableColumn id="72" name="Car.jpg3" dataDxfId="432"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D233C417-C60A-40CB-9323-10265A5E383B}" name="mobile_net_v2" displayName="mobile_net_v2" ref="A4:BT9" totalsRowShown="0">
-  <autoFilter ref="A4:BT9" xr:uid="{DA263589-9BF6-4112-BDED-EADC4CAAAA74}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="mobile_net_v2" displayName="mobile_net_v2" ref="A4:BT9" totalsRowShown="0">
+  <autoFilter ref="A4:BT9"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{6A49C65F-B00B-44A8-8274-25AC5A7205CD}" name="MobileNetV2" dataDxfId="455"/>
-    <tableColumn id="2" xr3:uid="{7E8CA551-831B-40C6-9994-882C4CE23006}" name="Laptop.jpg" dataDxfId="454"/>
-    <tableColumn id="3" xr3:uid="{DEABA442-6850-45E8-8632-77ACCC9FCAEC}" name="SteamLocomotive.jpg" dataDxfId="453"/>
-    <tableColumn id="4" xr3:uid="{7871FF80-4CFF-4F36-99B4-C5244C000FD0}" name="xtc.jpg" dataDxfId="452"/>
-    <tableColumn id="5" xr3:uid="{5EC7ABE0-1F8F-4050-B9C1-3CD822B6DE28}" name="heroin.jpg" dataDxfId="451"/>
-    <tableColumn id="6" xr3:uid="{BAD70202-CE30-4C3C-9E08-9CD3055A30C9}" name="Avocados.jpg" dataDxfId="450"/>
-    <tableColumn id="7" xr3:uid="{22149177-59E5-4972-A4AD-E3378A2657B2}" name="pig.jpg" dataDxfId="449"/>
-    <tableColumn id="8" xr3:uid="{19FBED2A-8F06-4D38-BC51-BD3F281E77D1}" name="Methamphetamine.png" dataDxfId="448"/>
-    <tableColumn id="9" xr3:uid="{C20E1BDB-513A-47FD-9597-3FA0F3F670D1}" name="bomb.jpg" dataDxfId="447"/>
-    <tableColumn id="10" xr3:uid="{06AEEC7D-E975-40E5-AE50-BD7E2A194B52}" name="cannabis.jpg" dataDxfId="446"/>
-    <tableColumn id="11" xr3:uid="{09E83527-BAF0-4721-9697-57A935472AC2}" name="knife.png" dataDxfId="445"/>
-    <tableColumn id="12" xr3:uid="{9A6748A0-A18A-480E-BAA6-6AFF86F857ED}" name="Tractor.jpg" dataDxfId="444"/>
-    <tableColumn id="13" xr3:uid="{762D0449-6A3C-4D49-8405-BC0738491C1F}" name="Cellphone.jpg" dataDxfId="443"/>
-    <tableColumn id="14" xr3:uid="{3E3B337C-CCE7-46A4-8F62-EC513354B757}" name="Bananas.jpg" dataDxfId="442"/>
-    <tableColumn id="15" xr3:uid="{7C68F582-A598-4B1B-AF07-08E338D03AAD}" name="Ship.jpg" dataDxfId="441"/>
-    <tableColumn id="16" xr3:uid="{05802625-F7BD-451C-B7B9-144C9642780F}" name="Popcorn.png" dataDxfId="440"/>
-    <tableColumn id="17" xr3:uid="{E44D1999-FC03-41DB-9177-91AD5C792115}" name="Forest.jpg" dataDxfId="439"/>
-    <tableColumn id="18" xr3:uid="{345BFED9-0FE3-42A1-99BB-0D87F6276897}" name="train.jpg" dataDxfId="438"/>
-    <tableColumn id="19" xr3:uid="{FD4B7C45-654D-43A9-9D70-AC719744762F}" name="Firefighters.jpg" dataDxfId="437"/>
-    <tableColumn id="20" xr3:uid="{F1106496-00E5-4F06-90C5-0B7BE35D35C2}" name="cocaine.png" dataDxfId="436"/>
-    <tableColumn id="21" xr3:uid="{A1BC1B54-77F6-4E70-9373-5778B00B256D}" name="drug_addict.jpg" dataDxfId="435"/>
-    <tableColumn id="22" xr3:uid="{669F6291-8418-42DF-ACCE-ED0DB495C0EE}" name="Toothbrush.jpg" dataDxfId="434"/>
-    <tableColumn id="23" xr3:uid="{14429AC9-6A4E-499A-A804-DD625522B175}" name="IceCream.jpg" dataDxfId="433"/>
-    <tableColumn id="24" xr3:uid="{CFF14AE2-52B0-4C4A-A37B-B4E431A20D57}" name="Cola.jpg" dataDxfId="432"/>
-    <tableColumn id="25" xr3:uid="{2C01FFCD-B043-4133-96F4-45CDEE8A5198}" name="Vulture.jpg" dataDxfId="431"/>
-    <tableColumn id="26" xr3:uid="{E95A5F99-5F0F-4D51-8159-12664EB65FD4}" name="cinema_room.jpg" dataDxfId="430"/>
-    <tableColumn id="27" xr3:uid="{C48A6961-3965-4873-9404-CDD2D07A367C}" name="smoking_cigarette.jpg" dataDxfId="429"/>
-    <tableColumn id="28" xr3:uid="{50506C9D-348C-4BE3-8BF5-F6562BACD3FB}" name="Alpaca.jpg" dataDxfId="428"/>
-    <tableColumn id="29" xr3:uid="{EAB55362-4196-4748-A733-44CF9AD8C4A4}" name="opium_farm.jpg" dataDxfId="427"/>
-    <tableColumn id="30" xr3:uid="{B4B84888-3A19-4289-A0A0-15C6F8D2BEF0}" name="Bike.jpg" dataDxfId="426"/>
-    <tableColumn id="31" xr3:uid="{8FAE4457-2078-4639-8969-3A753E6222A4}" name="SoccerGame.jpg" dataDxfId="425"/>
-    <tableColumn id="32" xr3:uid="{40D6F91E-A0DF-44BD-A22E-6B5D92E89F23}" name="Windows.png" dataDxfId="424"/>
-    <tableColumn id="33" xr3:uid="{AAC82A08-1BCD-4CAF-A233-301FB798D6D9}" name="Yogurt.jpg" dataDxfId="423"/>
-    <tableColumn id="34" xr3:uid="{E401A841-3081-4045-8468-050A0F22E602}" name="OpenAirSwimmingPool.jpg" dataDxfId="422"/>
-    <tableColumn id="35" xr3:uid="{51FDCDAA-0417-4BD4-881E-96E13A8140D2}" name="airport.jpg" dataDxfId="421"/>
-    <tableColumn id="36" xr3:uid="{974DF9EB-2C18-4209-9F09-6ACF14B7075E}" name="eating_women.jpg" dataDxfId="420"/>
-    <tableColumn id="37" xr3:uid="{77B15AFE-9A81-4EEB-9DDE-A2A6D33301A8}" name="Bird.jpg" dataDxfId="419"/>
-    <tableColumn id="38" xr3:uid="{F4B1F60B-F24E-490D-A3AB-C823DF9B06E4}" name="PaintBucket.jpg" dataDxfId="418"/>
-    <tableColumn id="39" xr3:uid="{11840BD5-0B90-4AA4-8630-C4D7B67ADF7F}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="417"/>
-    <tableColumn id="40" xr3:uid="{2BC086D0-7FC6-4CB3-B396-D821B003CCAD}" name="car.jpg" dataDxfId="416"/>
-    <tableColumn id="41" xr3:uid="{117040FB-98D9-4B5E-BAE6-57D72F3D7186}" name="SoupBowl.jpg" dataDxfId="415"/>
-    <tableColumn id="42" xr3:uid="{56D9569B-2076-4AC5-8F20-458ACF0117C9}" name="boat.jpg" dataDxfId="414"/>
-    <tableColumn id="43" xr3:uid="{5B4E6B9B-0DEC-4488-B391-4CC5846680A7}" name="Hedgehog.jpg" dataDxfId="413"/>
-    <tableColumn id="44" xr3:uid="{3167042E-5592-4761-8144-9197566D1FCF}" name="Butter.jpg" dataDxfId="412"/>
-    <tableColumn id="45" xr3:uid="{56CA30AF-1323-4452-A199-E385E8E184D9}" name="lsd.png" dataDxfId="411"/>
-    <tableColumn id="46" xr3:uid="{0A241E98-9036-46AC-9CB4-D084B66B48ED}" name="Pond.jpg" dataDxfId="410"/>
-    <tableColumn id="47" xr3:uid="{BF159BA4-865F-4125-BE9A-A094D9D4752A}" name="Hike.jpg" dataDxfId="409"/>
-    <tableColumn id="48" xr3:uid="{17A8BCB1-0128-4BF8-B876-4009E192679E}" name="PetrolStation.jpg" dataDxfId="408"/>
-    <tableColumn id="49" xr3:uid="{705084D0-A492-4F4E-8694-0CF4CB064585}" name="Grenade.JPG" dataDxfId="407"/>
-    <tableColumn id="50" xr3:uid="{814DA886-60A1-4C35-B49E-982861E0F55F}" name="Glock17Gen4.jpg" dataDxfId="406"/>
-    <tableColumn id="51" xr3:uid="{EAA2E921-1302-4ACC-B785-1FAE3FCED85D}" name="Phone.jpg" dataDxfId="405"/>
-    <tableColumn id="52" xr3:uid="{D6615479-2627-46DC-ADFF-50C7CE1F7996}" name="bike_tour.jpg" dataDxfId="404"/>
-    <tableColumn id="53" xr3:uid="{8994A9E2-9F31-4E25-AD49-7F03D86719F6}" name="Bread.jpg" dataDxfId="403"/>
-    <tableColumn id="54" xr3:uid="{93B94ABF-D06D-4915-A5EC-D9AB9AB0FED7}" name="Hotel.jpg" dataDxfId="402"/>
-    <tableColumn id="55" xr3:uid="{92224A7C-AC82-473A-AAAF-43EA8BFEF325}" name="WashingMachine.JPG" dataDxfId="401"/>
-    <tableColumn id="56" xr3:uid="{45D25BAA-092D-4AD2-8BAF-F0E8DBE161A2}" name="runway.jpg" dataDxfId="400"/>
-    <tableColumn id="57" xr3:uid="{336E9B2D-9C9A-4689-894B-55F0B220CE4F}" name="Bookshelf.jpg" dataDxfId="399"/>
-    <tableColumn id="58" xr3:uid="{BA4D7667-B83C-4BB1-AE0E-BEDB770EC55C}" name="Cheese.jpg" dataDxfId="398"/>
-    <tableColumn id="59" xr3:uid="{E65902E5-937E-495D-9632-99424A00B69C}" name="drugs.jpg" dataDxfId="397"/>
-    <tableColumn id="60" xr3:uid="{4EADEB90-1A95-4D0D-B920-F0D70C0F810D}" name="Flag_of_jihad.png" dataDxfId="396"/>
-    <tableColumn id="61" xr3:uid="{3DC0A231-A7FB-4F19-922D-5C6A62599E51}" name="Al_Qaida.jpg" dataDxfId="395"/>
-    <tableColumn id="62" xr3:uid="{739BF449-A134-4926-BE05-AD7BF0E945A3}" name="Apple.jpg" dataDxfId="394"/>
-    <tableColumn id="63" xr3:uid="{829F92D6-5875-40AE-A795-5660E50653B3}" name="soccer_field.jpg" dataDxfId="393"/>
-    <tableColumn id="64" xr3:uid="{4A6E9A8E-6D44-4C98-9EF7-5A6FE7727C0A}" name="SofaBed.jpg" dataDxfId="392"/>
-    <tableColumn id="65" xr3:uid="{72BFF36F-2CDA-4220-9024-D38EE55736AA}" name="Giraffe.jpg" dataDxfId="391"/>
-    <tableColumn id="66" xr3:uid="{33B5429E-810A-4B79-8038-E179558FA084}" name="party_crowd.jpg" dataDxfId="390"/>
-    <tableColumn id="67" xr3:uid="{AC003B63-44BA-4B28-9A5D-04AD0D618803}" name="Cola.jpg2" dataDxfId="389"/>
-    <tableColumn id="68" xr3:uid="{7BB41BAA-9D59-4D91-A24B-7F02C51A229A}" name="Beer.jpg" dataDxfId="388"/>
-    <tableColumn id="69" xr3:uid="{FDF5E1F2-E9CD-41CF-AC88-B2BBD358D054}" name="children.jpg" dataDxfId="387"/>
-    <tableColumn id="70" xr3:uid="{3FD0137D-6B45-400A-BC09-542BCAD1D9F9}" name="cocaine.jpg" dataDxfId="386"/>
-    <tableColumn id="71" xr3:uid="{A3289868-A54C-42D5-82F7-E396ACBE59D6}" name="refugeecamp.jpg" dataDxfId="385"/>
-    <tableColumn id="72" xr3:uid="{F009C367-19B2-4C08-8291-0C8762E93825}" name="Car.jpg3" dataDxfId="384"/>
+    <tableColumn id="1" name="MobileNetV2" dataDxfId="431"/>
+    <tableColumn id="2" name="Laptop.jpg" dataDxfId="430"/>
+    <tableColumn id="3" name="SteamLocomotive.jpg" dataDxfId="429"/>
+    <tableColumn id="4" name="xtc.jpg" dataDxfId="428"/>
+    <tableColumn id="5" name="heroin.jpg" dataDxfId="427"/>
+    <tableColumn id="6" name="Avocados.jpg" dataDxfId="426"/>
+    <tableColumn id="7" name="pig.jpg" dataDxfId="425"/>
+    <tableColumn id="8" name="Methamphetamine.png" dataDxfId="424"/>
+    <tableColumn id="9" name="bomb.jpg" dataDxfId="423"/>
+    <tableColumn id="10" name="cannabis.jpg" dataDxfId="422"/>
+    <tableColumn id="11" name="knife.png" dataDxfId="421"/>
+    <tableColumn id="12" name="Tractor.jpg" dataDxfId="420"/>
+    <tableColumn id="13" name="Cellphone.jpg" dataDxfId="419"/>
+    <tableColumn id="14" name="Bananas.jpg" dataDxfId="418"/>
+    <tableColumn id="15" name="Ship.jpg" dataDxfId="417"/>
+    <tableColumn id="16" name="Popcorn.png" dataDxfId="416"/>
+    <tableColumn id="17" name="Forest.jpg" dataDxfId="415"/>
+    <tableColumn id="18" name="train.jpg" dataDxfId="414"/>
+    <tableColumn id="19" name="Firefighters.jpg" dataDxfId="413"/>
+    <tableColumn id="20" name="cocaine.png" dataDxfId="412"/>
+    <tableColumn id="21" name="drug_addict.jpg" dataDxfId="411"/>
+    <tableColumn id="22" name="Toothbrush.jpg" dataDxfId="410"/>
+    <tableColumn id="23" name="IceCream.jpg" dataDxfId="409"/>
+    <tableColumn id="24" name="Cola.jpg" dataDxfId="408"/>
+    <tableColumn id="25" name="Vulture.jpg" dataDxfId="407"/>
+    <tableColumn id="26" name="cinema_room.jpg" dataDxfId="406"/>
+    <tableColumn id="27" name="smoking_cigarette.jpg" dataDxfId="405"/>
+    <tableColumn id="28" name="Alpaca.jpg" dataDxfId="404"/>
+    <tableColumn id="29" name="opium_farm.jpg" dataDxfId="403"/>
+    <tableColumn id="30" name="Bike.jpg" dataDxfId="402"/>
+    <tableColumn id="31" name="SoccerGame.jpg" dataDxfId="401"/>
+    <tableColumn id="32" name="Windows.png" dataDxfId="400"/>
+    <tableColumn id="33" name="Yogurt.jpg" dataDxfId="399"/>
+    <tableColumn id="34" name="OpenAirSwimmingPool.jpg" dataDxfId="398"/>
+    <tableColumn id="35" name="airport.jpg" dataDxfId="397"/>
+    <tableColumn id="36" name="eating_women.jpg" dataDxfId="396"/>
+    <tableColumn id="37" name="Bird.jpg" dataDxfId="395"/>
+    <tableColumn id="38" name="PaintBucket.jpg" dataDxfId="394"/>
+    <tableColumn id="39" name="crystal-meth-Methamphetamine.jpg" dataDxfId="393"/>
+    <tableColumn id="40" name="car.jpg" dataDxfId="392"/>
+    <tableColumn id="41" name="SoupBowl.jpg" dataDxfId="391"/>
+    <tableColumn id="42" name="boat.jpg" dataDxfId="390"/>
+    <tableColumn id="43" name="Hedgehog.jpg" dataDxfId="389"/>
+    <tableColumn id="44" name="Butter.jpg" dataDxfId="388"/>
+    <tableColumn id="45" name="lsd.png" dataDxfId="387"/>
+    <tableColumn id="46" name="Pond.jpg" dataDxfId="386"/>
+    <tableColumn id="47" name="Hike.jpg" dataDxfId="385"/>
+    <tableColumn id="48" name="PetrolStation.jpg" dataDxfId="384"/>
+    <tableColumn id="49" name="Grenade.JPG" dataDxfId="383"/>
+    <tableColumn id="50" name="Glock17Gen4.jpg" dataDxfId="382"/>
+    <tableColumn id="51" name="Phone.jpg" dataDxfId="381"/>
+    <tableColumn id="52" name="bike_tour.jpg" dataDxfId="380"/>
+    <tableColumn id="53" name="Bread.jpg" dataDxfId="379"/>
+    <tableColumn id="54" name="Hotel.jpg" dataDxfId="378"/>
+    <tableColumn id="55" name="WashingMachine.JPG" dataDxfId="377"/>
+    <tableColumn id="56" name="runway.jpg" dataDxfId="376"/>
+    <tableColumn id="57" name="Bookshelf.jpg" dataDxfId="375"/>
+    <tableColumn id="58" name="Cheese.jpg" dataDxfId="374"/>
+    <tableColumn id="59" name="drugs.jpg" dataDxfId="373"/>
+    <tableColumn id="60" name="Flag_of_jihad.png" dataDxfId="372"/>
+    <tableColumn id="61" name="Al_Qaida.jpg" dataDxfId="371"/>
+    <tableColumn id="62" name="Apple.jpg" dataDxfId="370"/>
+    <tableColumn id="63" name="soccer_field.jpg" dataDxfId="369"/>
+    <tableColumn id="64" name="SofaBed.jpg" dataDxfId="368"/>
+    <tableColumn id="65" name="Giraffe.jpg" dataDxfId="367"/>
+    <tableColumn id="66" name="party_crowd.jpg" dataDxfId="366"/>
+    <tableColumn id="67" name="Cola.jpg2" dataDxfId="365"/>
+    <tableColumn id="68" name="Beer.jpg" dataDxfId="364"/>
+    <tableColumn id="69" name="children.jpg" dataDxfId="363"/>
+    <tableColumn id="70" name="cocaine.jpg" dataDxfId="362"/>
+    <tableColumn id="71" name="refugeecamp.jpg" dataDxfId="361"/>
+    <tableColumn id="72" name="Car.jpg3" dataDxfId="360"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{21A0EE07-3C53-4FA1-B093-EBF813A0566A}" name="resnet50" displayName="resnet50" ref="A4:BT9" totalsRowShown="0">
-  <autoFilter ref="A4:BT9" xr:uid="{99D92822-7B3C-4C65-B8CC-A971937C1E12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="resnet50" displayName="resnet50" ref="A4:BT9" totalsRowShown="0">
+  <autoFilter ref="A4:BT9"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{9FFBB335-9FC3-4CE2-94A0-29BED8D8ED92}" name="ResNet50" dataDxfId="383"/>
-    <tableColumn id="2" xr3:uid="{F632DAA1-0444-48BE-8AF3-6E25169CC301}" name="Laptop.jpg" dataDxfId="382"/>
-    <tableColumn id="3" xr3:uid="{3142E0EA-9579-4D19-8A64-7FB8580EE34E}" name="SteamLocomotive.jpg" dataDxfId="381"/>
-    <tableColumn id="4" xr3:uid="{18CC7E57-2FD1-400A-BB21-A03015C43695}" name="xtc.jpg" dataDxfId="380"/>
-    <tableColumn id="5" xr3:uid="{4B3E6E01-AA9E-4691-87E4-65D4DFEFFE42}" name="heroin.jpg" dataDxfId="379"/>
-    <tableColumn id="6" xr3:uid="{2F9ED3A3-961F-412F-B412-E3CF1276D11A}" name="Avocados.jpg" dataDxfId="378"/>
-    <tableColumn id="7" xr3:uid="{844E23DD-E9CB-4523-9CCC-D4C24FC4885F}" name="pig.jpg" dataDxfId="377"/>
-    <tableColumn id="8" xr3:uid="{8AC5668C-72EA-4043-B6AF-BC243CD6BAC4}" name="Methamphetamine.png" dataDxfId="376"/>
-    <tableColumn id="9" xr3:uid="{AC3D55CA-7B3B-46FB-BD03-B84A8E0B1227}" name="bomb.jpg" dataDxfId="375"/>
-    <tableColumn id="10" xr3:uid="{1B38D768-8320-4461-BD87-A6EA45FD4AA6}" name="cannabis.jpg" dataDxfId="374"/>
-    <tableColumn id="11" xr3:uid="{86B24E39-F5B5-4544-9A5E-7AB095A0FDD3}" name="knife.png" dataDxfId="373"/>
-    <tableColumn id="12" xr3:uid="{85D74640-69BF-45A8-B913-6F901A12AB44}" name="Tractor.jpg" dataDxfId="372"/>
-    <tableColumn id="13" xr3:uid="{2C5AB08F-4CEB-4912-B8D1-E59485A6EE25}" name="Cellphone.jpg" dataDxfId="371"/>
-    <tableColumn id="14" xr3:uid="{5A1DF276-B847-4136-909A-000C83BF426A}" name="Bananas.jpg" dataDxfId="370"/>
-    <tableColumn id="15" xr3:uid="{847FDC47-5B09-432A-A9D2-35748D7E3FA6}" name="Ship.jpg" dataDxfId="369"/>
-    <tableColumn id="16" xr3:uid="{EC86744D-E2C6-419B-A34B-D4F9B3B68BD6}" name="Popcorn.png" dataDxfId="368"/>
-    <tableColumn id="17" xr3:uid="{12A34324-93C5-48BF-9BA3-05961D2ADA0D}" name="Forest.jpg" dataDxfId="367"/>
-    <tableColumn id="18" xr3:uid="{99AB4F05-5AB4-40DB-A4FE-6501EE36D36F}" name="train.jpg" dataDxfId="366"/>
-    <tableColumn id="19" xr3:uid="{93F77FAF-6B2E-4FC6-8E29-DB0DEDC38590}" name="Firefighters.jpg" dataDxfId="365"/>
-    <tableColumn id="20" xr3:uid="{451F2472-8458-4D1E-A25B-52DFA615335E}" name="cocaine.png" dataDxfId="364"/>
-    <tableColumn id="21" xr3:uid="{48ACEDC9-F23F-4677-B5A2-BB004204C28A}" name="drug_addict.jpg" dataDxfId="363"/>
-    <tableColumn id="22" xr3:uid="{B0449C38-A2DF-42A6-8A9A-9379AD41C0ED}" name="Toothbrush.jpg" dataDxfId="362"/>
-    <tableColumn id="23" xr3:uid="{C464CA98-65CC-4FA8-9388-05CC643E5E41}" name="IceCream.jpg" dataDxfId="361"/>
-    <tableColumn id="24" xr3:uid="{0914679B-09FE-476A-BC26-7B8DC2EBDABF}" name="Cola.jpg" dataDxfId="360"/>
-    <tableColumn id="25" xr3:uid="{AED3769E-72DD-44E9-AD54-1B4CE7D04BCD}" name="Vulture.jpg" dataDxfId="359"/>
-    <tableColumn id="26" xr3:uid="{A181D100-5728-4FA6-99EC-40F392696415}" name="cinema_room.jpg" dataDxfId="358"/>
-    <tableColumn id="27" xr3:uid="{62F57A12-6605-4E07-B3F6-4CBEBA8CD2CE}" name="smoking_cigarette.jpg" dataDxfId="357"/>
-    <tableColumn id="28" xr3:uid="{B53E0D06-17E1-4F2F-976C-762193607738}" name="Alpaca.jpg" dataDxfId="356"/>
-    <tableColumn id="29" xr3:uid="{CECC962B-B6EA-4AB8-AF9D-0CF2DE0FA7B0}" name="opium_farm.jpg" dataDxfId="355"/>
-    <tableColumn id="30" xr3:uid="{D1654DC1-9707-420C-A880-587CF1633A28}" name="Bike.jpg" dataDxfId="354"/>
-    <tableColumn id="31" xr3:uid="{6FAFB8F7-1120-4496-A54F-45C330092FAC}" name="SoccerGame.jpg" dataDxfId="353"/>
-    <tableColumn id="32" xr3:uid="{6E1F9389-82D6-4BAD-A7AA-FD3921FEA93B}" name="Windows.png" dataDxfId="352"/>
-    <tableColumn id="33" xr3:uid="{22F7ADD2-9430-4FDC-9B5A-4F11F926586F}" name="Yogurt.jpg" dataDxfId="351"/>
-    <tableColumn id="34" xr3:uid="{B143A2C6-26C7-483F-B4BB-F5D2EDB50F41}" name="OpenAirSwimmingPool.jpg" dataDxfId="350"/>
-    <tableColumn id="35" xr3:uid="{5A98E449-FEA3-4AA4-9507-CBD4FDC7564B}" name="airport.jpg" dataDxfId="349"/>
-    <tableColumn id="36" xr3:uid="{848B3202-36A3-4C53-BCA9-3BAF84274725}" name="eating_women.jpg" dataDxfId="348"/>
-    <tableColumn id="37" xr3:uid="{E1A547CC-4EC4-4139-9B19-A8F457B7A7AE}" name="Bird.jpg" dataDxfId="347"/>
-    <tableColumn id="38" xr3:uid="{36E64648-590D-49A2-BD13-3013ABC0322F}" name="PaintBucket.jpg" dataDxfId="346"/>
-    <tableColumn id="39" xr3:uid="{1C9B70DA-40DE-49CE-AB05-7A3F50A5EDC7}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="345"/>
-    <tableColumn id="40" xr3:uid="{C278DACE-CE22-44F3-BB9E-A7A8D36B4739}" name="car.jpg" dataDxfId="344"/>
-    <tableColumn id="41" xr3:uid="{BF13EB41-DA12-4044-B229-A4D457FCD802}" name="SoupBowl.jpg" dataDxfId="343"/>
-    <tableColumn id="42" xr3:uid="{CA893E18-8CED-4C51-B7D2-4E5EFE879FDC}" name="boat.jpg" dataDxfId="342"/>
-    <tableColumn id="43" xr3:uid="{428DF765-B500-4DC4-B1F9-CC61F6B284C4}" name="Hedgehog.jpg" dataDxfId="341"/>
-    <tableColumn id="44" xr3:uid="{C4E9E590-E2E9-46C1-9DBF-001D25A85EC1}" name="Butter.jpg" dataDxfId="340"/>
-    <tableColumn id="45" xr3:uid="{887BB5F2-0002-4CBA-9E6A-5F0253707FE8}" name="lsd.png" dataDxfId="339"/>
-    <tableColumn id="46" xr3:uid="{34F3BCEA-4811-4A9E-BC98-23C9EEA26532}" name="Pond.jpg" dataDxfId="338"/>
-    <tableColumn id="47" xr3:uid="{7BD0636D-230C-4226-9A84-462FCDFA7236}" name="Hike.jpg" dataDxfId="337"/>
-    <tableColumn id="48" xr3:uid="{780A6644-358C-4F31-B7F4-974B8BF6F246}" name="PetrolStation.jpg" dataDxfId="336"/>
-    <tableColumn id="49" xr3:uid="{3EA7A2D2-ECA2-4883-9355-063040D502C5}" name="Grenade.JPG" dataDxfId="335"/>
-    <tableColumn id="50" xr3:uid="{0F59AB4C-C654-4F4C-8085-3FB4D225CFC9}" name="Glock17Gen4.jpg" dataDxfId="334"/>
-    <tableColumn id="51" xr3:uid="{71E4C100-31EB-4407-967E-30CA3179EE80}" name="Phone.jpg" dataDxfId="333"/>
-    <tableColumn id="52" xr3:uid="{2E625969-5B8A-4FFF-B949-BFC128C0B4B4}" name="bike_tour.jpg" dataDxfId="332"/>
-    <tableColumn id="53" xr3:uid="{B6E59C98-71B8-45A1-9D5C-C5E0DE599EE7}" name="Bread.jpg" dataDxfId="331"/>
-    <tableColumn id="54" xr3:uid="{6AC02AE6-0642-4884-95CD-3609ACAE4CEF}" name="Hotel.jpg" dataDxfId="330"/>
-    <tableColumn id="55" xr3:uid="{A2C92E50-B9D3-47A6-B227-2BBDC41A1406}" name="WashingMachine.JPG" dataDxfId="329"/>
-    <tableColumn id="56" xr3:uid="{A9579AF2-3C7E-4776-8F27-EFEB091BDB03}" name="runway.jpg" dataDxfId="328"/>
-    <tableColumn id="57" xr3:uid="{540AC9DA-9A74-4EF5-AFD0-C45F546CBD8C}" name="Bookshelf.jpg" dataDxfId="327"/>
-    <tableColumn id="58" xr3:uid="{D276A771-D6B4-4D56-AFBA-318AD653964A}" name="Cheese.jpg" dataDxfId="326"/>
-    <tableColumn id="59" xr3:uid="{230FDA7C-A419-4153-80EC-B2500EB73837}" name="drugs.jpg" dataDxfId="325"/>
-    <tableColumn id="60" xr3:uid="{B5BAC5D0-8084-47E8-99B2-554B4413FF49}" name="Flag_of_jihad.png" dataDxfId="324"/>
-    <tableColumn id="61" xr3:uid="{9B2B8D09-C353-498C-8279-DB89232AA41A}" name="Al_Qaida.jpg" dataDxfId="323"/>
-    <tableColumn id="62" xr3:uid="{84123036-E7FF-48D8-BEC2-1442B150DA6E}" name="Apple.jpg" dataDxfId="322"/>
-    <tableColumn id="63" xr3:uid="{A3B4FAD9-76A2-442E-8DD5-A955CEE5AE28}" name="soccer_field.jpg" dataDxfId="321"/>
-    <tableColumn id="64" xr3:uid="{164D7B2F-F1B7-4F98-A6B7-B262100A38C4}" name="SofaBed.jpg" dataDxfId="320"/>
-    <tableColumn id="65" xr3:uid="{7BE70772-952B-4CDC-A705-8980B4CD3AEE}" name="Giraffe.jpg" dataDxfId="319"/>
-    <tableColumn id="66" xr3:uid="{96D814DC-0A22-41C8-B83F-08AAAF4FD981}" name="party_crowd.jpg" dataDxfId="318"/>
-    <tableColumn id="67" xr3:uid="{85A76150-6A3A-485F-B780-4D99ADA16CB7}" name="Cola.jpg2" dataDxfId="317"/>
-    <tableColumn id="68" xr3:uid="{19935621-0F00-4018-B939-A01D6B365778}" name="Beer.jpg" dataDxfId="316"/>
-    <tableColumn id="69" xr3:uid="{08DE95B2-5BDE-4563-855D-43225A8494C5}" name="children.jpg" dataDxfId="315"/>
-    <tableColumn id="70" xr3:uid="{D1CAAF66-72AF-4CD0-A3F8-4BF3FF1F2C08}" name="cocaine.jpg" dataDxfId="314"/>
-    <tableColumn id="71" xr3:uid="{4515698F-F574-4D0B-9698-0AFCC91F4D2B}" name="refugeecamp.jpg" dataDxfId="313"/>
-    <tableColumn id="72" xr3:uid="{458BC5F7-C491-4D4D-A5AA-9457AC229BA6}" name="Car.jpg3" dataDxfId="312"/>
+    <tableColumn id="1" name="ResNet50" dataDxfId="359"/>
+    <tableColumn id="2" name="Laptop.jpg" dataDxfId="358"/>
+    <tableColumn id="3" name="SteamLocomotive.jpg" dataDxfId="357"/>
+    <tableColumn id="4" name="xtc.jpg" dataDxfId="356"/>
+    <tableColumn id="5" name="heroin.jpg" dataDxfId="355"/>
+    <tableColumn id="6" name="Avocados.jpg" dataDxfId="354"/>
+    <tableColumn id="7" name="pig.jpg" dataDxfId="353"/>
+    <tableColumn id="8" name="Methamphetamine.png" dataDxfId="352"/>
+    <tableColumn id="9" name="bomb.jpg" dataDxfId="351"/>
+    <tableColumn id="10" name="cannabis.jpg" dataDxfId="350"/>
+    <tableColumn id="11" name="knife.png" dataDxfId="349"/>
+    <tableColumn id="12" name="Tractor.jpg" dataDxfId="348"/>
+    <tableColumn id="13" name="Cellphone.jpg" dataDxfId="347"/>
+    <tableColumn id="14" name="Bananas.jpg" dataDxfId="346"/>
+    <tableColumn id="15" name="Ship.jpg" dataDxfId="345"/>
+    <tableColumn id="16" name="Popcorn.png" dataDxfId="344"/>
+    <tableColumn id="17" name="Forest.jpg" dataDxfId="343"/>
+    <tableColumn id="18" name="train.jpg" dataDxfId="342"/>
+    <tableColumn id="19" name="Firefighters.jpg" dataDxfId="341"/>
+    <tableColumn id="20" name="cocaine.png" dataDxfId="340"/>
+    <tableColumn id="21" name="drug_addict.jpg" dataDxfId="339"/>
+    <tableColumn id="22" name="Toothbrush.jpg" dataDxfId="338"/>
+    <tableColumn id="23" name="IceCream.jpg" dataDxfId="337"/>
+    <tableColumn id="24" name="Cola.jpg" dataDxfId="336"/>
+    <tableColumn id="25" name="Vulture.jpg" dataDxfId="335"/>
+    <tableColumn id="26" name="cinema_room.jpg" dataDxfId="334"/>
+    <tableColumn id="27" name="smoking_cigarette.jpg" dataDxfId="333"/>
+    <tableColumn id="28" name="Alpaca.jpg" dataDxfId="332"/>
+    <tableColumn id="29" name="opium_farm.jpg" dataDxfId="331"/>
+    <tableColumn id="30" name="Bike.jpg" dataDxfId="330"/>
+    <tableColumn id="31" name="SoccerGame.jpg" dataDxfId="329"/>
+    <tableColumn id="32" name="Windows.png" dataDxfId="328"/>
+    <tableColumn id="33" name="Yogurt.jpg" dataDxfId="327"/>
+    <tableColumn id="34" name="OpenAirSwimmingPool.jpg" dataDxfId="326"/>
+    <tableColumn id="35" name="airport.jpg" dataDxfId="325"/>
+    <tableColumn id="36" name="eating_women.jpg" dataDxfId="324"/>
+    <tableColumn id="37" name="Bird.jpg" dataDxfId="323"/>
+    <tableColumn id="38" name="PaintBucket.jpg" dataDxfId="322"/>
+    <tableColumn id="39" name="crystal-meth-Methamphetamine.jpg" dataDxfId="321"/>
+    <tableColumn id="40" name="car.jpg" dataDxfId="320"/>
+    <tableColumn id="41" name="SoupBowl.jpg" dataDxfId="319"/>
+    <tableColumn id="42" name="boat.jpg" dataDxfId="318"/>
+    <tableColumn id="43" name="Hedgehog.jpg" dataDxfId="317"/>
+    <tableColumn id="44" name="Butter.jpg" dataDxfId="316"/>
+    <tableColumn id="45" name="lsd.png" dataDxfId="315"/>
+    <tableColumn id="46" name="Pond.jpg" dataDxfId="314"/>
+    <tableColumn id="47" name="Hike.jpg" dataDxfId="313"/>
+    <tableColumn id="48" name="PetrolStation.jpg" dataDxfId="312"/>
+    <tableColumn id="49" name="Grenade.JPG" dataDxfId="311"/>
+    <tableColumn id="50" name="Glock17Gen4.jpg" dataDxfId="310"/>
+    <tableColumn id="51" name="Phone.jpg" dataDxfId="309"/>
+    <tableColumn id="52" name="bike_tour.jpg" dataDxfId="308"/>
+    <tableColumn id="53" name="Bread.jpg" dataDxfId="307"/>
+    <tableColumn id="54" name="Hotel.jpg" dataDxfId="306"/>
+    <tableColumn id="55" name="WashingMachine.JPG" dataDxfId="305"/>
+    <tableColumn id="56" name="runway.jpg" dataDxfId="304"/>
+    <tableColumn id="57" name="Bookshelf.jpg" dataDxfId="303"/>
+    <tableColumn id="58" name="Cheese.jpg" dataDxfId="302"/>
+    <tableColumn id="59" name="drugs.jpg" dataDxfId="301"/>
+    <tableColumn id="60" name="Flag_of_jihad.png" dataDxfId="300"/>
+    <tableColumn id="61" name="Al_Qaida.jpg" dataDxfId="299"/>
+    <tableColumn id="62" name="Apple.jpg" dataDxfId="298"/>
+    <tableColumn id="63" name="soccer_field.jpg" dataDxfId="297"/>
+    <tableColumn id="64" name="SofaBed.jpg" dataDxfId="296"/>
+    <tableColumn id="65" name="Giraffe.jpg" dataDxfId="295"/>
+    <tableColumn id="66" name="party_crowd.jpg" dataDxfId="294"/>
+    <tableColumn id="67" name="Cola.jpg2" dataDxfId="293"/>
+    <tableColumn id="68" name="Beer.jpg" dataDxfId="292"/>
+    <tableColumn id="69" name="children.jpg" dataDxfId="291"/>
+    <tableColumn id="70" name="cocaine.jpg" dataDxfId="290"/>
+    <tableColumn id="71" name="refugeecamp.jpg" dataDxfId="289"/>
+    <tableColumn id="72" name="Car.jpg3" dataDxfId="288"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{641B3629-5B7F-4D36-9B1E-930A179A37A5}" name="densenet201" displayName="densenet201" ref="A4:BT9" totalsRowShown="0">
-  <autoFilter ref="A4:BT9" xr:uid="{8EE75C2D-1073-480C-A969-49E265B1529E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="densenet201" displayName="densenet201" ref="A4:BT9" totalsRowShown="0">
+  <autoFilter ref="A4:BT9"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{B9AD851A-16ED-4D29-9043-B7DA792531FC}" name="DenseNet201" dataDxfId="311"/>
-    <tableColumn id="2" xr3:uid="{E0508655-4259-4EEA-AC85-B9B1D9E49031}" name="Laptop.jpg" dataDxfId="310"/>
-    <tableColumn id="3" xr3:uid="{08291F19-9BB8-45A3-A8A3-D290D89C70E3}" name="SteamLocomotive.jpg" dataDxfId="309"/>
-    <tableColumn id="4" xr3:uid="{9989FC54-56B8-4D31-93F1-A7DE9B77F381}" name="xtc.jpg" dataDxfId="308"/>
-    <tableColumn id="5" xr3:uid="{F21E6CD9-BB37-4572-83A7-E245080EA2CE}" name="heroin.jpg" dataDxfId="307"/>
-    <tableColumn id="6" xr3:uid="{7E69E962-672E-4041-AABF-46F9D25617B3}" name="Avocados.jpg" dataDxfId="306"/>
-    <tableColumn id="7" xr3:uid="{F8E649CF-7537-4DB0-9205-30C55D8ACF2E}" name="pig.jpg" dataDxfId="305"/>
-    <tableColumn id="8" xr3:uid="{C0C19488-64A5-4EA9-B12F-6F6F77A85657}" name="Methamphetamine.png" dataDxfId="304"/>
-    <tableColumn id="9" xr3:uid="{142C9474-25E5-4B5C-9033-AACB658381EE}" name="bomb.jpg" dataDxfId="303"/>
-    <tableColumn id="10" xr3:uid="{EBFEA010-2251-4E2A-B3AC-C8A02613CCED}" name="cannabis.jpg" dataDxfId="302"/>
-    <tableColumn id="11" xr3:uid="{B6AED7C8-2024-4DAA-B196-F25F435D2F4F}" name="knife.png" dataDxfId="301"/>
-    <tableColumn id="12" xr3:uid="{38D5384D-C765-4ECC-8DB5-C706C70E202F}" name="Tractor.jpg" dataDxfId="300"/>
-    <tableColumn id="13" xr3:uid="{F918646A-9E3A-4566-89D9-273B85AD287F}" name="Cellphone.jpg" dataDxfId="299"/>
-    <tableColumn id="14" xr3:uid="{135EAA59-E25D-47FF-8983-293EEDACF3EB}" name="Bananas.jpg" dataDxfId="298"/>
-    <tableColumn id="15" xr3:uid="{3D87A02E-B576-4521-AA8D-7A73ED70C902}" name="Ship.jpg" dataDxfId="297"/>
-    <tableColumn id="16" xr3:uid="{C9D2EA8E-00AD-4D63-AE42-E8F41765F6B1}" name="Popcorn.png" dataDxfId="296"/>
-    <tableColumn id="17" xr3:uid="{0CCF7643-03C2-4B22-8250-E3AC0CC0FC43}" name="Forest.jpg" dataDxfId="295"/>
-    <tableColumn id="18" xr3:uid="{449D360E-4C67-4340-8EE2-5416304567E0}" name="train.jpg" dataDxfId="294"/>
-    <tableColumn id="19" xr3:uid="{8B03C78A-3833-4576-93A0-E43C19E97BE2}" name="Firefighters.jpg" dataDxfId="293"/>
-    <tableColumn id="20" xr3:uid="{160322EE-BFC4-4086-9FBC-8494C43A8288}" name="cocaine.png" dataDxfId="292"/>
-    <tableColumn id="21" xr3:uid="{A8477936-0214-4425-AA63-BE5DFBFCABFF}" name="drug_addict.jpg" dataDxfId="291"/>
-    <tableColumn id="22" xr3:uid="{1F9A4172-3DB6-40F0-B1E5-4F2E65103490}" name="Toothbrush.jpg" dataDxfId="290"/>
-    <tableColumn id="23" xr3:uid="{34259D1E-CE7C-4DD8-AB41-29A9A9850A97}" name="IceCream.jpg" dataDxfId="289"/>
-    <tableColumn id="24" xr3:uid="{B420BDC0-15C1-4551-8E3D-2DA9507CB87F}" name="Cola.jpg" dataDxfId="288"/>
-    <tableColumn id="25" xr3:uid="{06254304-3036-448E-83DD-EE0BAE9C2807}" name="Vulture.jpg" dataDxfId="287"/>
-    <tableColumn id="26" xr3:uid="{302375B5-898C-486D-8E8A-DA8B232EFFCB}" name="cinema_room.jpg" dataDxfId="286"/>
-    <tableColumn id="27" xr3:uid="{08CF0DB1-07F0-49A9-BA48-0D470D114C5A}" name="smoking_cigarette.jpg" dataDxfId="285"/>
-    <tableColumn id="28" xr3:uid="{1A2D4B7A-EF32-4128-9F84-04936C5EFBCC}" name="Alpaca.jpg" dataDxfId="284"/>
-    <tableColumn id="29" xr3:uid="{80CCC984-D878-41EF-A92C-315D823EFE92}" name="opium_farm.jpg" dataDxfId="283"/>
-    <tableColumn id="30" xr3:uid="{4E33FBA3-BF6D-4C0D-9597-5CEC33BC1F4A}" name="Bike.jpg" dataDxfId="282"/>
-    <tableColumn id="31" xr3:uid="{8E571F76-C649-47EF-B346-70AEABC0D4A0}" name="SoccerGame.jpg" dataDxfId="281"/>
-    <tableColumn id="32" xr3:uid="{3F8B86B2-2DA1-484B-B7FC-4050CFD9631F}" name="Windows.png" dataDxfId="280"/>
-    <tableColumn id="33" xr3:uid="{01CD1983-7FEE-48B2-917C-B58E973D04E5}" name="Yogurt.jpg" dataDxfId="279"/>
-    <tableColumn id="34" xr3:uid="{C75FE36A-E065-4EB7-81B8-E7D11ABB38A2}" name="OpenAirSwimmingPool.jpg" dataDxfId="278"/>
-    <tableColumn id="35" xr3:uid="{7B4FB868-57F9-4619-8C7A-91F22FEF8E1F}" name="airport.jpg" dataDxfId="277"/>
-    <tableColumn id="36" xr3:uid="{8528674F-5D8F-4037-B9EF-3A813F042A48}" name="eating_women.jpg" dataDxfId="276"/>
-    <tableColumn id="37" xr3:uid="{12D72FCB-1D1C-4B76-9D80-5514B40AC608}" name="Bird.jpg" dataDxfId="275"/>
-    <tableColumn id="38" xr3:uid="{4088C1FA-C45A-49CA-AAE1-BB95DA9C9D62}" name="PaintBucket.jpg" dataDxfId="274"/>
-    <tableColumn id="39" xr3:uid="{E11EF31F-F9AB-43D2-8323-E35EB5070E73}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="273"/>
-    <tableColumn id="40" xr3:uid="{AE0DE963-1F5D-4786-9D22-97A6826C29FA}" name="car.jpg" dataDxfId="272"/>
-    <tableColumn id="41" xr3:uid="{45D4BDA4-0C6D-4D14-9D11-5EAEA35AD4DE}" name="SoupBowl.jpg" dataDxfId="271"/>
-    <tableColumn id="42" xr3:uid="{DCD4B9E5-2078-4789-B126-A762CF5251E7}" name="boat.jpg" dataDxfId="270"/>
-    <tableColumn id="43" xr3:uid="{37F76B0C-FC45-44D1-A24B-7BD4BE404143}" name="Hedgehog.jpg" dataDxfId="269"/>
-    <tableColumn id="44" xr3:uid="{3B29661A-8FC0-4A9D-BCA0-0A1F2C1042FD}" name="Butter.jpg" dataDxfId="268"/>
-    <tableColumn id="45" xr3:uid="{07C16528-0C8C-479D-89B9-E82E8DB607F0}" name="lsd.png" dataDxfId="267"/>
-    <tableColumn id="46" xr3:uid="{D7487731-3F8D-4A2D-ADC4-9B289CC19AB6}" name="Pond.jpg" dataDxfId="266"/>
-    <tableColumn id="47" xr3:uid="{11BB9138-5B1E-4FE5-8433-275AACB4DADE}" name="Hike.jpg" dataDxfId="265"/>
-    <tableColumn id="48" xr3:uid="{0F7415DC-B156-418E-BBD1-499E80DDEB0D}" name="PetrolStation.jpg" dataDxfId="264"/>
-    <tableColumn id="49" xr3:uid="{56E2E45E-2AEA-4F8C-93AD-F63826C05412}" name="Grenade.JPG" dataDxfId="263"/>
-    <tableColumn id="50" xr3:uid="{4705808E-56B7-473B-BA8F-D0EB66ED3427}" name="Glock17Gen4.jpg" dataDxfId="262"/>
-    <tableColumn id="51" xr3:uid="{90FAFE72-69A2-43E3-BC2C-AE1E576231E9}" name="Phone.jpg" dataDxfId="261"/>
-    <tableColumn id="52" xr3:uid="{B4806AD1-71F7-4F50-BFFE-EEBD8EE47BAA}" name="bike_tour.jpg" dataDxfId="260"/>
-    <tableColumn id="53" xr3:uid="{BA530DDB-28C8-4787-BA6D-41328DFE3997}" name="Bread.jpg" dataDxfId="259"/>
-    <tableColumn id="54" xr3:uid="{08351F4A-BE90-48B1-ABB0-2331DF98E2E9}" name="Hotel.jpg" dataDxfId="258"/>
-    <tableColumn id="55" xr3:uid="{AD78C452-7C28-4069-B9B8-4D7F6E2BB058}" name="WashingMachine.JPG" dataDxfId="257"/>
-    <tableColumn id="56" xr3:uid="{0FA6ECB5-BA81-436F-BBCA-4C381B611A4A}" name="runway.jpg" dataDxfId="256"/>
-    <tableColumn id="57" xr3:uid="{A57D3BF7-543D-4A93-A455-5085E28EF0D1}" name="Bookshelf.jpg" dataDxfId="255"/>
-    <tableColumn id="58" xr3:uid="{56601B0D-8E35-4F1C-9C72-1DC022E8FC0F}" name="Cheese.jpg" dataDxfId="254"/>
-    <tableColumn id="59" xr3:uid="{97D5E828-C6AB-47D7-8785-E2EE3A1DEE0C}" name="drugs.jpg" dataDxfId="253"/>
-    <tableColumn id="60" xr3:uid="{24E9B7F0-2ABB-4EBC-8716-B55FC3B24812}" name="Flag_of_jihad.png" dataDxfId="252"/>
-    <tableColumn id="61" xr3:uid="{E2C94916-C6C3-40A6-8535-78B855A57F6D}" name="Al_Qaida.jpg" dataDxfId="251"/>
-    <tableColumn id="62" xr3:uid="{1E9B289E-8B92-4BD8-BDDA-F49FAEAAEFD6}" name="Apple.jpg" dataDxfId="250"/>
-    <tableColumn id="63" xr3:uid="{5A48D858-031C-48AA-8361-28F8BDFB5783}" name="soccer_field.jpg" dataDxfId="249"/>
-    <tableColumn id="64" xr3:uid="{E9229AE3-22ED-4528-982A-E9EA29BDE13A}" name="SofaBed.jpg" dataDxfId="248"/>
-    <tableColumn id="65" xr3:uid="{CFE204FE-3D6E-4040-994D-615F15E5D539}" name="Giraffe.jpg" dataDxfId="247"/>
-    <tableColumn id="66" xr3:uid="{6282C4C1-8C6A-43DC-846C-CCBE15B10D46}" name="party_crowd.jpg" dataDxfId="246"/>
-    <tableColumn id="67" xr3:uid="{CF5FF284-4449-402C-86A1-B5FCE0BE1AF0}" name="Cola.jpg2" dataDxfId="245"/>
-    <tableColumn id="68" xr3:uid="{26DD449F-63D0-416F-ABBD-0E914A5DAFC1}" name="Beer.jpg" dataDxfId="244"/>
-    <tableColumn id="69" xr3:uid="{E9660F85-B2AF-4614-BF44-21231D2EB4B2}" name="children.jpg" dataDxfId="243"/>
-    <tableColumn id="70" xr3:uid="{F173A912-95B8-4ED0-8A19-D49EBBDBF121}" name="cocaine.jpg" dataDxfId="242"/>
-    <tableColumn id="71" xr3:uid="{C27794D2-B4C6-4D98-90DC-FBEBBF1E9529}" name="refugeecamp.jpg" dataDxfId="241"/>
-    <tableColumn id="72" xr3:uid="{7B9ECC20-0B71-4BE0-A8A2-E2D6E65D4945}" name="Car.jpg3" dataDxfId="240"/>
+    <tableColumn id="1" name="DenseNet201" dataDxfId="287"/>
+    <tableColumn id="2" name="Laptop.jpg" dataDxfId="286"/>
+    <tableColumn id="3" name="SteamLocomotive.jpg" dataDxfId="285"/>
+    <tableColumn id="4" name="xtc.jpg" dataDxfId="284"/>
+    <tableColumn id="5" name="heroin.jpg" dataDxfId="283"/>
+    <tableColumn id="6" name="Avocados.jpg" dataDxfId="282"/>
+    <tableColumn id="7" name="pig.jpg" dataDxfId="281"/>
+    <tableColumn id="8" name="Methamphetamine.png" dataDxfId="280"/>
+    <tableColumn id="9" name="bomb.jpg" dataDxfId="279"/>
+    <tableColumn id="10" name="cannabis.jpg" dataDxfId="278"/>
+    <tableColumn id="11" name="knife.png" dataDxfId="277"/>
+    <tableColumn id="12" name="Tractor.jpg" dataDxfId="276"/>
+    <tableColumn id="13" name="Cellphone.jpg" dataDxfId="275"/>
+    <tableColumn id="14" name="Bananas.jpg" dataDxfId="274"/>
+    <tableColumn id="15" name="Ship.jpg" dataDxfId="273"/>
+    <tableColumn id="16" name="Popcorn.png" dataDxfId="272"/>
+    <tableColumn id="17" name="Forest.jpg" dataDxfId="271"/>
+    <tableColumn id="18" name="train.jpg" dataDxfId="270"/>
+    <tableColumn id="19" name="Firefighters.jpg" dataDxfId="269"/>
+    <tableColumn id="20" name="cocaine.png" dataDxfId="268"/>
+    <tableColumn id="21" name="drug_addict.jpg" dataDxfId="267"/>
+    <tableColumn id="22" name="Toothbrush.jpg" dataDxfId="266"/>
+    <tableColumn id="23" name="IceCream.jpg" dataDxfId="265"/>
+    <tableColumn id="24" name="Cola.jpg" dataDxfId="264"/>
+    <tableColumn id="25" name="Vulture.jpg" dataDxfId="263"/>
+    <tableColumn id="26" name="cinema_room.jpg" dataDxfId="262"/>
+    <tableColumn id="27" name="smoking_cigarette.jpg" dataDxfId="261"/>
+    <tableColumn id="28" name="Alpaca.jpg" dataDxfId="260"/>
+    <tableColumn id="29" name="opium_farm.jpg" dataDxfId="259"/>
+    <tableColumn id="30" name="Bike.jpg" dataDxfId="258"/>
+    <tableColumn id="31" name="SoccerGame.jpg" dataDxfId="257"/>
+    <tableColumn id="32" name="Windows.png" dataDxfId="256"/>
+    <tableColumn id="33" name="Yogurt.jpg" dataDxfId="255"/>
+    <tableColumn id="34" name="OpenAirSwimmingPool.jpg" dataDxfId="254"/>
+    <tableColumn id="35" name="airport.jpg" dataDxfId="253"/>
+    <tableColumn id="36" name="eating_women.jpg" dataDxfId="252"/>
+    <tableColumn id="37" name="Bird.jpg" dataDxfId="251"/>
+    <tableColumn id="38" name="PaintBucket.jpg" dataDxfId="250"/>
+    <tableColumn id="39" name="crystal-meth-Methamphetamine.jpg" dataDxfId="249"/>
+    <tableColumn id="40" name="car.jpg" dataDxfId="248"/>
+    <tableColumn id="41" name="SoupBowl.jpg" dataDxfId="247"/>
+    <tableColumn id="42" name="boat.jpg" dataDxfId="246"/>
+    <tableColumn id="43" name="Hedgehog.jpg" dataDxfId="245"/>
+    <tableColumn id="44" name="Butter.jpg" dataDxfId="244"/>
+    <tableColumn id="45" name="lsd.png" dataDxfId="243"/>
+    <tableColumn id="46" name="Pond.jpg" dataDxfId="242"/>
+    <tableColumn id="47" name="Hike.jpg" dataDxfId="241"/>
+    <tableColumn id="48" name="PetrolStation.jpg" dataDxfId="240"/>
+    <tableColumn id="49" name="Grenade.JPG" dataDxfId="239"/>
+    <tableColumn id="50" name="Glock17Gen4.jpg" dataDxfId="238"/>
+    <tableColumn id="51" name="Phone.jpg" dataDxfId="237"/>
+    <tableColumn id="52" name="bike_tour.jpg" dataDxfId="236"/>
+    <tableColumn id="53" name="Bread.jpg" dataDxfId="235"/>
+    <tableColumn id="54" name="Hotel.jpg" dataDxfId="234"/>
+    <tableColumn id="55" name="WashingMachine.JPG" dataDxfId="233"/>
+    <tableColumn id="56" name="runway.jpg" dataDxfId="232"/>
+    <tableColumn id="57" name="Bookshelf.jpg" dataDxfId="231"/>
+    <tableColumn id="58" name="Cheese.jpg" dataDxfId="230"/>
+    <tableColumn id="59" name="drugs.jpg" dataDxfId="229"/>
+    <tableColumn id="60" name="Flag_of_jihad.png" dataDxfId="228"/>
+    <tableColumn id="61" name="Al_Qaida.jpg" dataDxfId="227"/>
+    <tableColumn id="62" name="Apple.jpg" dataDxfId="226"/>
+    <tableColumn id="63" name="soccer_field.jpg" dataDxfId="225"/>
+    <tableColumn id="64" name="SofaBed.jpg" dataDxfId="224"/>
+    <tableColumn id="65" name="Giraffe.jpg" dataDxfId="223"/>
+    <tableColumn id="66" name="party_crowd.jpg" dataDxfId="222"/>
+    <tableColumn id="67" name="Cola.jpg2" dataDxfId="221"/>
+    <tableColumn id="68" name="Beer.jpg" dataDxfId="220"/>
+    <tableColumn id="69" name="children.jpg" dataDxfId="219"/>
+    <tableColumn id="70" name="cocaine.jpg" dataDxfId="218"/>
+    <tableColumn id="71" name="refugeecamp.jpg" dataDxfId="217"/>
+    <tableColumn id="72" name="Car.jpg3" dataDxfId="216"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1B4B9D34-5DFA-4F7F-B3A9-0F39888E40CD}" name="inception_v3" displayName="inception_v3" ref="A4:BT9" totalsRowShown="0">
-  <autoFilter ref="A4:BT9" xr:uid="{09876B25-07C1-4BB6-AD39-D5C64234065D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="inception_v3" displayName="inception_v3" ref="A4:BT9" totalsRowShown="0">
+  <autoFilter ref="A4:BT9"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{39B3357A-8036-45C0-BA62-7AD98C55E97A}" name="InceptionV3" dataDxfId="239"/>
-    <tableColumn id="2" xr3:uid="{55BB7E90-B0B8-4BDE-806B-F2BBF065CD50}" name="Laptop.jpg" dataDxfId="238"/>
-    <tableColumn id="3" xr3:uid="{0E0D2C53-3642-4C61-AE95-A73F1FD3AF9C}" name="SteamLocomotive.jpg" dataDxfId="237"/>
-    <tableColumn id="4" xr3:uid="{0D6005E4-EE78-454A-BACC-24BE4EBC70E9}" name="xtc.jpg" dataDxfId="236"/>
-    <tableColumn id="5" xr3:uid="{F1F897EF-0F67-45AA-816B-A18129BC9BB6}" name="heroin.jpg" dataDxfId="235"/>
-    <tableColumn id="6" xr3:uid="{0F8B52E6-F5D2-4FC7-8AAF-10363C7BEF42}" name="Avocados.jpg" dataDxfId="234"/>
-    <tableColumn id="7" xr3:uid="{8F85066F-7B41-4190-93E9-DDFEF6E84A6D}" name="pig.jpg" dataDxfId="233"/>
-    <tableColumn id="8" xr3:uid="{04FF2D72-B66E-477A-9CE2-FB77D4F72BC3}" name="Methamphetamine.png" dataDxfId="232"/>
-    <tableColumn id="9" xr3:uid="{BF35FB74-3FBE-4EBC-BE8E-CEB54E191AF2}" name="bomb.jpg" dataDxfId="231"/>
-    <tableColumn id="10" xr3:uid="{90298541-C789-4937-8C35-5E591F584401}" name="cannabis.jpg" dataDxfId="230"/>
-    <tableColumn id="11" xr3:uid="{C3012CD8-787A-4F24-BD90-3854AFEEA3BE}" name="knife.png" dataDxfId="229"/>
-    <tableColumn id="12" xr3:uid="{C2C10FE4-2FC2-46BB-BC66-8D68B6D4CDB2}" name="Tractor.jpg" dataDxfId="228"/>
-    <tableColumn id="13" xr3:uid="{EF836358-E3E4-44F2-8C7F-395BBF5CE41B}" name="Cellphone.jpg" dataDxfId="227"/>
-    <tableColumn id="14" xr3:uid="{C93CB923-8FBD-4C08-9D7B-45D3621985DB}" name="Bananas.jpg" dataDxfId="226"/>
-    <tableColumn id="15" xr3:uid="{0DDE47BB-2E22-48C9-B95F-8ED88BA2F4F4}" name="Ship.jpg" dataDxfId="225"/>
-    <tableColumn id="16" xr3:uid="{4A48E265-1653-4915-988A-513316474A8B}" name="Popcorn.png" dataDxfId="224"/>
-    <tableColumn id="17" xr3:uid="{F3C63D77-1D58-4DC0-BD26-27668D607A87}" name="Forest.jpg" dataDxfId="223"/>
-    <tableColumn id="18" xr3:uid="{E236DCB9-F161-49A0-9046-A3D6F7C343E2}" name="train.jpg" dataDxfId="222"/>
-    <tableColumn id="19" xr3:uid="{0EE9AA84-0295-44E8-8838-0C23F9F70E18}" name="Firefighters.jpg" dataDxfId="221"/>
-    <tableColumn id="20" xr3:uid="{6B4487D5-9093-4DAE-9410-1D5B0343728D}" name="cocaine.png" dataDxfId="220"/>
-    <tableColumn id="21" xr3:uid="{BD224F98-F012-49A8-A7EB-D692C8440DAF}" name="drug_addict.jpg" dataDxfId="219"/>
-    <tableColumn id="22" xr3:uid="{934773D6-5BAF-4D56-B28C-D9067FA52545}" name="Toothbrush.jpg" dataDxfId="218"/>
-    <tableColumn id="23" xr3:uid="{E01C7828-2689-4186-8987-1A01874D6FD7}" name="IceCream.jpg" dataDxfId="217"/>
-    <tableColumn id="24" xr3:uid="{A241D0C4-32D5-48C3-84EE-8C38DF748B21}" name="Cola.jpg" dataDxfId="216"/>
-    <tableColumn id="25" xr3:uid="{CF76BDF1-7E09-4262-9FDD-84B47E63BA35}" name="Vulture.jpg" dataDxfId="215"/>
-    <tableColumn id="26" xr3:uid="{90DF0A0B-735F-4D5B-9886-40A4AC5E554A}" name="cinema_room.jpg" dataDxfId="214"/>
-    <tableColumn id="27" xr3:uid="{5C823B8E-7C56-49C0-82EC-D6DED989FD1E}" name="smoking_cigarette.jpg" dataDxfId="213"/>
-    <tableColumn id="28" xr3:uid="{FF0FDF6B-84CF-4FD2-8FF9-7CB253083682}" name="Alpaca.jpg" dataDxfId="212"/>
-    <tableColumn id="29" xr3:uid="{5CB95546-DD9C-4A70-9C96-7758CC0A2972}" name="opium_farm.jpg" dataDxfId="211"/>
-    <tableColumn id="30" xr3:uid="{16E6B664-BCE8-44D9-9AFA-5A9AEF01C2B2}" name="Bike.jpg" dataDxfId="210"/>
-    <tableColumn id="31" xr3:uid="{7F0AB83D-2C36-4418-A617-9F1AE06812FA}" name="SoccerGame.jpg" dataDxfId="209"/>
-    <tableColumn id="32" xr3:uid="{81CB78C0-7626-49C9-B8EF-7C9E74A7DADB}" name="Windows.png" dataDxfId="208"/>
-    <tableColumn id="33" xr3:uid="{50F57E30-5872-4533-8A4F-C76D6B0F1CB3}" name="Yogurt.jpg" dataDxfId="207"/>
-    <tableColumn id="34" xr3:uid="{0ADBC01F-541A-45D1-A35F-39A9C67F0AB8}" name="OpenAirSwimmingPool.jpg" dataDxfId="206"/>
-    <tableColumn id="35" xr3:uid="{CD080962-D5B6-4EB2-B06F-26AD2259A09C}" name="airport.jpg" dataDxfId="205"/>
-    <tableColumn id="36" xr3:uid="{564A1D37-D623-421B-A8A0-2714E2EBD424}" name="eating_women.jpg" dataDxfId="204"/>
-    <tableColumn id="37" xr3:uid="{AEA34BFA-2FBE-4E82-9CB8-0B1998F77DF4}" name="Bird.jpg" dataDxfId="203"/>
-    <tableColumn id="38" xr3:uid="{3661E67D-2252-49AA-954A-A4C57726D2CD}" name="PaintBucket.jpg" dataDxfId="202"/>
-    <tableColumn id="39" xr3:uid="{484EA7D4-FEA5-4BBE-83A6-826011D3C628}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="201"/>
-    <tableColumn id="40" xr3:uid="{98E0210E-7E10-4AFC-BEF2-811A992A65F4}" name="car.jpg" dataDxfId="200"/>
-    <tableColumn id="41" xr3:uid="{7B73327D-D8FE-4B3A-8836-486C1028BA45}" name="SoupBowl.jpg" dataDxfId="199"/>
-    <tableColumn id="42" xr3:uid="{02EACEF8-A795-4584-B4DB-E28733DDF95F}" name="boat.jpg" dataDxfId="198"/>
-    <tableColumn id="43" xr3:uid="{2DA4743A-9163-4E8F-93E9-4184427321EA}" name="Hedgehog.jpg" dataDxfId="197"/>
-    <tableColumn id="44" xr3:uid="{23776AF4-3882-464F-A356-2D6CA865303C}" name="Butter.jpg" dataDxfId="196"/>
-    <tableColumn id="45" xr3:uid="{5A7AA733-CD2B-43BF-8C97-7EEACA4000A6}" name="lsd.png" dataDxfId="195"/>
-    <tableColumn id="46" xr3:uid="{8CA1234E-4A08-4039-811C-2CADBAD5CA6E}" name="Pond.jpg" dataDxfId="194"/>
-    <tableColumn id="47" xr3:uid="{351505E9-92F3-4221-A5EC-F3BD09D80B1D}" name="Hike.jpg" dataDxfId="193"/>
-    <tableColumn id="48" xr3:uid="{E57512C4-B723-4E93-8487-5A621823181C}" name="PetrolStation.jpg" dataDxfId="192"/>
-    <tableColumn id="49" xr3:uid="{E9CC1C6E-5A66-4940-A009-CAD325A528E6}" name="Grenade.JPG" dataDxfId="191"/>
-    <tableColumn id="50" xr3:uid="{A9C6034C-D864-4D43-B9E7-06C715988459}" name="Glock17Gen4.jpg" dataDxfId="190"/>
-    <tableColumn id="51" xr3:uid="{66D7B6BB-4486-46CF-955F-744EE8DFBA9F}" name="Phone.jpg" dataDxfId="189"/>
-    <tableColumn id="52" xr3:uid="{BE9A4BCA-643E-480C-B882-A5366456D979}" name="bike_tour.jpg" dataDxfId="188"/>
-    <tableColumn id="53" xr3:uid="{5DC70A50-ED6B-4A6C-A3E4-70DB2404545B}" name="Bread.jpg" dataDxfId="187"/>
-    <tableColumn id="54" xr3:uid="{2546D2E9-CF6C-4999-A461-081A312D7C22}" name="Hotel.jpg" dataDxfId="186"/>
-    <tableColumn id="55" xr3:uid="{6334CD31-CFF4-4DD4-B718-06CAA56E6633}" name="WashingMachine.JPG" dataDxfId="185"/>
-    <tableColumn id="56" xr3:uid="{A523CE74-F427-40AB-B06A-520548B1F271}" name="runway.jpg" dataDxfId="184"/>
-    <tableColumn id="57" xr3:uid="{15666204-884D-480B-8F75-0D1EF5076B75}" name="Bookshelf.jpg" dataDxfId="183"/>
-    <tableColumn id="58" xr3:uid="{AC49B50B-7723-448F-B235-AB907A1F28DE}" name="Cheese.jpg" dataDxfId="182"/>
-    <tableColumn id="59" xr3:uid="{9EB92D82-B997-4A4C-AA39-BF8EA5A592E7}" name="drugs.jpg" dataDxfId="181"/>
-    <tableColumn id="60" xr3:uid="{809FA4FB-156E-4539-8B76-6F64E2C7012A}" name="Flag_of_jihad.png" dataDxfId="180"/>
-    <tableColumn id="61" xr3:uid="{B07277A5-03C2-44EE-8333-7FB7E3B10A4C}" name="Al_Qaida.jpg" dataDxfId="179"/>
-    <tableColumn id="62" xr3:uid="{A4CD9889-0974-4657-8E4B-3A5CB153175E}" name="Apple.jpg" dataDxfId="178"/>
-    <tableColumn id="63" xr3:uid="{EFE82791-6385-4D27-9737-E98C74F62BB5}" name="soccer_field.jpg" dataDxfId="177"/>
-    <tableColumn id="64" xr3:uid="{4F9EC11A-6C7B-494A-BCC0-5F260711C7D3}" name="SofaBed.jpg" dataDxfId="176"/>
-    <tableColumn id="65" xr3:uid="{E15B432E-2D85-49B5-A383-45E616E81900}" name="Giraffe.jpg" dataDxfId="175"/>
-    <tableColumn id="66" xr3:uid="{70647898-2D21-439E-AFE8-6D21E3F99D5E}" name="party_crowd.jpg" dataDxfId="174"/>
-    <tableColumn id="67" xr3:uid="{395E71B6-095D-4FD1-A5BD-C1C1665535F9}" name="Cola.jpg2" dataDxfId="173"/>
-    <tableColumn id="68" xr3:uid="{6ABEEF60-33F5-437D-B513-E10E8BEE3EF6}" name="Beer.jpg" dataDxfId="172"/>
-    <tableColumn id="69" xr3:uid="{9C2BACF4-A679-4DB4-B36D-5A4001BD0C1E}" name="children.jpg" dataDxfId="171"/>
-    <tableColumn id="70" xr3:uid="{B5847919-1EA0-48DA-9E73-9950EEA33982}" name="cocaine.jpg" dataDxfId="170"/>
-    <tableColumn id="71" xr3:uid="{3CED00FE-E21C-4624-9418-2AC8481A6EE1}" name="refugeecamp.jpg" dataDxfId="169"/>
-    <tableColumn id="72" xr3:uid="{8C8FCDA6-E608-4C57-B479-D88A2C37ACA5}" name="Car.jpg3" dataDxfId="168"/>
+    <tableColumn id="1" name="InceptionV3" dataDxfId="215"/>
+    <tableColumn id="2" name="Laptop.jpg" dataDxfId="214"/>
+    <tableColumn id="3" name="SteamLocomotive.jpg" dataDxfId="213"/>
+    <tableColumn id="4" name="xtc.jpg" dataDxfId="212"/>
+    <tableColumn id="5" name="heroin.jpg" dataDxfId="211"/>
+    <tableColumn id="6" name="Avocados.jpg" dataDxfId="210"/>
+    <tableColumn id="7" name="pig.jpg" dataDxfId="209"/>
+    <tableColumn id="8" name="Methamphetamine.png" dataDxfId="208"/>
+    <tableColumn id="9" name="bomb.jpg" dataDxfId="207"/>
+    <tableColumn id="10" name="cannabis.jpg" dataDxfId="206"/>
+    <tableColumn id="11" name="knife.png" dataDxfId="205"/>
+    <tableColumn id="12" name="Tractor.jpg" dataDxfId="204"/>
+    <tableColumn id="13" name="Cellphone.jpg" dataDxfId="203"/>
+    <tableColumn id="14" name="Bananas.jpg" dataDxfId="202"/>
+    <tableColumn id="15" name="Ship.jpg" dataDxfId="201"/>
+    <tableColumn id="16" name="Popcorn.png" dataDxfId="200"/>
+    <tableColumn id="17" name="Forest.jpg" dataDxfId="199"/>
+    <tableColumn id="18" name="train.jpg" dataDxfId="198"/>
+    <tableColumn id="19" name="Firefighters.jpg" dataDxfId="197"/>
+    <tableColumn id="20" name="cocaine.png" dataDxfId="196"/>
+    <tableColumn id="21" name="drug_addict.jpg" dataDxfId="195"/>
+    <tableColumn id="22" name="Toothbrush.jpg" dataDxfId="194"/>
+    <tableColumn id="23" name="IceCream.jpg" dataDxfId="193"/>
+    <tableColumn id="24" name="Cola.jpg" dataDxfId="192"/>
+    <tableColumn id="25" name="Vulture.jpg" dataDxfId="191"/>
+    <tableColumn id="26" name="cinema_room.jpg" dataDxfId="190"/>
+    <tableColumn id="27" name="smoking_cigarette.jpg" dataDxfId="189"/>
+    <tableColumn id="28" name="Alpaca.jpg" dataDxfId="188"/>
+    <tableColumn id="29" name="opium_farm.jpg" dataDxfId="187"/>
+    <tableColumn id="30" name="Bike.jpg" dataDxfId="186"/>
+    <tableColumn id="31" name="SoccerGame.jpg" dataDxfId="185"/>
+    <tableColumn id="32" name="Windows.png" dataDxfId="184"/>
+    <tableColumn id="33" name="Yogurt.jpg" dataDxfId="183"/>
+    <tableColumn id="34" name="OpenAirSwimmingPool.jpg" dataDxfId="182"/>
+    <tableColumn id="35" name="airport.jpg" dataDxfId="181"/>
+    <tableColumn id="36" name="eating_women.jpg" dataDxfId="180"/>
+    <tableColumn id="37" name="Bird.jpg" dataDxfId="179"/>
+    <tableColumn id="38" name="PaintBucket.jpg" dataDxfId="178"/>
+    <tableColumn id="39" name="crystal-meth-Methamphetamine.jpg" dataDxfId="177"/>
+    <tableColumn id="40" name="car.jpg" dataDxfId="176"/>
+    <tableColumn id="41" name="SoupBowl.jpg" dataDxfId="175"/>
+    <tableColumn id="42" name="boat.jpg" dataDxfId="174"/>
+    <tableColumn id="43" name="Hedgehog.jpg" dataDxfId="173"/>
+    <tableColumn id="44" name="Butter.jpg" dataDxfId="172"/>
+    <tableColumn id="45" name="lsd.png" dataDxfId="171"/>
+    <tableColumn id="46" name="Pond.jpg" dataDxfId="170"/>
+    <tableColumn id="47" name="Hike.jpg" dataDxfId="169"/>
+    <tableColumn id="48" name="PetrolStation.jpg" dataDxfId="168"/>
+    <tableColumn id="49" name="Grenade.JPG" dataDxfId="167"/>
+    <tableColumn id="50" name="Glock17Gen4.jpg" dataDxfId="166"/>
+    <tableColumn id="51" name="Phone.jpg" dataDxfId="165"/>
+    <tableColumn id="52" name="bike_tour.jpg" dataDxfId="164"/>
+    <tableColumn id="53" name="Bread.jpg" dataDxfId="163"/>
+    <tableColumn id="54" name="Hotel.jpg" dataDxfId="162"/>
+    <tableColumn id="55" name="WashingMachine.JPG" dataDxfId="161"/>
+    <tableColumn id="56" name="runway.jpg" dataDxfId="160"/>
+    <tableColumn id="57" name="Bookshelf.jpg" dataDxfId="159"/>
+    <tableColumn id="58" name="Cheese.jpg" dataDxfId="158"/>
+    <tableColumn id="59" name="drugs.jpg" dataDxfId="157"/>
+    <tableColumn id="60" name="Flag_of_jihad.png" dataDxfId="156"/>
+    <tableColumn id="61" name="Al_Qaida.jpg" dataDxfId="155"/>
+    <tableColumn id="62" name="Apple.jpg" dataDxfId="154"/>
+    <tableColumn id="63" name="soccer_field.jpg" dataDxfId="153"/>
+    <tableColumn id="64" name="SofaBed.jpg" dataDxfId="152"/>
+    <tableColumn id="65" name="Giraffe.jpg" dataDxfId="151"/>
+    <tableColumn id="66" name="party_crowd.jpg" dataDxfId="150"/>
+    <tableColumn id="67" name="Cola.jpg2" dataDxfId="149"/>
+    <tableColumn id="68" name="Beer.jpg" dataDxfId="148"/>
+    <tableColumn id="69" name="children.jpg" dataDxfId="147"/>
+    <tableColumn id="70" name="cocaine.jpg" dataDxfId="146"/>
+    <tableColumn id="71" name="refugeecamp.jpg" dataDxfId="145"/>
+    <tableColumn id="72" name="Car.jpg3" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9E4517C4-22A6-451B-8523-B611D84B38C4}" name="xception" displayName="xception" ref="A4:BT9" totalsRowShown="0">
-  <autoFilter ref="A4:BT9" xr:uid="{F445CAEE-7D19-4E7A-BF76-EFEE5BD74C6B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="xception" displayName="xception" ref="A4:BT9" totalsRowShown="0">
+  <autoFilter ref="A4:BT9"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{9768DAF6-62F7-4786-B49A-9E2CE533ECCE}" name="Xception" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{0273EE22-9CE2-4E17-8B4F-23FE54DD9A5F}" name="Laptop.jpg" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{EAE40ADB-1A99-4301-B2B9-6D069ACE00C5}" name="SteamLocomotive.jpg" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{9EAFB7A5-914E-476D-A7C3-BA3DD1D160A9}" name="xtc.jpg" dataDxfId="164"/>
-    <tableColumn id="5" xr3:uid="{9BA0ADFD-C927-4A4A-97A1-2283ED4C979B}" name="heroin.jpg" dataDxfId="163"/>
-    <tableColumn id="6" xr3:uid="{DA81A7DA-23AA-4401-9CEF-ACE65E278B5E}" name="Avocados.jpg" dataDxfId="162"/>
-    <tableColumn id="7" xr3:uid="{1CA0504E-0D35-4A49-8F78-A7CCD8CA9A44}" name="pig.jpg" dataDxfId="161"/>
-    <tableColumn id="8" xr3:uid="{3D91FC20-86F1-464E-9003-97EC5CB80D41}" name="Methamphetamine.png" dataDxfId="160"/>
-    <tableColumn id="9" xr3:uid="{2469A395-EB4E-47A4-9E3D-DC38DC7F2E2E}" name="bomb.jpg" dataDxfId="159"/>
-    <tableColumn id="10" xr3:uid="{8C481916-811B-40E6-90DB-3F765F7E2F7A}" name="cannabis.jpg" dataDxfId="158"/>
-    <tableColumn id="11" xr3:uid="{60482368-685D-4521-B8FA-72787A53C494}" name="knife.png" dataDxfId="157"/>
-    <tableColumn id="12" xr3:uid="{37C5861D-B8E9-4972-A4DB-08BFA4053A59}" name="Tractor.jpg" dataDxfId="156"/>
-    <tableColumn id="13" xr3:uid="{54CD78F5-1AAF-4745-B852-4A7CCB6089CF}" name="Cellphone.jpg" dataDxfId="155"/>
-    <tableColumn id="14" xr3:uid="{2AC14DCF-A036-4949-A082-5D7224538A3B}" name="Bananas.jpg" dataDxfId="154"/>
-    <tableColumn id="15" xr3:uid="{20A7CCCC-F329-4095-8A17-76133D72B625}" name="Ship.jpg" dataDxfId="153"/>
-    <tableColumn id="16" xr3:uid="{30EE6790-4FBA-477C-B247-A3D968501C47}" name="Popcorn.png" dataDxfId="152"/>
-    <tableColumn id="17" xr3:uid="{8BB5B13B-A566-4793-8968-235ADEE8537F}" name="Forest.jpg" dataDxfId="151"/>
-    <tableColumn id="18" xr3:uid="{C73AA436-58A7-4485-BB4F-C087653E07DF}" name="train.jpg" dataDxfId="150"/>
-    <tableColumn id="19" xr3:uid="{CC363BFC-9C46-4533-B606-F4BF3412646A}" name="Firefighters.jpg" dataDxfId="149"/>
-    <tableColumn id="20" xr3:uid="{B100F0D3-57F7-446B-A757-9943540DD059}" name="cocaine.png" dataDxfId="148"/>
-    <tableColumn id="21" xr3:uid="{803AC400-3032-467B-A431-170556012B07}" name="drug_addict.jpg" dataDxfId="147"/>
-    <tableColumn id="22" xr3:uid="{E6113BAA-EA37-4AD8-A381-FEAC3D09A6F2}" name="Toothbrush.jpg" dataDxfId="146"/>
-    <tableColumn id="23" xr3:uid="{D66D69D1-67FE-45CD-AF29-BF90D1554E97}" name="IceCream.jpg" dataDxfId="145"/>
-    <tableColumn id="24" xr3:uid="{0FE320A9-B21F-4AE8-A11A-E2E6C235A1BA}" name="Cola.jpg" dataDxfId="144"/>
-    <tableColumn id="25" xr3:uid="{9D36D332-6B78-4784-927A-A86407EA365B}" name="Vulture.jpg" dataDxfId="143"/>
-    <tableColumn id="26" xr3:uid="{BE547A34-7594-4029-9128-7DDDF57BEA72}" name="cinema_room.jpg" dataDxfId="142"/>
-    <tableColumn id="27" xr3:uid="{ABB7216E-05C4-4C65-89AE-E14033179EFD}" name="smoking_cigarette.jpg" dataDxfId="141"/>
-    <tableColumn id="28" xr3:uid="{B5C1C435-AC53-4B34-9113-C7E63056B160}" name="Alpaca.jpg" dataDxfId="140"/>
-    <tableColumn id="29" xr3:uid="{29E23140-04BE-45CD-892C-63F1EC4B5985}" name="opium_farm.jpg" dataDxfId="139"/>
-    <tableColumn id="30" xr3:uid="{7C502E34-11BD-44FD-BFC6-A85DF0045C6E}" name="Bike.jpg" dataDxfId="138"/>
-    <tableColumn id="31" xr3:uid="{D7B1CFD4-53D3-4C32-AB30-E22635FBC23D}" name="SoccerGame.jpg" dataDxfId="137"/>
-    <tableColumn id="32" xr3:uid="{150EF456-F3F3-4291-A753-55EF8BB2835F}" name="Windows.png" dataDxfId="136"/>
-    <tableColumn id="33" xr3:uid="{017B01F0-03B2-4246-9C1E-6A738292DCEC}" name="Yogurt.jpg" dataDxfId="135"/>
-    <tableColumn id="34" xr3:uid="{0A7BBCDB-F861-4AC5-8B5B-EF0465977FB1}" name="OpenAirSwimmingPool.jpg" dataDxfId="134"/>
-    <tableColumn id="35" xr3:uid="{BD577E7A-EDE6-441A-93FB-5CCB8BFC7415}" name="airport.jpg" dataDxfId="133"/>
-    <tableColumn id="36" xr3:uid="{AD381508-8E0F-47A5-AF25-86BD381A051D}" name="eating_women.jpg" dataDxfId="132"/>
-    <tableColumn id="37" xr3:uid="{B804F56A-7D5D-4115-9FA6-7812FEA225D2}" name="Bird.jpg" dataDxfId="131"/>
-    <tableColumn id="38" xr3:uid="{850350DB-2495-4A31-8487-A4C6A2245A51}" name="PaintBucket.jpg" dataDxfId="130"/>
-    <tableColumn id="39" xr3:uid="{1DFA7F0E-ACDE-4F17-828F-AB2778AFACE3}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="129"/>
-    <tableColumn id="40" xr3:uid="{5753959F-85D7-4F22-B664-4D9F3976D056}" name="car.jpg" dataDxfId="128"/>
-    <tableColumn id="41" xr3:uid="{74265639-90B2-46CA-9FDF-887566E83EE1}" name="SoupBowl.jpg" dataDxfId="127"/>
-    <tableColumn id="42" xr3:uid="{8D973280-FF3B-416E-9345-955008E50D14}" name="boat.jpg" dataDxfId="126"/>
-    <tableColumn id="43" xr3:uid="{6CCA3E6C-5AB9-4635-9F0B-09580CACA26F}" name="Hedgehog.jpg" dataDxfId="125"/>
-    <tableColumn id="44" xr3:uid="{09E165B7-A251-4A23-9F52-04483A02AD81}" name="Butter.jpg" dataDxfId="124"/>
-    <tableColumn id="45" xr3:uid="{C9E794F5-FAF9-4AC6-9062-002A96AFD8AC}" name="lsd.png" dataDxfId="123"/>
-    <tableColumn id="46" xr3:uid="{52420FC9-B1E5-426F-A79D-2D5DE5E44718}" name="Pond.jpg" dataDxfId="122"/>
-    <tableColumn id="47" xr3:uid="{CA51E0A4-08BC-47E1-9953-DC1FADDB773F}" name="Hike.jpg" dataDxfId="121"/>
-    <tableColumn id="48" xr3:uid="{C8FB7793-727D-4BEA-947C-94A2F61D3999}" name="PetrolStation.jpg" dataDxfId="120"/>
-    <tableColumn id="49" xr3:uid="{EE47B2C4-EDF3-4C03-90AD-B616C9462414}" name="Grenade.JPG" dataDxfId="119"/>
-    <tableColumn id="50" xr3:uid="{783B3869-1365-4B0D-B383-4FD424BDC39F}" name="Glock17Gen4.jpg" dataDxfId="118"/>
-    <tableColumn id="51" xr3:uid="{3D7EE6A7-BA1D-4753-9F0A-10BA2A33D054}" name="Phone.jpg" dataDxfId="117"/>
-    <tableColumn id="52" xr3:uid="{BB897CFF-8318-44FC-A032-376E00D0A277}" name="bike_tour.jpg" dataDxfId="116"/>
-    <tableColumn id="53" xr3:uid="{2136CAF5-9EBC-4168-A160-DFB86B2EC2AF}" name="Bread.jpg" dataDxfId="115"/>
-    <tableColumn id="54" xr3:uid="{7E6A7203-3308-496F-8A4E-9BE38AF72EB3}" name="Hotel.jpg" dataDxfId="114"/>
-    <tableColumn id="55" xr3:uid="{E950B841-CD89-4FCF-A1CB-95BDCEE451A3}" name="WashingMachine.JPG" dataDxfId="113"/>
-    <tableColumn id="56" xr3:uid="{DA998318-D61F-4BA1-8E90-CB601CF4BEC1}" name="runway.jpg" dataDxfId="112"/>
-    <tableColumn id="57" xr3:uid="{FA95C60E-1ACF-492B-B9FA-F0D8AC843EB5}" name="Bookshelf.jpg" dataDxfId="111"/>
-    <tableColumn id="58" xr3:uid="{C5907882-892B-4A7D-92E3-62DC5F6996CB}" name="Cheese.jpg" dataDxfId="110"/>
-    <tableColumn id="59" xr3:uid="{66D74073-2647-4BB7-9BD1-F66EE053C80C}" name="drugs.jpg" dataDxfId="109"/>
-    <tableColumn id="60" xr3:uid="{EE20B59D-B3DB-42D6-B5E6-F67F1950AED0}" name="Flag_of_jihad.png" dataDxfId="108"/>
-    <tableColumn id="61" xr3:uid="{3244E6BE-F2D5-462B-8BAF-7A10C529BB31}" name="Al_Qaida.jpg" dataDxfId="107"/>
-    <tableColumn id="62" xr3:uid="{33E0915F-0105-4070-8C52-6D0D754B0BCE}" name="Apple.jpg" dataDxfId="106"/>
-    <tableColumn id="63" xr3:uid="{915A2D46-4600-4E65-979C-548E411DBCBD}" name="soccer_field.jpg" dataDxfId="105"/>
-    <tableColumn id="64" xr3:uid="{4A527ED3-C772-4C7B-B61A-5FAB417AA66F}" name="SofaBed.jpg" dataDxfId="104"/>
-    <tableColumn id="65" xr3:uid="{398A092C-AEEA-4B34-8968-84D9BF67AC41}" name="Giraffe.jpg" dataDxfId="103"/>
-    <tableColumn id="66" xr3:uid="{79599B3B-A28D-4FD0-801F-B4F9900B4F68}" name="party_crowd.jpg" dataDxfId="102"/>
-    <tableColumn id="67" xr3:uid="{C1501152-ABA1-4655-B204-D4764A41F57C}" name="Cola.jpg2" dataDxfId="101"/>
-    <tableColumn id="68" xr3:uid="{D63CC391-5335-4839-B427-C1A96C64721B}" name="Beer.jpg" dataDxfId="100"/>
-    <tableColumn id="69" xr3:uid="{3AEFAF64-088E-4EAC-91C0-64F5DD195F08}" name="children.jpg" dataDxfId="99"/>
-    <tableColumn id="70" xr3:uid="{206B822E-933A-4762-868A-9908B59DF6DA}" name="cocaine.jpg" dataDxfId="98"/>
-    <tableColumn id="71" xr3:uid="{4BF6F1AE-8C2F-41A7-AA84-93DE8A68B6C8}" name="refugeecamp.jpg" dataDxfId="97"/>
-    <tableColumn id="72" xr3:uid="{8E3AAE22-5D66-40CB-B6C0-FC0A1E95F2F6}" name="Car.jpg3" dataDxfId="96"/>
+    <tableColumn id="1" name="Xception" dataDxfId="143"/>
+    <tableColumn id="2" name="Laptop.jpg" dataDxfId="142"/>
+    <tableColumn id="3" name="SteamLocomotive.jpg" dataDxfId="141"/>
+    <tableColumn id="4" name="xtc.jpg" dataDxfId="140"/>
+    <tableColumn id="5" name="heroin.jpg" dataDxfId="139"/>
+    <tableColumn id="6" name="Avocados.jpg" dataDxfId="138"/>
+    <tableColumn id="7" name="pig.jpg" dataDxfId="137"/>
+    <tableColumn id="8" name="Methamphetamine.png" dataDxfId="136"/>
+    <tableColumn id="9" name="bomb.jpg" dataDxfId="135"/>
+    <tableColumn id="10" name="cannabis.jpg" dataDxfId="134"/>
+    <tableColumn id="11" name="knife.png" dataDxfId="133"/>
+    <tableColumn id="12" name="Tractor.jpg" dataDxfId="132"/>
+    <tableColumn id="13" name="Cellphone.jpg" dataDxfId="131"/>
+    <tableColumn id="14" name="Bananas.jpg" dataDxfId="130"/>
+    <tableColumn id="15" name="Ship.jpg" dataDxfId="129"/>
+    <tableColumn id="16" name="Popcorn.png" dataDxfId="128"/>
+    <tableColumn id="17" name="Forest.jpg" dataDxfId="127"/>
+    <tableColumn id="18" name="train.jpg" dataDxfId="126"/>
+    <tableColumn id="19" name="Firefighters.jpg" dataDxfId="125"/>
+    <tableColumn id="20" name="cocaine.png" dataDxfId="124"/>
+    <tableColumn id="21" name="drug_addict.jpg" dataDxfId="123"/>
+    <tableColumn id="22" name="Toothbrush.jpg" dataDxfId="122"/>
+    <tableColumn id="23" name="IceCream.jpg" dataDxfId="121"/>
+    <tableColumn id="24" name="Cola.jpg" dataDxfId="120"/>
+    <tableColumn id="25" name="Vulture.jpg" dataDxfId="119"/>
+    <tableColumn id="26" name="cinema_room.jpg" dataDxfId="118"/>
+    <tableColumn id="27" name="smoking_cigarette.jpg" dataDxfId="117"/>
+    <tableColumn id="28" name="Alpaca.jpg" dataDxfId="116"/>
+    <tableColumn id="29" name="opium_farm.jpg" dataDxfId="115"/>
+    <tableColumn id="30" name="Bike.jpg" dataDxfId="114"/>
+    <tableColumn id="31" name="SoccerGame.jpg" dataDxfId="113"/>
+    <tableColumn id="32" name="Windows.png" dataDxfId="112"/>
+    <tableColumn id="33" name="Yogurt.jpg" dataDxfId="111"/>
+    <tableColumn id="34" name="OpenAirSwimmingPool.jpg" dataDxfId="110"/>
+    <tableColumn id="35" name="airport.jpg" dataDxfId="109"/>
+    <tableColumn id="36" name="eating_women.jpg" dataDxfId="108"/>
+    <tableColumn id="37" name="Bird.jpg" dataDxfId="107"/>
+    <tableColumn id="38" name="PaintBucket.jpg" dataDxfId="106"/>
+    <tableColumn id="39" name="crystal-meth-Methamphetamine.jpg" dataDxfId="105"/>
+    <tableColumn id="40" name="car.jpg" dataDxfId="104"/>
+    <tableColumn id="41" name="SoupBowl.jpg" dataDxfId="103"/>
+    <tableColumn id="42" name="boat.jpg" dataDxfId="102"/>
+    <tableColumn id="43" name="Hedgehog.jpg" dataDxfId="101"/>
+    <tableColumn id="44" name="Butter.jpg" dataDxfId="100"/>
+    <tableColumn id="45" name="lsd.png" dataDxfId="99"/>
+    <tableColumn id="46" name="Pond.jpg" dataDxfId="98"/>
+    <tableColumn id="47" name="Hike.jpg" dataDxfId="97"/>
+    <tableColumn id="48" name="PetrolStation.jpg" dataDxfId="96"/>
+    <tableColumn id="49" name="Grenade.JPG" dataDxfId="95"/>
+    <tableColumn id="50" name="Glock17Gen4.jpg" dataDxfId="94"/>
+    <tableColumn id="51" name="Phone.jpg" dataDxfId="93"/>
+    <tableColumn id="52" name="bike_tour.jpg" dataDxfId="92"/>
+    <tableColumn id="53" name="Bread.jpg" dataDxfId="91"/>
+    <tableColumn id="54" name="Hotel.jpg" dataDxfId="90"/>
+    <tableColumn id="55" name="WashingMachine.JPG" dataDxfId="89"/>
+    <tableColumn id="56" name="runway.jpg" dataDxfId="88"/>
+    <tableColumn id="57" name="Bookshelf.jpg" dataDxfId="87"/>
+    <tableColumn id="58" name="Cheese.jpg" dataDxfId="86"/>
+    <tableColumn id="59" name="drugs.jpg" dataDxfId="85"/>
+    <tableColumn id="60" name="Flag_of_jihad.png" dataDxfId="84"/>
+    <tableColumn id="61" name="Al_Qaida.jpg" dataDxfId="83"/>
+    <tableColumn id="62" name="Apple.jpg" dataDxfId="82"/>
+    <tableColumn id="63" name="soccer_field.jpg" dataDxfId="81"/>
+    <tableColumn id="64" name="SofaBed.jpg" dataDxfId="80"/>
+    <tableColumn id="65" name="Giraffe.jpg" dataDxfId="79"/>
+    <tableColumn id="66" name="party_crowd.jpg" dataDxfId="78"/>
+    <tableColumn id="67" name="Cola.jpg2" dataDxfId="77"/>
+    <tableColumn id="68" name="Beer.jpg" dataDxfId="76"/>
+    <tableColumn id="69" name="children.jpg" dataDxfId="75"/>
+    <tableColumn id="70" name="cocaine.jpg" dataDxfId="74"/>
+    <tableColumn id="71" name="refugeecamp.jpg" dataDxfId="73"/>
+    <tableColumn id="72" name="Car.jpg3" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{47AABC47-C83A-4B7D-A329-F9E7761E60B5}" name="inception_resnet" displayName="inception_resnet" ref="A4:BT9" totalsRowShown="0">
-  <autoFilter ref="A4:BT9" xr:uid="{DB567A1A-064E-408A-A0AF-EAE8F48EAC51}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="inception_resnet" displayName="inception_resnet" ref="A4:BT9" totalsRowShown="0">
+  <autoFilter ref="A4:BT9"/>
   <tableColumns count="72">
-    <tableColumn id="1" xr3:uid="{8AB5EFFF-7D20-4284-B3E3-801C874DB913}" name="InceptionResNet" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{15B47171-E56A-4061-941A-84C7901D5186}" name="Laptop.jpg" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{77C9874E-8FE3-4B0A-8E11-7D1CDEDCE9CD}" name="SteamLocomotive.jpg" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{CF50A6BF-10DD-434A-95A0-BC1512BA866B}" name="xtc.jpg" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{7BF39B84-76B6-4499-8225-40C34111DD2A}" name="heroin.jpg" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{FBC03CA2-5635-4E4E-8F05-98FA143A53F9}" name="Avocados.jpg" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{75424268-F62F-4261-92F6-50BC257B372A}" name="pig.jpg" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{AE07D7F0-D022-4076-9705-44C38F410BA7}" name="Methamphetamine.png" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{26AF0C8E-760D-43F3-92C1-D974FFD69A75}" name="bomb.jpg" dataDxfId="87"/>
-    <tableColumn id="10" xr3:uid="{1A97529C-85AD-4302-AB34-009338633BCE}" name="cannabis.jpg" dataDxfId="86"/>
-    <tableColumn id="11" xr3:uid="{D6A02E83-F4CC-4D4F-9D22-D709938B33E2}" name="knife.png" dataDxfId="85"/>
-    <tableColumn id="12" xr3:uid="{E0CA933C-D5DC-4D2D-A0A3-6FBB9DC1F52E}" name="Tractor.jpg" dataDxfId="84"/>
-    <tableColumn id="13" xr3:uid="{D3C11FAF-DD82-4943-9B4F-C37C7932107D}" name="Cellphone.jpg" dataDxfId="83"/>
-    <tableColumn id="14" xr3:uid="{8DA5EA99-DB80-4105-A3B7-2D133134C5FC}" name="Bananas.jpg" dataDxfId="82"/>
-    <tableColumn id="15" xr3:uid="{0F746BFF-AC7B-4DD4-B820-BAF11626D77B}" name="Ship.jpg" dataDxfId="81"/>
-    <tableColumn id="16" xr3:uid="{C0E278D5-948C-4E20-8217-D0691B9D2A52}" name="Popcorn.png" dataDxfId="80"/>
-    <tableColumn id="17" xr3:uid="{2E29FA1D-1A10-4560-907F-9E78510F1F9D}" name="Forest.jpg" dataDxfId="79"/>
-    <tableColumn id="18" xr3:uid="{8542FA94-D357-4971-A687-654CE4F28245}" name="train.jpg" dataDxfId="78"/>
-    <tableColumn id="19" xr3:uid="{9922D34E-80BC-402E-97C3-EE19A88658EB}" name="Firefighters.jpg" dataDxfId="77"/>
-    <tableColumn id="20" xr3:uid="{EB58108E-D98A-44EB-BF27-4FAA88569952}" name="cocaine.png" dataDxfId="76"/>
-    <tableColumn id="21" xr3:uid="{7C32D59B-A95F-49E2-AC1E-D1ED65BA428E}" name="drug_addict.jpg" dataDxfId="75"/>
-    <tableColumn id="22" xr3:uid="{E0561BF9-BC2C-4D3B-8687-2CA0E5AD3340}" name="Toothbrush.jpg" dataDxfId="74"/>
-    <tableColumn id="23" xr3:uid="{83C2019A-F1D2-4797-9D63-F1B5857FDDF8}" name="IceCream.jpg" dataDxfId="73"/>
-    <tableColumn id="24" xr3:uid="{8755D9EA-42A8-4A53-B3CB-6E5D6AB3C87D}" name="Cola.jpg" dataDxfId="72"/>
-    <tableColumn id="25" xr3:uid="{45A509EA-C5B2-4E15-93F4-ED1D576ED277}" name="Vulture.jpg" dataDxfId="71"/>
-    <tableColumn id="26" xr3:uid="{30AEC445-8889-41E0-81AA-D90682358177}" name="cinema_room.jpg" dataDxfId="70"/>
-    <tableColumn id="27" xr3:uid="{0E04AEA0-B185-49D9-89CF-DD387CD4F3DF}" name="smoking_cigarette.jpg" dataDxfId="69"/>
-    <tableColumn id="28" xr3:uid="{8C68F773-7101-432B-846D-46520797F1F7}" name="Alpaca.jpg" dataDxfId="68"/>
-    <tableColumn id="29" xr3:uid="{4C28E28E-4075-44B9-8182-7B9C89BEFB59}" name="opium_farm.jpg" dataDxfId="67"/>
-    <tableColumn id="30" xr3:uid="{73A3C894-DDDA-42E8-A03B-E674F2683CB9}" name="Bike.jpg" dataDxfId="66"/>
-    <tableColumn id="31" xr3:uid="{69E8989E-39F2-4AF7-AAD6-AD4544531979}" name="SoccerGame.jpg" dataDxfId="65"/>
-    <tableColumn id="32" xr3:uid="{E7EB919A-4E10-4F02-BDF7-C24C9580BF72}" name="Windows.png" dataDxfId="64"/>
-    <tableColumn id="33" xr3:uid="{3E1FF894-7EAE-4149-812B-4BF88540F005}" name="Yogurt.jpg" dataDxfId="63"/>
-    <tableColumn id="34" xr3:uid="{801CC291-E854-4E21-BF56-84B784DC9702}" name="OpenAirSwimmingPool.jpg" dataDxfId="62"/>
-    <tableColumn id="35" xr3:uid="{5E19C155-B9ED-4CEF-9818-3DBD3E908E68}" name="airport.jpg" dataDxfId="61"/>
-    <tableColumn id="36" xr3:uid="{F4454C3C-2D94-4A78-B562-D160CA7AEACC}" name="eating_women.jpg" dataDxfId="60"/>
-    <tableColumn id="37" xr3:uid="{7D3AC033-4C8F-4FC1-8E29-35E6EC3E7D45}" name="Bird.jpg" dataDxfId="59"/>
-    <tableColumn id="38" xr3:uid="{3AA1E00D-3BF8-45E4-A272-4D54D921F670}" name="PaintBucket.jpg" dataDxfId="58"/>
-    <tableColumn id="39" xr3:uid="{58FAC04C-C75E-4BAF-9284-D236AEB0941E}" name="crystal-meth-Methamphetamine.jpg" dataDxfId="57"/>
-    <tableColumn id="40" xr3:uid="{5A25B7E1-27BB-48F0-AAD8-9DD7DC51863D}" name="car.jpg" dataDxfId="56"/>
-    <tableColumn id="41" xr3:uid="{7909A4F6-D96C-40EF-8FBC-D322D6696F06}" name="SoupBowl.jpg" dataDxfId="55"/>
-    <tableColumn id="42" xr3:uid="{4CE3B9B8-69E2-4FE4-8BEB-8C3D841B724F}" name="boat.jpg" dataDxfId="54"/>
-    <tableColumn id="43" xr3:uid="{97FD7F09-0CA8-44C0-B6BD-74E0636F1C72}" name="Hedgehog.jpg" dataDxfId="53"/>
-    <tableColumn id="44" xr3:uid="{EC3ABD7B-A908-44EC-83B2-F0043DD20619}" name="Butter.jpg" dataDxfId="52"/>
-    <tableColumn id="45" xr3:uid="{C29FC5CA-42E0-4685-AF25-D3FE534DE6FE}" name="lsd.png" dataDxfId="51"/>
-    <tableColumn id="46" xr3:uid="{0C75DBB1-7159-42CB-8CCE-A16267F76E57}" name="Pond.jpg" dataDxfId="50"/>
-    <tableColumn id="47" xr3:uid="{10CBBA18-CB85-41BB-B548-9ED2863096C6}" name="Hike.jpg" dataDxfId="49"/>
-    <tableColumn id="48" xr3:uid="{97F55594-7F3B-4958-B7A9-A764B14350E9}" name="PetrolStation.jpg" dataDxfId="48"/>
-    <tableColumn id="49" xr3:uid="{6EB19CD4-4BC8-4CEE-ADA1-E5A69881402A}" name="Grenade.JPG" dataDxfId="47"/>
-    <tableColumn id="50" xr3:uid="{5BDBEE90-947E-4680-84CD-DDDFB0605868}" name="Glock17Gen4.jpg" dataDxfId="46"/>
-    <tableColumn id="51" xr3:uid="{1F21E1C9-B09A-4530-9691-D7E26EA5DC6E}" name="Phone.jpg" dataDxfId="45"/>
-    <tableColumn id="52" xr3:uid="{3F66B657-FE2E-4459-AF78-F4BABBAEE2D2}" name="bike_tour.jpg" dataDxfId="44"/>
-    <tableColumn id="53" xr3:uid="{725D448A-5B24-4357-B925-CE4AB1FD9DA7}" name="Bread.jpg" dataDxfId="43"/>
-    <tableColumn id="54" xr3:uid="{2B0BD0C3-9551-4D74-A22B-8BB580BC7192}" name="Hotel.jpg" dataDxfId="42"/>
-    <tableColumn id="55" xr3:uid="{6A4DCAF6-9C4A-437E-84C3-0EA2EC5EF557}" name="WashingMachine.JPG" dataDxfId="41"/>
-    <tableColumn id="56" xr3:uid="{47FE60C2-F96C-4648-8400-9CE43D1992E0}" name="runway.jpg" dataDxfId="40"/>
-    <tableColumn id="57" xr3:uid="{BC6C0585-2D65-42EB-A65F-62DDF122F7A1}" name="Bookshelf.jpg" dataDxfId="39"/>
-    <tableColumn id="58" xr3:uid="{D4A7E7EB-E98F-4F09-BCE9-61AFF9AD8E71}" name="Cheese.jpg" dataDxfId="38"/>
-    <tableColumn id="59" xr3:uid="{07132F41-45BF-4078-B7E6-DD5BBD336BD5}" name="drugs.jpg" dataDxfId="37"/>
-    <tableColumn id="60" xr3:uid="{123F5743-9F93-4512-A6F4-D224B77BFC81}" name="Flag_of_jihad.png" dataDxfId="36"/>
-    <tableColumn id="61" xr3:uid="{D92A3661-7DF5-4EE1-8AC4-9DB5D9DED1D0}" name="Al_Qaida.jpg" dataDxfId="35"/>
-    <tableColumn id="62" xr3:uid="{048E22AD-E9A4-4A53-8B2B-FEBEB5679A59}" name="Apple.jpg" dataDxfId="34"/>
-    <tableColumn id="63" xr3:uid="{287E2E6C-D5CF-4E3D-BA4D-E6734224BA6A}" name="soccer_field.jpg" dataDxfId="33"/>
-    <tableColumn id="64" xr3:uid="{2B7EEA1D-AEAD-4C30-94A1-9E95202022FD}" name="SofaBed.jpg" dataDxfId="32"/>
-    <tableColumn id="65" xr3:uid="{554804AB-7805-4D23-AFEE-796E86A01F1F}" name="Giraffe.jpg" dataDxfId="31"/>
-    <tableColumn id="66" xr3:uid="{6AFD353B-A097-498C-88A1-14005AC26D68}" name="party_crowd.jpg" dataDxfId="30"/>
-    <tableColumn id="67" xr3:uid="{8C84DD44-56CE-4F3F-9029-3B348559439D}" name="Cola.jpg2" dataDxfId="29"/>
-    <tableColumn id="68" xr3:uid="{CC368C9D-05E8-4970-A577-719D445C70CA}" name="Beer.jpg" dataDxfId="28"/>
-    <tableColumn id="69" xr3:uid="{7FFBA421-F222-4D85-9021-FF7F30315B43}" name="children.jpg" dataDxfId="27"/>
-    <tableColumn id="70" xr3:uid="{C2E0D276-0FFF-42BC-94FA-10168DE76941}" name="cocaine.jpg" dataDxfId="26"/>
-    <tableColumn id="71" xr3:uid="{FA442AE2-5EC2-484A-AD4D-52C386D4482B}" name="refugeecamp.jpg" dataDxfId="25"/>
-    <tableColumn id="72" xr3:uid="{33439E01-9435-4771-8CA1-68B34C301029}" name="Car.jpg3" dataDxfId="24"/>
+    <tableColumn id="1" name="InceptionResNet" dataDxfId="71"/>
+    <tableColumn id="2" name="Laptop.jpg" dataDxfId="70"/>
+    <tableColumn id="3" name="SteamLocomotive.jpg" dataDxfId="69"/>
+    <tableColumn id="4" name="xtc.jpg" dataDxfId="68"/>
+    <tableColumn id="5" name="heroin.jpg" dataDxfId="67"/>
+    <tableColumn id="6" name="Avocados.jpg" dataDxfId="66"/>
+    <tableColumn id="7" name="pig.jpg" dataDxfId="65"/>
+    <tableColumn id="8" name="Methamphetamine.png" dataDxfId="64"/>
+    <tableColumn id="9" name="bomb.jpg" dataDxfId="63"/>
+    <tableColumn id="10" name="cannabis.jpg" dataDxfId="62"/>
+    <tableColumn id="11" name="knife.png" dataDxfId="61"/>
+    <tableColumn id="12" name="Tractor.jpg" dataDxfId="60"/>
+    <tableColumn id="13" name="Cellphone.jpg" dataDxfId="59"/>
+    <tableColumn id="14" name="Bananas.jpg" dataDxfId="58"/>
+    <tableColumn id="15" name="Ship.jpg" dataDxfId="57"/>
+    <tableColumn id="16" name="Popcorn.png" dataDxfId="56"/>
+    <tableColumn id="17" name="Forest.jpg" dataDxfId="55"/>
+    <tableColumn id="18" name="train.jpg" dataDxfId="54"/>
+    <tableColumn id="19" name="Firefighters.jpg" dataDxfId="53"/>
+    <tableColumn id="20" name="cocaine.png" dataDxfId="52"/>
+    <tableColumn id="21" name="drug_addict.jpg" dataDxfId="51"/>
+    <tableColumn id="22" name="Toothbrush.jpg" dataDxfId="50"/>
+    <tableColumn id="23" name="IceCream.jpg" dataDxfId="49"/>
+    <tableColumn id="24" name="Cola.jpg" dataDxfId="48"/>
+    <tableColumn id="25" name="Vulture.jpg" dataDxfId="47"/>
+    <tableColumn id="26" name="cinema_room.jpg" dataDxfId="46"/>
+    <tableColumn id="27" name="smoking_cigarette.jpg" dataDxfId="45"/>
+    <tableColumn id="28" name="Alpaca.jpg" dataDxfId="44"/>
+    <tableColumn id="29" name="opium_farm.jpg" dataDxfId="43"/>
+    <tableColumn id="30" name="Bike.jpg" dataDxfId="42"/>
+    <tableColumn id="31" name="SoccerGame.jpg" dataDxfId="41"/>
+    <tableColumn id="32" name="Windows.png" dataDxfId="40"/>
+    <tableColumn id="33" name="Yogurt.jpg" dataDxfId="39"/>
+    <tableColumn id="34" name="OpenAirSwimmingPool.jpg" dataDxfId="38"/>
+    <tableColumn id="35" name="airport.jpg" dataDxfId="37"/>
+    <tableColumn id="36" name="eating_women.jpg" dataDxfId="36"/>
+    <tableColumn id="37" name="Bird.jpg" dataDxfId="35"/>
+    <tableColumn id="38" name="PaintBucket.jpg" dataDxfId="34"/>
+    <tableColumn id="39" name="crystal-meth-Methamphetamine.jpg" dataDxfId="33"/>
+    <tableColumn id="40" name="car.jpg" dataDxfId="32"/>
+    <tableColumn id="41" name="SoupBowl.jpg" dataDxfId="31"/>
+    <tableColumn id="42" name="boat.jpg" dataDxfId="30"/>
+    <tableColumn id="43" name="Hedgehog.jpg" dataDxfId="29"/>
+    <tableColumn id="44" name="Butter.jpg" dataDxfId="28"/>
+    <tableColumn id="45" name="lsd.png" dataDxfId="27"/>
+    <tableColumn id="46" name="Pond.jpg" dataDxfId="26"/>
+    <tableColumn id="47" name="Hike.jpg" dataDxfId="25"/>
+    <tableColumn id="48" name="PetrolStation.jpg" dataDxfId="24"/>
+    <tableColumn id="49" name="Grenade.JPG" dataDxfId="23"/>
+    <tableColumn id="50" name="Glock17Gen4.jpg" dataDxfId="22"/>
+    <tableColumn id="51" name="Phone.jpg" dataDxfId="21"/>
+    <tableColumn id="52" name="bike_tour.jpg" dataDxfId="20"/>
+    <tableColumn id="53" name="Bread.jpg" dataDxfId="19"/>
+    <tableColumn id="54" name="Hotel.jpg" dataDxfId="18"/>
+    <tableColumn id="55" name="WashingMachine.JPG" dataDxfId="17"/>
+    <tableColumn id="56" name="runway.jpg" dataDxfId="16"/>
+    <tableColumn id="57" name="Bookshelf.jpg" dataDxfId="15"/>
+    <tableColumn id="58" name="Cheese.jpg" dataDxfId="14"/>
+    <tableColumn id="59" name="drugs.jpg" dataDxfId="13"/>
+    <tableColumn id="60" name="Flag_of_jihad.png" dataDxfId="12"/>
+    <tableColumn id="61" name="Al_Qaida.jpg" dataDxfId="11"/>
+    <tableColumn id="62" name="Apple.jpg" dataDxfId="10"/>
+    <tableColumn id="63" name="soccer_field.jpg" dataDxfId="9"/>
+    <tableColumn id="64" name="SofaBed.jpg" dataDxfId="8"/>
+    <tableColumn id="65" name="Giraffe.jpg" dataDxfId="7"/>
+    <tableColumn id="66" name="party_crowd.jpg" dataDxfId="6"/>
+    <tableColumn id="67" name="Cola.jpg2" dataDxfId="5"/>
+    <tableColumn id="68" name="Beer.jpg" dataDxfId="4"/>
+    <tableColumn id="69" name="children.jpg" dataDxfId="3"/>
+    <tableColumn id="70" name="cocaine.jpg" dataDxfId="2"/>
+    <tableColumn id="71" name="refugeecamp.jpg" dataDxfId="1"/>
+    <tableColumn id="72" name="Car.jpg3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6063,87 +6065,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847074CA-00C2-43AD-9380-7F58422588AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BT16" sqref="BT16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.44140625" customWidth="1"/>
+    <col min="60" max="60" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.33203125" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -6358,7 +6360,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -6573,7 +6575,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -7734,7 +7736,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -7952,7 +7954,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -8170,7 +8172,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -8336,8 +8338,59 @@
       <c r="BC11" s="3">
         <v>1</v>
       </c>
+      <c r="BD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -8501,6 +8554,57 @@
         <v>0</v>
       </c>
       <c r="BC12" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="31">
         <v>1</v>
       </c>
     </row>
@@ -8513,88 +8617,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62AF4AC-A49C-49D6-9E02-FF1EBD20E539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5546875" customWidth="1"/>
+    <col min="60" max="60" width="15.33203125" customWidth="1"/>
+    <col min="61" max="61" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="12" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -8809,7 +8913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -9024,7 +9128,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -9313,7 +9417,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>342</v>
       </c>
@@ -9531,7 +9635,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -9749,7 +9853,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -9967,7 +10071,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -10185,7 +10289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -10403,7 +10507,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -10621,7 +10725,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -10787,8 +10891,59 @@
       <c r="BC11" s="5">
         <v>1</v>
       </c>
+      <c r="BD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -10952,6 +11107,57 @@
         <v>0</v>
       </c>
       <c r="BC12" s="5">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="31">
         <v>1</v>
       </c>
     </row>
@@ -10964,88 +11170,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDDC2B-214B-499B-89CE-9FC6115C0E00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -11260,7 +11465,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -11475,7 +11680,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -11764,7 +11969,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -11982,7 +12187,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -12200,7 +12405,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -12418,7 +12623,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -12636,7 +12841,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -12854,7 +13059,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -13072,7 +13277,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -13238,8 +13443,59 @@
       <c r="BC11" s="6">
         <v>1</v>
       </c>
+      <c r="BD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -13403,6 +13659,57 @@
         <v>0</v>
       </c>
       <c r="BC12" s="6">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="31">
         <v>1</v>
       </c>
     </row>
@@ -13415,88 +13722,88 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0531973-FBE4-459A-9E59-2DD83F48C3DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="19" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -13711,7 +14018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -13926,7 +14233,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -14215,7 +14522,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>474</v>
       </c>
@@ -14433,7 +14740,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -14651,7 +14958,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -14869,7 +15176,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -15087,7 +15394,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -15305,7 +15612,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -15523,7 +15830,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -15689,8 +15996,59 @@
       <c r="BC11" s="7">
         <v>1</v>
       </c>
+      <c r="BD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -15854,6 +16212,57 @@
         <v>0</v>
       </c>
       <c r="BC12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="31">
         <v>1</v>
       </c>
     </row>
@@ -15866,87 +16275,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580FB2B3-CB1C-476B-B8D0-EDD6312D152E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BT16" sqref="BT16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -16161,7 +16570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -16376,7 +16785,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -16665,7 +17074,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>509</v>
       </c>
@@ -16883,7 +17292,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -17101,7 +17510,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -17319,7 +17728,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -17537,7 +17946,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -17755,7 +18164,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -17973,7 +18382,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -18139,8 +18548,59 @@
       <c r="BC11" s="8">
         <v>1</v>
       </c>
+      <c r="BD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -18304,6 +18764,57 @@
         <v>0</v>
       </c>
       <c r="BC12" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="31">
         <v>1</v>
       </c>
     </row>
@@ -18316,88 +18827,88 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5873861-7BB8-4C0D-B4F0-EE71BDB5D866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BT17" sqref="BT17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="15" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -18612,7 +19123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -18827,7 +19338,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -19116,7 +19627,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>533</v>
       </c>
@@ -19334,7 +19845,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -19552,7 +20063,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -19770,7 +20281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -19988,7 +20499,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -20206,7 +20717,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -20424,7 +20935,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -20590,8 +21101,59 @@
       <c r="BC11" s="9">
         <v>1</v>
       </c>
+      <c r="BD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -20755,6 +21317,57 @@
         <v>0</v>
       </c>
       <c r="BC12" s="9">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="31">
         <v>1</v>
       </c>
     </row>
@@ -20767,88 +21380,88 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7FCF79-2E49-4AFF-988C-E4BB5C08D42A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BT12" sqref="BT12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -21063,7 +21676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -21278,7 +21891,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -21567,7 +22180,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>573</v>
       </c>
@@ -21785,7 +22398,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -22003,7 +22616,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -22221,7 +22834,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -22439,7 +23052,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -22657,7 +23270,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -22875,7 +23488,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -23041,8 +23654,59 @@
       <c r="BC11" s="10">
         <v>1</v>
       </c>
+      <c r="BD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -23206,6 +23870,57 @@
         <v>0</v>
       </c>
       <c r="BC12" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="31">
         <v>1</v>
       </c>
     </row>
@@ -23218,88 +23933,88 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41344A75-69A0-494A-87C9-2B407DF4026F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BT12"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BT15" sqref="BT15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="20" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="15" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.77734375" customWidth="1"/>
+    <col min="66" max="66" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="23" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="13" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -23514,7 +24229,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>608</v>
       </c>
@@ -23729,7 +24444,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>623</v>
       </c>
@@ -24018,7 +24733,7 @@
         <v>https://bilder.bild.de/fotos-skaliert/mercedes-cabrio-200727469-55103508/2,w=993,q=high,c=0.bild.jpg</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>591</v>
       </c>
@@ -24236,7 +24951,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -24454,7 +25169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -24672,7 +25387,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -24890,7 +25605,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -25108,7 +25823,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -25326,7 +26041,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>612</v>
       </c>
@@ -25492,8 +26207,59 @@
       <c r="BC11" s="11">
         <v>1</v>
       </c>
+      <c r="BD11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BM11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>613</v>
       </c>
@@ -25657,6 +26423,57 @@
         <v>0</v>
       </c>
       <c r="BC12" s="11">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="31">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="31">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="31">
         <v>1</v>
       </c>
     </row>
@@ -25669,19 +26486,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A549D88-9782-4382-B82A-DD67F5D5D994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="17.7109375" customWidth="1"/>
+    <col min="2" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
+    <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>625</v>
       </c>
@@ -25689,7 +26506,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
         <v>614</v>
       </c>
@@ -25715,86 +26532,86 @@
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>615</v>
       </c>
       <c r="B4" s="27">
         <f>SUM('VGG 16'!B11:BT11)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <f>SUM('VGG 19'!B11:BT11)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <f>SUM('MobileNet V2'!B11:BT11)</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <f>SUM('ResNet 50'!B11:BT11)</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <f>SUM('DenseNet 201'!B11:BT11)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <f>SUM('Inception V3'!B11:BT11)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <f>SUM(Xception!B11:BT11)</f>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4">
         <f>SUM(InceptionResnet!B11:BT11)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>619</v>
       </c>
       <c r="B5" s="27">
         <f>SUM('VGG 16'!B12:BT12)</f>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <f>SUM('VGG 19'!B12:BT12)</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <f>SUM('MobileNet V2'!B12:BT12)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <f>SUM('ResNet 50'!B12:BT12)</f>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5" s="4">
         <f>SUM('DenseNet 201'!B12:BT12)</f>
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <f>SUM('Inception V3'!B12:BT12)</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <f>SUM(Xception!B12:BT12)</f>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I5">
         <f>SUM(InceptionResnet!B12:BT12)</f>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>614</v>
       </c>
@@ -25823,86 +26640,86 @@
         <v>624</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>615</v>
       </c>
       <c r="B12" s="27">
         <f>B4/L12</f>
-        <v>0.44444444444444442</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="C12" s="28">
         <f>C4/$L$12</f>
-        <v>0.5</v>
+        <v>0.46478873239436619</v>
       </c>
       <c r="D12" s="28">
         <f>D4/$L$12</f>
-        <v>0.5</v>
+        <v>0.47887323943661969</v>
       </c>
       <c r="E12" s="28">
         <f>E4/$L$12</f>
-        <v>0.48148148148148145</v>
+        <v>0.46478873239436619</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" ref="F12:I12" si="0">F4/$L$12</f>
-        <v>0.51851851851851849</v>
+        <v>0.50704225352112675</v>
       </c>
       <c r="G12" s="28">
         <f t="shared" si="0"/>
-        <v>0.51851851851851849</v>
+        <v>0.50704225352112675</v>
       </c>
       <c r="H12" s="28">
         <f t="shared" si="0"/>
-        <v>0.51851851851851849</v>
+        <v>0.50704225352112675</v>
       </c>
       <c r="I12" s="29">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.54929577464788737</v>
       </c>
       <c r="L12">
         <f>COUNTA('VGG 16'!B11:EP11)</f>
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>619</v>
       </c>
       <c r="B13" s="27">
         <f>B5/$L$13</f>
-        <v>0.62962962962962965</v>
+        <v>0.56338028169014087</v>
       </c>
       <c r="C13" s="28">
         <f t="shared" ref="C13:I13" si="1">C5/$L$13</f>
-        <v>0.64814814814814814</v>
+        <v>0.59154929577464788</v>
       </c>
       <c r="D13" s="28">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.63380281690140849</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>0.62962962962962965</v>
+        <v>0.59154929577464788</v>
       </c>
       <c r="F13" s="29">
         <f t="shared" si="1"/>
-        <v>0.68518518518518523</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="G13" s="28">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.63380281690140849</v>
       </c>
       <c r="H13" s="28">
         <f t="shared" si="1"/>
-        <v>0.64814814814814814</v>
+        <v>0.61971830985915488</v>
       </c>
       <c r="I13" s="28">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L13" s="24">
         <f>COUNTA('VGG 16'!B12:EP12)</f>
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
